--- a/lcdaily.xlsx
+++ b/lcdaily.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\sttt\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECC8D53-6438-45B9-8026-40050C40269D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9007" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
     <sheet name="每日考勤" sheetId="2" r:id="rId2"/>
     <sheet name="非高频思考" sheetId="3" r:id="rId3"/>
     <sheet name="150以后高频思考" sheetId="4" r:id="rId4"/>
-    <sheet name="Hashtable" sheetId="5" r:id="rId5"/>
-    <sheet name="bit" sheetId="6" r:id="rId6"/>
-    <sheet name="linkedlist" sheetId="7" r:id="rId7"/>
-    <sheet name="math" sheetId="8" r:id="rId8"/>
+    <sheet name="bit" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="336">
   <si>
     <t>目前的目标是过整理的笔记，以及所有题目的算法，不求写程序了，写程序的熟练度已经差不多了。要bug free很难，下面就是力争把900题的hard算法全部能搞定</t>
   </si>
@@ -1000,12 +991,82 @@
   <si>
     <t>don't forget 1.0 and 1 are same version</t>
   </si>
+  <si>
+    <t>. build list first. every time need to use num-1 for both % and //</t>
+  </si>
+  <si>
+    <t>forget n==5 case. 先把n//5的结果加上去。然后divider乘以5.再把n//25d结果加上去。以此类推。</t>
+  </si>
+  <si>
+    <t>算法想到了</t>
+  </si>
+  <si>
+    <t>算法也想到了，但是排序的实现要练习</t>
+  </si>
+  <si>
+    <t>很无语，以为有巧妙方法，实际上用brutal force</t>
+  </si>
+  <si>
+    <t>easy。三种方法</t>
+  </si>
+  <si>
+    <t>注意check last element is none</t>
+  </si>
+  <si>
+    <t>好好看看报告里面别人的代码，很精辟</t>
+  </si>
+  <si>
+    <t>要做两个dict，互相转换。如果只做一个容易不对</t>
+  </si>
+  <si>
+    <t>要练习代码</t>
+  </si>
+  <si>
+    <t>tooo easy. Don't waste time to read it again</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>算法简单想的很清楚</t>
+  </si>
+  <si>
+    <t>最后注意res[0] and res[-1] 的边界情况。总之就是res[i] = p*res[i+1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for key, value in d.items(): 如果通过index，val 遍历，用 For i,v in enumerate(d)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">但是要注意如果被9整除，除了是0的时候，都应该返回9. </t>
+  </si>
+  <si>
+    <t>注意考虑0和负数</t>
+  </si>
+  <si>
+    <t>好几种方法</t>
+  </si>
+  <si>
+    <t>这题很繁杂。分类的时候要用&gt;=1e6,&gt;=1e3,否则1000就不会分到对的区间。1000000在1e3-1e6位置是0，不能输出任何val，需要判断如果是空就不能加上thousand,否则产生1million thousand. 还要注意，123%1000产生的数字是int，但是123%1e3产生的是float！123//100是int，123//1e2就是float，float不能做array的index！！</t>
+  </si>
+  <si>
+    <t>dp算法想出来了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swap的算法没相对，而且nums=sorted(nums) 不能inplace sort,inplace必须用num.sort(),  </t>
+  </si>
+  <si>
+    <t>从doc补充到此暂停</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1077,6 +1138,46 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1104,7 +1205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1123,6 +1224,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,7 +1305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1235,7 +1357,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1429,30 +1551,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA251"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186:C247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
-    <col min="3" max="3" width="49.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.2">
+    <row r="1" spans="1:5" ht="12.9">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1466,7 +1588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.2">
+    <row r="2" spans="1:5" ht="12.9">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1477,7 +1599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.2">
+    <row r="3" spans="1:5" ht="12.9">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -1491,7 +1613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.2">
+    <row r="4" spans="1:5" ht="12.9">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -1502,7 +1624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.2">
+    <row r="5" spans="1:5" ht="12.9">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -1519,7 +1641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.2">
+    <row r="6" spans="1:5" ht="12.9">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1530,7 +1652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.2">
+    <row r="7" spans="1:5" ht="12.9">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -1544,7 +1666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.2">
+    <row r="8" spans="1:5" ht="12.9">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -1555,7 +1677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.2">
+    <row r="9" spans="1:5" ht="12.9">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1566,7 +1688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.2">
+    <row r="10" spans="1:5" ht="12.9">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1577,7 +1699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.2">
+    <row r="11" spans="1:5" ht="12.9">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1591,7 +1713,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.2">
+    <row r="12" spans="1:5" ht="12.9">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -1602,7 +1724,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.2">
+    <row r="13" spans="1:5" ht="12.9">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -1613,7 +1735,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.2">
+    <row r="14" spans="1:5" ht="12.9">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1624,7 +1746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.2">
+    <row r="15" spans="1:5" ht="12.9">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -1638,7 +1760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.2">
+    <row r="16" spans="1:5" ht="12.9">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -1652,7 +1774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.2">
+    <row r="17" spans="1:4" ht="12.9">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1666,7 +1788,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.2">
+    <row r="18" spans="1:4" ht="12.9">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -1677,7 +1799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.2">
+    <row r="19" spans="1:4" ht="12.9">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1688,7 +1810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.2">
+    <row r="20" spans="1:4" ht="12.9">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -1699,7 +1821,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.2">
+    <row r="21" spans="1:4" ht="12.9">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -1710,7 +1832,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.2">
+    <row r="22" spans="1:4" ht="12.9">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1724,7 +1846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.2">
+    <row r="23" spans="1:4" ht="12.9">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -1735,7 +1857,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.2">
+    <row r="24" spans="1:4" ht="12.9">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -1746,7 +1868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13.2">
+    <row r="25" spans="1:4" ht="12.9">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -1758,7 +1880,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="13.2">
+    <row r="26" spans="1:4" ht="12.9">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1772,7 +1894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.2">
+    <row r="27" spans="1:4" ht="12.9">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -1786,7 +1908,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.2">
+    <row r="28" spans="1:4" ht="12.9">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -1797,7 +1919,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.2">
+    <row r="29" spans="1:4" ht="12.9">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -1808,7 +1930,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.2">
+    <row r="30" spans="1:4" ht="12.9">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -1822,7 +1944,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13.2">
+    <row r="31" spans="1:4" ht="12.9">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -1833,7 +1955,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13.2">
+    <row r="32" spans="1:4" ht="13.6">
       <c r="A32" s="4">
         <v>32</v>
       </c>
@@ -1845,7 +1967,7 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="13.6">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -1859,7 +1981,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="13.2">
+    <row r="34" spans="1:5" ht="13.6">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -1873,7 +1995,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="13.2">
+    <row r="35" spans="1:5" ht="13.6">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -1890,7 +2012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="13.8">
+    <row r="36" spans="1:5" ht="13.6">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -1901,7 +2023,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="13.8">
+    <row r="37" spans="1:5" ht="13.6">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -1912,7 +2034,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="13.2">
+    <row r="38" spans="1:5" ht="12.9">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -1923,7 +2045,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="13.2">
+    <row r="39" spans="1:5" ht="12.9">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -1934,7 +2056,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="13.2">
+    <row r="40" spans="1:5" ht="12.9">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -1945,7 +2067,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="13.2">
+    <row r="41" spans="1:5" ht="12.9">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -1956,7 +2078,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="13.2">
+    <row r="42" spans="1:5" ht="12.9">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -1967,7 +2089,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="13.2">
+    <row r="43" spans="1:5" ht="12.9">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -1981,7 +2103,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="13.8">
+    <row r="44" spans="1:5" ht="13.6">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -1992,7 +2114,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="13.8">
+    <row r="45" spans="1:5" ht="13.6">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -2004,7 +2126,7 @@
       </c>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="13.8">
+    <row r="46" spans="1:5" ht="13.6">
       <c r="A46" s="2">
         <v>46</v>
       </c>
@@ -2018,7 +2140,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="13.8">
+    <row r="47" spans="1:5" ht="13.6">
       <c r="A47" s="2">
         <v>47</v>
       </c>
@@ -2032,7 +2154,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="13.2">
+    <row r="48" spans="1:5" ht="12.9">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -2046,7 +2168,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="13.2">
+    <row r="49" spans="1:4" ht="12.9">
       <c r="A49" s="2">
         <v>49</v>
       </c>
@@ -2057,7 +2179,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="13.2">
+    <row r="50" spans="1:4" ht="12.9">
       <c r="A50" s="2">
         <v>50</v>
       </c>
@@ -2068,7 +2190,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="13.8">
+    <row r="51" spans="1:4" ht="14.3">
       <c r="A51" s="2">
         <v>51</v>
       </c>
@@ -2080,7 +2202,7 @@
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" ht="13.2">
+    <row r="52" spans="1:4" ht="13.6">
       <c r="A52" s="2">
         <v>52</v>
       </c>
@@ -2092,7 +2214,7 @@
       </c>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="1:4" ht="13.2">
+    <row r="53" spans="1:4" ht="13.6">
       <c r="A53" s="2">
         <v>53</v>
       </c>
@@ -2104,7 +2226,7 @@
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" ht="13.2">
+    <row r="54" spans="1:4" ht="12.9">
       <c r="A54" s="2">
         <v>54</v>
       </c>
@@ -2115,7 +2237,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="13.2">
+    <row r="55" spans="1:4" ht="12.9">
       <c r="A55" s="2">
         <v>55</v>
       </c>
@@ -2126,7 +2248,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="13.2">
+    <row r="56" spans="1:4" ht="12.9">
       <c r="A56" s="2">
         <v>56</v>
       </c>
@@ -2137,7 +2259,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="13.2">
+    <row r="57" spans="1:4" ht="12.9">
       <c r="A57" s="2">
         <v>57</v>
       </c>
@@ -2148,7 +2270,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="13.2">
+    <row r="58" spans="1:4" ht="12.9">
       <c r="A58" s="2">
         <v>58</v>
       </c>
@@ -2159,7 +2281,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="13.2">
+    <row r="59" spans="1:4" ht="12.9">
       <c r="A59" s="2">
         <v>59</v>
       </c>
@@ -2170,7 +2292,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="13.2">
+    <row r="60" spans="1:4" ht="12.9">
       <c r="A60" s="2">
         <v>60</v>
       </c>
@@ -2181,7 +2303,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="13.2">
+    <row r="61" spans="1:4" ht="12.9">
       <c r="A61" s="2">
         <v>61</v>
       </c>
@@ -2192,7 +2314,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="13.2">
+    <row r="62" spans="1:4" ht="12.9">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -2203,7 +2325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="13.2">
+    <row r="63" spans="1:4" ht="12.9">
       <c r="A63" s="2">
         <v>63</v>
       </c>
@@ -2214,7 +2336,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="13.2">
+    <row r="64" spans="1:4" ht="12.9">
       <c r="A64" s="2">
         <v>64</v>
       </c>
@@ -2225,7 +2347,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="13.2">
+    <row r="65" spans="1:4" ht="13.6">
       <c r="A65" s="2">
         <v>65</v>
       </c>
@@ -2237,7 +2359,7 @@
       </c>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="1:4" ht="13.2">
+    <row r="66" spans="1:4" ht="13.6">
       <c r="A66" s="2">
         <v>66</v>
       </c>
@@ -2251,7 +2373,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="13.2">
+    <row r="67" spans="1:4" ht="12.9">
       <c r="A67" s="2">
         <v>67</v>
       </c>
@@ -2265,7 +2387,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="13.2">
+    <row r="68" spans="1:4" ht="12.9">
       <c r="A68" s="4">
         <v>68</v>
       </c>
@@ -2276,7 +2398,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="13.2">
+    <row r="69" spans="1:4" ht="12.9">
       <c r="A69" s="2">
         <v>69</v>
       </c>
@@ -2287,7 +2409,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="13.2">
+    <row r="70" spans="1:4" ht="12.9">
       <c r="A70" s="2">
         <v>70</v>
       </c>
@@ -2298,7 +2420,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="13.2">
+    <row r="71" spans="1:4" ht="12.9">
       <c r="A71" s="2">
         <v>71</v>
       </c>
@@ -2309,7 +2431,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="13.2">
+    <row r="72" spans="1:4" ht="12.9">
       <c r="A72" s="4">
         <v>72</v>
       </c>
@@ -2320,7 +2442,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="13.2">
+    <row r="73" spans="1:4" ht="12.9">
       <c r="A73" s="3">
         <v>73</v>
       </c>
@@ -2334,7 +2456,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="13.2">
+    <row r="74" spans="1:4" ht="12.9">
       <c r="A74" s="3">
         <v>74</v>
       </c>
@@ -2345,7 +2467,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="13.2">
+    <row r="75" spans="1:4" ht="12.9">
       <c r="A75" s="2">
         <v>75</v>
       </c>
@@ -2356,7 +2478,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="13.2">
+    <row r="76" spans="1:4" ht="12.9">
       <c r="A76" s="3">
         <v>76</v>
       </c>
@@ -2367,7 +2489,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="13.2">
+    <row r="77" spans="1:4" ht="12.9">
       <c r="A77" s="2">
         <v>77</v>
       </c>
@@ -2378,7 +2500,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="13.2">
+    <row r="78" spans="1:4" ht="12.9">
       <c r="A78" s="2">
         <v>78</v>
       </c>
@@ -2389,7 +2511,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="13.2">
+    <row r="79" spans="1:4" ht="12.9">
       <c r="A79" s="2">
         <v>79</v>
       </c>
@@ -2403,7 +2525,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="13.2">
+    <row r="80" spans="1:4" ht="12.9">
       <c r="A80" s="2">
         <v>80</v>
       </c>
@@ -2414,7 +2536,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="13.2">
+    <row r="81" spans="1:4" ht="12.9">
       <c r="A81" s="2">
         <v>81</v>
       </c>
@@ -2425,7 +2547,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="13.2">
+    <row r="82" spans="1:4" ht="12.9">
       <c r="A82" s="2">
         <v>82</v>
       </c>
@@ -2436,7 +2558,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="13.2">
+    <row r="83" spans="1:4" ht="12.9">
       <c r="A83" s="2">
         <v>83</v>
       </c>
@@ -2447,7 +2569,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="13.2">
+    <row r="84" spans="1:4" ht="12.9">
       <c r="A84" s="4">
         <v>84</v>
       </c>
@@ -2459,7 +2581,7 @@
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:4" ht="13.2">
+    <row r="85" spans="1:4" ht="12.9">
       <c r="A85" s="4">
         <v>85</v>
       </c>
@@ -2471,7 +2593,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" ht="13.2">
+    <row r="86" spans="1:4" ht="12.9">
       <c r="A86" s="2">
         <v>86</v>
       </c>
@@ -2483,7 +2605,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" ht="13.2">
+    <row r="87" spans="1:4" ht="12.9">
       <c r="A87" s="4">
         <v>87</v>
       </c>
@@ -2495,7 +2617,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" ht="13.2">
+    <row r="88" spans="1:4" ht="12.9">
       <c r="A88" s="2">
         <v>88</v>
       </c>
@@ -2509,7 +2631,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="13.2">
+    <row r="89" spans="1:4" ht="12.9">
       <c r="A89" s="4">
         <v>89</v>
       </c>
@@ -2520,7 +2642,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="13.2">
+    <row r="90" spans="1:4" ht="12.9">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -2531,7 +2653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="13.2">
+    <row r="91" spans="1:4" ht="12.9">
       <c r="A91" s="2">
         <v>91</v>
       </c>
@@ -2542,7 +2664,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="13.8">
+    <row r="92" spans="1:4" ht="13.6">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -2553,7 +2675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="13.8">
+    <row r="93" spans="1:4" ht="13.6">
       <c r="A93" s="2">
         <v>93</v>
       </c>
@@ -2564,7 +2686,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="13.8">
+    <row r="94" spans="1:4" ht="13.6">
       <c r="A94" s="2">
         <v>94</v>
       </c>
@@ -2575,7 +2697,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="13.2">
+    <row r="95" spans="1:4" ht="12.9">
       <c r="A95" s="4">
         <v>95</v>
       </c>
@@ -2589,7 +2711,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="13.2">
+    <row r="96" spans="1:4" ht="12.9">
       <c r="A96" s="2">
         <v>96</v>
       </c>
@@ -2600,7 +2722,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="19.5" customHeight="1">
+    <row r="97" spans="1:4" ht="19.55" customHeight="1">
       <c r="A97" s="2">
         <v>97</v>
       </c>
@@ -2611,7 +2733,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="13.2">
+    <row r="98" spans="1:4" ht="12.9">
       <c r="A98" s="2">
         <v>98</v>
       </c>
@@ -2622,7 +2744,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="13.2">
+    <row r="99" spans="1:4" ht="12.9">
       <c r="A99" s="4">
         <v>99</v>
       </c>
@@ -2633,7 +2755,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="13.2">
+    <row r="100" spans="1:4" ht="12.9">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -2644,7 +2766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="13.2">
+    <row r="101" spans="1:4" ht="12.9">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -2655,7 +2777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="13.2">
+    <row r="102" spans="1:4" ht="12.9">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -2666,7 +2788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="13.2">
+    <row r="103" spans="1:4" ht="12.9">
       <c r="A103" s="2">
         <v>103</v>
       </c>
@@ -2677,7 +2799,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="13.2">
+    <row r="104" spans="1:4" ht="12.9">
       <c r="A104" s="2">
         <v>104</v>
       </c>
@@ -2688,7 +2810,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="13.2">
+    <row r="105" spans="1:4" ht="12.9">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -2699,7 +2821,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="13.8">
+    <row r="106" spans="1:4" ht="13.6">
       <c r="A106" s="2">
         <v>106</v>
       </c>
@@ -2710,7 +2832,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="13.8">
+    <row r="107" spans="1:4" ht="13.6">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -2722,7 +2844,7 @@
       </c>
       <c r="D107" s="8"/>
     </row>
-    <row r="108" spans="1:4" ht="13.8">
+    <row r="108" spans="1:4" ht="13.6">
       <c r="A108" s="2">
         <v>108</v>
       </c>
@@ -2734,7 +2856,7 @@
       </c>
       <c r="D108" s="8"/>
     </row>
-    <row r="109" spans="1:4" ht="13.8">
+    <row r="109" spans="1:4" ht="13.6">
       <c r="A109" s="2">
         <v>109</v>
       </c>
@@ -2746,7 +2868,7 @@
       </c>
       <c r="D109" s="8"/>
     </row>
-    <row r="110" spans="1:4" ht="13.2">
+    <row r="110" spans="1:4" ht="12.9">
       <c r="A110" s="2">
         <v>110</v>
       </c>
@@ -2757,7 +2879,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="13.2">
+    <row r="111" spans="1:4" ht="12.9">
       <c r="A111" s="2">
         <v>111</v>
       </c>
@@ -2768,7 +2890,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="13.2">
+    <row r="112" spans="1:4" ht="12.9">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -2779,7 +2901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="13.2">
+    <row r="113" spans="1:4" ht="12.9">
       <c r="A113" s="2">
         <v>113</v>
       </c>
@@ -2790,7 +2912,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="13.2">
+    <row r="114" spans="1:4" ht="12.9">
       <c r="A114" s="2">
         <v>114</v>
       </c>
@@ -2801,7 +2923,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="13.2">
+    <row r="115" spans="1:4" ht="12.9">
       <c r="A115" s="4">
         <v>115</v>
       </c>
@@ -2812,7 +2934,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="13.2">
+    <row r="116" spans="1:4" ht="12.9">
       <c r="A116" s="4">
         <v>116</v>
       </c>
@@ -2826,7 +2948,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="13.2">
+    <row r="117" spans="1:4" ht="12.9">
       <c r="A117" s="2">
         <v>117</v>
       </c>
@@ -2837,7 +2959,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="13.2">
+    <row r="118" spans="1:4" ht="12.9">
       <c r="A118" s="2">
         <v>118</v>
       </c>
@@ -2848,7 +2970,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="13.2">
+    <row r="119" spans="1:4" ht="12.9">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -2859,7 +2981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="13.2">
+    <row r="120" spans="1:4" ht="12.9">
       <c r="A120" s="2">
         <v>120</v>
       </c>
@@ -2870,7 +2992,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="13.2">
+    <row r="121" spans="1:4" ht="12.9">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -2881,7 +3003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="13.2">
+    <row r="122" spans="1:4" ht="12.9">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -2892,7 +3014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="13.2">
+    <row r="123" spans="1:4" ht="12.9">
       <c r="A123" s="4">
         <v>123</v>
       </c>
@@ -2903,7 +3025,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="13.2">
+    <row r="124" spans="1:4" ht="12.9">
       <c r="A124" s="2">
         <v>124</v>
       </c>
@@ -2914,7 +3036,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="13.2">
+    <row r="125" spans="1:4" ht="12.9">
       <c r="A125" s="2">
         <v>125</v>
       </c>
@@ -2925,7 +3047,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="13.2">
+    <row r="126" spans="1:4" ht="12.9">
       <c r="A126" s="4">
         <v>126</v>
       </c>
@@ -2936,7 +3058,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="13.2">
+    <row r="127" spans="1:4" ht="12.9">
       <c r="A127" s="2">
         <v>127</v>
       </c>
@@ -2950,7 +3072,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="13.2">
+    <row r="128" spans="1:4" ht="12.9">
       <c r="A128" s="4">
         <v>128</v>
       </c>
@@ -2961,7 +3083,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:27" ht="13.2">
+    <row r="129" spans="1:27" ht="12.9">
       <c r="A129" s="2">
         <v>129</v>
       </c>
@@ -2972,7 +3094,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="13.2">
+    <row r="130" spans="1:27" ht="12.9">
       <c r="A130" s="2">
         <v>130</v>
       </c>
@@ -2983,7 +3105,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="131" spans="1:27" ht="13.2">
+    <row r="131" spans="1:27" ht="12.9">
       <c r="A131" s="4">
         <v>131</v>
       </c>
@@ -2994,7 +3116,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="13.2">
+    <row r="132" spans="1:27" ht="12.9">
       <c r="A132" s="4">
         <v>132</v>
       </c>
@@ -3005,7 +3127,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="13.2">
+    <row r="133" spans="1:27" ht="12.9">
       <c r="A133" s="2">
         <v>133</v>
       </c>
@@ -3016,7 +3138,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="13.2">
+    <row r="134" spans="1:27" ht="12.9">
       <c r="A134" s="2">
         <v>134</v>
       </c>
@@ -3027,7 +3149,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="13.2">
+    <row r="135" spans="1:27" ht="12.9">
       <c r="A135" s="4">
         <v>135</v>
       </c>
@@ -3038,7 +3160,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="13.2">
+    <row r="136" spans="1:27" ht="12.9">
       <c r="A136" s="2">
         <v>136</v>
       </c>
@@ -3049,7 +3171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="13.2">
+    <row r="137" spans="1:27" ht="12.9">
       <c r="A137" s="4">
         <v>137</v>
       </c>
@@ -3086,7 +3208,7 @@
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
     </row>
-    <row r="138" spans="1:27" ht="13.2">
+    <row r="138" spans="1:27" ht="12.9">
       <c r="A138" s="2">
         <v>138</v>
       </c>
@@ -3097,7 +3219,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="13.2">
+    <row r="139" spans="1:27" ht="12.9">
       <c r="A139" s="2">
         <v>139</v>
       </c>
@@ -3108,7 +3230,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="140" spans="1:27" ht="13.2">
+    <row r="140" spans="1:27" ht="12.9">
       <c r="A140" s="2">
         <v>140</v>
       </c>
@@ -3119,7 +3241,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="141" spans="1:27" ht="13.2">
+    <row r="141" spans="1:27" ht="12.9">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -3130,7 +3252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="13.2">
+    <row r="142" spans="1:27" ht="12.9">
       <c r="A142" s="2">
         <v>142</v>
       </c>
@@ -3142,7 +3264,7 @@
       </c>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:27" ht="13.2">
+    <row r="143" spans="1:27" ht="12.9">
       <c r="A143" s="2">
         <v>143</v>
       </c>
@@ -3156,7 +3278,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="13.2">
+    <row r="144" spans="1:27" ht="12.9">
       <c r="A144" s="2">
         <v>144</v>
       </c>
@@ -3168,7 +3290,7 @@
       </c>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" spans="1:4" ht="13.2">
+    <row r="145" spans="1:4" ht="12.9">
       <c r="A145" s="4">
         <v>145</v>
       </c>
@@ -3180,7 +3302,7 @@
       </c>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4" ht="13.2">
+    <row r="146" spans="1:4" ht="12.9">
       <c r="A146" s="2">
         <v>146</v>
       </c>
@@ -3192,7 +3314,7 @@
       </c>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4" ht="13.2">
+    <row r="147" spans="1:4" ht="12.9">
       <c r="A147" s="2">
         <v>147</v>
       </c>
@@ -3206,7 +3328,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="13.2">
+    <row r="148" spans="1:4" ht="12.9">
       <c r="A148" s="2">
         <v>148</v>
       </c>
@@ -3217,7 +3339,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="13.2">
+    <row r="149" spans="1:4" ht="12.9">
       <c r="A149" s="4">
         <v>149</v>
       </c>
@@ -3228,7 +3350,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="13.2">
+    <row r="150" spans="1:4" ht="12.9">
       <c r="A150" s="2">
         <v>150</v>
       </c>
@@ -3239,7 +3361,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="13.2">
+    <row r="151" spans="1:4" ht="12.9">
       <c r="A151" s="2">
         <v>151</v>
       </c>
@@ -3250,7 +3372,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="13.2">
+    <row r="152" spans="1:4" ht="12.9">
       <c r="A152" s="2">
         <v>155</v>
       </c>
@@ -3261,7 +3383,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="13.2">
+    <row r="153" spans="1:4" ht="12.9">
       <c r="A153" s="2">
         <v>160</v>
       </c>
@@ -3272,7 +3394,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="13.2">
+    <row r="154" spans="1:4" ht="12.9">
       <c r="A154" s="2">
         <v>164</v>
       </c>
@@ -3283,7 +3405,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="13.2">
+    <row r="155" spans="1:4" ht="12.9">
       <c r="A155" s="2">
         <v>165</v>
       </c>
@@ -3294,7 +3416,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="13.2">
+    <row r="156" spans="1:4" ht="12.9">
       <c r="A156" s="2">
         <v>167</v>
       </c>
@@ -3305,7 +3427,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="13.2">
+    <row r="157" spans="1:4" ht="12.9">
       <c r="A157" s="2">
         <v>168</v>
       </c>
@@ -3316,7 +3438,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="13.2">
+    <row r="158" spans="1:4" ht="12.9">
       <c r="A158" s="2">
         <v>169</v>
       </c>
@@ -3327,7 +3449,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="13.2">
+    <row r="159" spans="1:4" ht="12.9">
       <c r="A159" s="2">
         <v>171</v>
       </c>
@@ -3338,7 +3460,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="13.2">
+    <row r="160" spans="1:4" ht="12.9">
       <c r="A160" s="2">
         <v>172</v>
       </c>
@@ -3349,7 +3471,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="13.2">
+    <row r="161" spans="1:3" ht="12.9">
       <c r="A161" s="2">
         <v>191</v>
       </c>
@@ -3360,7 +3482,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="13.2">
+    <row r="162" spans="1:3" ht="12.9">
       <c r="A162" s="2">
         <v>198</v>
       </c>
@@ -3371,7 +3493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="13.2">
+    <row r="163" spans="1:3" ht="12.9">
       <c r="A163" s="2">
         <v>200</v>
       </c>
@@ -3382,7 +3504,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="13.2">
+    <row r="164" spans="1:3" ht="12.9">
       <c r="A164" s="2">
         <v>202</v>
       </c>
@@ -3393,7 +3515,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="13.2">
+    <row r="165" spans="1:3" ht="12.9">
       <c r="A165" s="2">
         <v>203</v>
       </c>
@@ -3404,7 +3526,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="13.8">
+    <row r="166" spans="1:3" ht="13.6">
       <c r="A166" s="2">
         <v>205</v>
       </c>
@@ -3415,7 +3537,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="13.2">
+    <row r="167" spans="1:3" ht="12.9">
       <c r="A167" s="2">
         <v>206</v>
       </c>
@@ -3424,7 +3546,7 @@
       </c>
       <c r="C167" s="2"/>
     </row>
-    <row r="168" spans="1:3" ht="13.2">
+    <row r="168" spans="1:3" ht="12.9">
       <c r="A168" s="2">
         <v>208</v>
       </c>
@@ -3435,7 +3557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="13.2">
+    <row r="169" spans="1:3" ht="12.9">
       <c r="A169" s="2">
         <v>215</v>
       </c>
@@ -3446,7 +3568,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="13.2">
+    <row r="170" spans="1:3" ht="12.9">
       <c r="A170" s="2">
         <v>217</v>
       </c>
@@ -3457,7 +3579,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="13.2">
+    <row r="171" spans="1:3" ht="12.9">
       <c r="A171" s="2">
         <v>218</v>
       </c>
@@ -3468,7 +3590,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="13.2">
+    <row r="172" spans="1:3" ht="12.9">
       <c r="A172" s="2">
         <v>219</v>
       </c>
@@ -3479,7 +3601,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="13.2">
+    <row r="173" spans="1:3" ht="12.9">
       <c r="A173" s="2">
         <v>226</v>
       </c>
@@ -3490,7 +3612,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="13.2">
+    <row r="174" spans="1:3" ht="12.9">
       <c r="A174" s="2">
         <v>231</v>
       </c>
@@ -3501,7 +3623,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="13.2">
+    <row r="175" spans="1:3" ht="12.9">
       <c r="A175" s="2">
         <v>234</v>
       </c>
@@ -3512,7 +3634,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="13.2">
+    <row r="176" spans="1:3" ht="12.9">
       <c r="A176" s="2">
         <v>235</v>
       </c>
@@ -3523,7 +3645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="13.2">
+    <row r="177" spans="1:3" ht="12.9">
       <c r="A177" s="2">
         <v>237</v>
       </c>
@@ -3534,14 +3656,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="13.2">
+    <row r="178" spans="1:3" ht="12.9">
       <c r="A178" s="2">
         <v>238</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
     </row>
-    <row r="179" spans="1:3" ht="13.2">
+    <row r="179" spans="1:3" ht="12.9">
       <c r="A179" s="2">
         <v>242</v>
       </c>
@@ -3552,7 +3674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="13.2">
+    <row r="180" spans="1:3" ht="12.9">
       <c r="A180" s="2">
         <v>253</v>
       </c>
@@ -3563,7 +3685,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="13.2">
+    <row r="181" spans="1:3" ht="12.9">
       <c r="A181" s="2">
         <v>258</v>
       </c>
@@ -3574,7 +3696,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="13.2">
+    <row r="182" spans="1:3" ht="12.9">
       <c r="A182" s="2">
         <v>263</v>
       </c>
@@ -3585,7 +3707,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="13.2">
+    <row r="183" spans="1:3" ht="12.9">
       <c r="A183" s="2">
         <v>268</v>
       </c>
@@ -3596,7 +3718,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="16.8">
+    <row r="184" spans="1:3" ht="16.3">
       <c r="A184" s="10">
         <v>269</v>
       </c>
@@ -3607,18 +3729,18 @@
         <v>252</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="13.2">
+    <row r="185" spans="1:3" ht="12.9">
       <c r="A185" s="2">
         <v>273</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="17" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="16.8">
+    <row r="186" spans="1:3" ht="16.3">
       <c r="A186" s="2">
         <v>280</v>
       </c>
@@ -3629,7 +3751,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="13.2">
+    <row r="187" spans="1:3" ht="12.9">
       <c r="A187" s="2">
         <v>283</v>
       </c>
@@ -3640,7 +3762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="13.2">
+    <row r="188" spans="1:3" ht="12.9">
       <c r="A188" s="2">
         <v>297</v>
       </c>
@@ -3649,7 +3771,7 @@
       </c>
       <c r="C188" s="2"/>
     </row>
-    <row r="189" spans="1:3" ht="13.2">
+    <row r="189" spans="1:3" ht="12.9">
       <c r="A189" s="2">
         <v>301</v>
       </c>
@@ -3660,7 +3782,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="13.2">
+    <row r="190" spans="1:3" ht="12.9">
       <c r="A190" s="2">
         <v>303</v>
       </c>
@@ -3671,7 +3793,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="13.2">
+    <row r="191" spans="1:3" ht="12.9">
       <c r="A191" s="2">
         <v>307</v>
       </c>
@@ -3682,7 +3804,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="13.2">
+    <row r="192" spans="1:3" ht="12.9">
       <c r="A192" s="2">
         <v>322</v>
       </c>
@@ -3693,7 +3815,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="13.2">
+    <row r="193" spans="1:3" ht="12.9">
       <c r="A193" s="2">
         <v>326</v>
       </c>
@@ -3704,7 +3826,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="13.2">
+    <row r="194" spans="1:3" ht="12.9">
       <c r="A194" s="2">
         <v>336</v>
       </c>
@@ -3715,7 +3837,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="13.2">
+    <row r="195" spans="1:3" ht="12.9">
       <c r="A195" s="2">
         <v>344</v>
       </c>
@@ -3726,7 +3848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="13.2">
+    <row r="196" spans="1:3" ht="12.9">
       <c r="A196" s="2">
         <v>349</v>
       </c>
@@ -3735,7 +3857,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="13.2">
+    <row r="197" spans="1:3" ht="12.9">
       <c r="A197" s="2">
         <v>371</v>
       </c>
@@ -3743,7 +3865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="13.2">
+    <row r="198" spans="1:3" ht="12.9">
       <c r="A198" s="2">
         <v>383</v>
       </c>
@@ -3754,7 +3876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="13.2">
+    <row r="199" spans="1:3" ht="12.9">
       <c r="A199" s="2">
         <v>387</v>
       </c>
@@ -3765,7 +3887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="13.2">
+    <row r="200" spans="1:3" ht="12.9">
       <c r="A200" s="2">
         <v>406</v>
       </c>
@@ -3776,7 +3898,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="13.2">
+    <row r="201" spans="1:3" ht="12.9">
       <c r="A201" s="2">
         <v>412</v>
       </c>
@@ -3784,7 +3906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="13.2">
+    <row r="202" spans="1:3" ht="12.9">
       <c r="A202" s="2">
         <v>438</v>
       </c>
@@ -3795,7 +3917,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="13.2">
+    <row r="203" spans="1:3" ht="12.9">
       <c r="A203" s="2">
         <v>442</v>
       </c>
@@ -3806,7 +3928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="13.2">
+    <row r="204" spans="1:3" ht="12.9">
       <c r="A204" s="2">
         <v>448</v>
       </c>
@@ -3817,7 +3939,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="13.2">
+    <row r="205" spans="1:3" ht="12.9">
       <c r="A205" s="2">
         <v>453</v>
       </c>
@@ -3828,7 +3950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="13.2">
+    <row r="206" spans="1:3" ht="12.9">
       <c r="A206" s="2">
         <v>458</v>
       </c>
@@ -3839,7 +3961,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="13.2">
+    <row r="207" spans="1:3" ht="12.9">
       <c r="A207" s="2">
         <v>461</v>
       </c>
@@ -3850,7 +3972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="13.2">
+    <row r="208" spans="1:3" ht="12.9">
       <c r="A208" s="2">
         <v>463</v>
       </c>
@@ -3861,7 +3983,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="13.2">
+    <row r="209" spans="1:3" ht="12.9">
       <c r="A209" s="2">
         <v>470</v>
       </c>
@@ -3872,7 +3994,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="13.2">
+    <row r="210" spans="1:3" ht="12.9">
       <c r="A210" s="2">
         <v>476</v>
       </c>
@@ -3883,7 +4005,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="13.2">
+    <row r="211" spans="1:3" ht="12.9">
       <c r="A211" s="2">
         <v>479</v>
       </c>
@@ -3892,7 +4014,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="13.2">
+    <row r="212" spans="1:3" ht="12.9">
       <c r="A212" s="2">
         <v>500</v>
       </c>
@@ -3903,7 +4025,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="13.2">
+    <row r="213" spans="1:3" ht="12.9">
       <c r="A213" s="2">
         <v>535</v>
       </c>
@@ -3914,7 +4036,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="13.2">
+    <row r="214" spans="1:3" ht="12.9">
       <c r="A214" s="2">
         <v>540</v>
       </c>
@@ -3925,7 +4047,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="13.2">
+    <row r="215" spans="1:3" ht="12.9">
       <c r="A215" s="2">
         <v>543</v>
       </c>
@@ -3936,7 +4058,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="13.2">
+    <row r="216" spans="1:3" ht="12.9">
       <c r="A216" s="2">
         <v>557</v>
       </c>
@@ -3947,7 +4069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="13.2">
+    <row r="217" spans="1:3" ht="12.9">
       <c r="A217" s="2">
         <v>561</v>
       </c>
@@ -3958,7 +4080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="13.2">
+    <row r="218" spans="1:3" ht="12.9">
       <c r="A218" s="2">
         <v>617</v>
       </c>
@@ -3969,7 +4091,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="13.2">
+    <row r="219" spans="1:3" ht="12.9">
       <c r="A219" s="2">
         <v>628</v>
       </c>
@@ -3980,7 +4102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="13.2">
+    <row r="220" spans="1:3" ht="12.9">
       <c r="A220" s="2">
         <v>654</v>
       </c>
@@ -3991,7 +4113,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="13.2">
+    <row r="221" spans="1:3" ht="12.9">
       <c r="A221" s="2">
         <v>657</v>
       </c>
@@ -4002,7 +4124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="13.2">
+    <row r="222" spans="1:3" ht="12.9">
       <c r="A222" s="2">
         <v>669</v>
       </c>
@@ -4013,7 +4135,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="13.8">
+    <row r="223" spans="1:3" ht="13.6">
       <c r="A223" s="2">
         <v>681</v>
       </c>
@@ -4024,7 +4146,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="13.8">
+    <row r="224" spans="1:3" ht="13.6">
       <c r="A224" s="2">
         <v>683</v>
       </c>
@@ -4035,7 +4157,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="13.8">
+    <row r="225" spans="1:3" ht="13.6">
       <c r="A225" s="2">
         <v>695</v>
       </c>
@@ -4046,7 +4168,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="13.2">
+    <row r="226" spans="1:3" ht="12.9">
       <c r="A226" s="2">
         <v>697</v>
       </c>
@@ -4057,7 +4179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="13.8">
+    <row r="227" spans="1:3" ht="13.6">
       <c r="A227" s="2">
         <v>728</v>
       </c>
@@ -4068,7 +4190,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="13.2">
+    <row r="228" spans="1:3" ht="12.9">
       <c r="A228" s="2">
         <v>760</v>
       </c>
@@ -4079,7 +4201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="13.2">
+    <row r="229" spans="1:3" ht="12.9">
       <c r="A229" s="2">
         <v>771</v>
       </c>
@@ -4090,7 +4212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="13.2">
+    <row r="230" spans="1:3" ht="12.9">
       <c r="A230" s="2">
         <v>804</v>
       </c>
@@ -4101,7 +4223,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="13.2">
+    <row r="231" spans="1:3" ht="13.6">
       <c r="A231" s="2">
         <v>807</v>
       </c>
@@ -4112,7 +4234,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="13.2">
+    <row r="232" spans="1:3" ht="12.9">
       <c r="A232" s="2">
         <v>819</v>
       </c>
@@ -4123,7 +4245,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="13.2">
+    <row r="233" spans="1:3" ht="12.9">
       <c r="A233" s="2">
         <v>844</v>
       </c>
@@ -4134,7 +4256,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="13.2">
+    <row r="234" spans="1:3" ht="12.9">
       <c r="A234" s="2">
         <v>867</v>
       </c>
@@ -4145,7 +4267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="13.2">
+    <row r="235" spans="1:3" ht="12.9">
       <c r="A235" s="2">
         <v>872</v>
       </c>
@@ -4156,7 +4278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="13.2">
+    <row r="236" spans="1:3" ht="12.9">
       <c r="A236" s="2">
         <v>876</v>
       </c>
@@ -4167,7 +4289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="13.2">
+    <row r="237" spans="1:3" ht="12.9">
       <c r="A237" s="2">
         <v>877</v>
       </c>
@@ -4178,7 +4300,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="13.8">
+    <row r="238" spans="1:3" ht="13.6">
       <c r="A238" s="2">
         <v>925</v>
       </c>
@@ -4189,7 +4311,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="13.8">
+    <row r="239" spans="1:3" ht="13.6">
       <c r="A239" s="2">
         <v>905</v>
       </c>
@@ -4200,7 +4322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="13.8">
+    <row r="240" spans="1:3" ht="13.6">
       <c r="A240" s="2">
         <v>908</v>
       </c>
@@ -4211,7 +4333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="13.8">
+    <row r="241" spans="1:3" ht="13.6">
       <c r="A241" s="2">
         <v>922</v>
       </c>
@@ -4222,7 +4344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="13.8">
+    <row r="242" spans="1:3" ht="13.6">
       <c r="A242" s="2">
         <v>925</v>
       </c>
@@ -4233,7 +4355,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="13.8">
+    <row r="243" spans="1:3" ht="13.6">
       <c r="A243" s="2">
         <v>926</v>
       </c>
@@ -4244,7 +4366,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="13.8">
+    <row r="244" spans="1:3" ht="13.6">
       <c r="A244" s="2">
         <v>929</v>
       </c>
@@ -4255,7 +4377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="13.8">
+    <row r="245" spans="1:3" ht="13.6">
       <c r="A245" s="2">
         <v>930</v>
       </c>
@@ -4266,7 +4388,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="13.8">
+    <row r="246" spans="1:3" ht="13.6">
       <c r="A246" s="2">
         <v>931</v>
       </c>
@@ -4277,15 +4399,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="14.4">
+    <row r="247" spans="1:3" ht="14.3">
       <c r="B247" s="14"/>
     </row>
-    <row r="248" spans="1:3" ht="14.4">
+    <row r="248" spans="1:3" ht="14.3">
       <c r="B248" s="14" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="14.4">
+    <row r="249" spans="1:3" ht="14.3">
       <c r="B249" s="14" t="s">
         <v>300</v>
       </c>
@@ -4293,12 +4415,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="14.4">
+    <row r="250" spans="1:3" ht="14.3">
       <c r="B250" s="14" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="14.4">
+    <row r="251" spans="1:3" ht="14.3">
       <c r="B251" s="14" t="s">
         <v>303</v>
       </c>
@@ -4309,49 +4431,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.8" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.8" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A4" s="2">
         <v>11.12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="2">
+      <c r="D4" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A5" s="2">
         <v>11.13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="2">
+      <c r="D5" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A6" s="2">
         <v>11.14</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A7" s="17">
+        <v>11.15</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A8" s="17">
+        <v>11.16</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A9" s="17">
+        <v>11.17</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4361,34 +4526,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.8" customHeight="1">
       <c r="A1" s="2">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.8" customHeight="1">
       <c r="A2" s="2">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.8" customHeight="1">
       <c r="A3" s="2">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.8" customHeight="1">
       <c r="A4" s="2">
         <v>161</v>
       </c>
@@ -4396,7 +4561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.8" customHeight="1">
       <c r="A5" s="2">
         <v>163</v>
       </c>
@@ -4404,7 +4569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.8" customHeight="1">
       <c r="A6" s="2">
         <v>170</v>
       </c>
@@ -4412,17 +4577,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.8" customHeight="1">
       <c r="A7" s="2">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+    <row r="8" spans="1:2" ht="15.8" customHeight="1">
       <c r="A8" s="2">
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.8" customHeight="1">
       <c r="A9" s="2">
         <v>199</v>
       </c>
@@ -4430,7 +4595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+    <row r="10" spans="1:2" ht="15.8" customHeight="1">
       <c r="A10" s="2">
         <v>201</v>
       </c>
@@ -4438,7 +4603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.8" customHeight="1">
       <c r="A11" s="2">
         <v>209</v>
       </c>
@@ -4446,7 +4611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+    <row r="12" spans="1:2" ht="15.8" customHeight="1">
       <c r="A12" s="2">
         <v>210</v>
       </c>
@@ -4454,7 +4619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+    <row r="13" spans="1:2" ht="15.8" customHeight="1">
       <c r="A13" s="2">
         <v>211</v>
       </c>
@@ -4462,12 +4627,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+    <row r="14" spans="1:2" ht="15.8" customHeight="1">
       <c r="A14" s="2">
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+    <row r="15" spans="1:2" ht="15.8" customHeight="1">
       <c r="A15" s="2">
         <v>213</v>
       </c>
@@ -4475,17 +4640,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+    <row r="16" spans="1:2" ht="15.8" customHeight="1">
       <c r="A16" s="2">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+    <row r="17" spans="1:2" ht="15.8" customHeight="1">
       <c r="A17" s="2">
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+    <row r="18" spans="1:2" ht="15.8" customHeight="1">
       <c r="A18" s="2">
         <v>217</v>
       </c>
@@ -4493,12 +4658,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+    <row r="19" spans="1:2" ht="15.8" customHeight="1">
       <c r="A19" s="2">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+    <row r="20" spans="1:2" ht="15.8" customHeight="1">
       <c r="A20" s="15">
         <v>220</v>
       </c>
@@ -4506,7 +4671,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+    <row r="21" spans="1:2" ht="15.8" customHeight="1">
       <c r="A21" s="17">
         <v>221</v>
       </c>
@@ -4514,12 +4679,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+    <row r="22" spans="1:2" ht="15.8" customHeight="1">
       <c r="A22" s="17">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+    <row r="23" spans="1:2" ht="15.8" customHeight="1">
       <c r="A23" s="17">
         <v>223</v>
       </c>
@@ -4527,7 +4692,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+    <row r="24" spans="1:2" ht="15.8" customHeight="1">
       <c r="A24" s="17">
         <v>225</v>
       </c>
@@ -4535,7 +4700,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+    <row r="25" spans="1:2" ht="15.8" customHeight="1">
       <c r="A25" s="17">
         <v>228</v>
       </c>
@@ -4543,7 +4708,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+    <row r="26" spans="1:2" ht="15.8" customHeight="1">
       <c r="A26" s="17"/>
     </row>
   </sheetData>
@@ -4553,19 +4718,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.8" customHeight="1">
       <c r="A1" s="2">
         <v>151</v>
       </c>
@@ -4573,7 +4738,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.8" customHeight="1">
       <c r="A2" s="2">
         <v>152</v>
       </c>
@@ -4581,7 +4746,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.8" customHeight="1">
       <c r="A3" s="2">
         <v>153</v>
       </c>
@@ -4589,7 +4754,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.8" customHeight="1">
       <c r="A4" s="2">
         <v>155</v>
       </c>
@@ -4597,29 +4762,29 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="2">
+    <row r="5" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A5" s="15">
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A6" s="2">
+    <row r="6" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A6" s="15">
         <v>158</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.8" customHeight="1">
       <c r="A7" s="2">
         <v>160</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.8" customHeight="1">
       <c r="A8" s="2">
         <v>162</v>
       </c>
@@ -4627,12 +4792,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A9" s="2">
+    <row r="9" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A9" s="15">
         <v>164</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.8" customHeight="1">
       <c r="A10" s="2">
         <v>165</v>
       </c>
@@ -4640,460 +4808,977 @@
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.8" customHeight="1">
       <c r="A11" s="2">
         <v>167</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B11" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.8" customHeight="1">
       <c r="A12" s="2">
         <v>168</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B12" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.8" customHeight="1">
       <c r="A13" s="2">
         <v>169</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B13" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.8" customHeight="1">
       <c r="A14" s="2">
         <v>171</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B14" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.8" customHeight="1">
       <c r="A15" s="2">
         <v>172</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B15" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.8" customHeight="1">
       <c r="A16" s="2">
+        <v>173</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A17" s="2">
+        <v>179</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A18" s="2">
+        <v>187</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A19" s="15">
+        <v>188</v>
+      </c>
+      <c r="B19" s="19"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A20" s="2">
+        <v>189</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A21" s="15">
+        <v>190</v>
+      </c>
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A22" s="15">
         <v>191</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A17" s="2">
+      <c r="B22" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A23" s="2">
         <v>198</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A18" s="2">
+      <c r="B23" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A24" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A19" s="2">
+      <c r="B24" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A25" s="2">
         <v>202</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A20" s="2">
+      <c r="B25" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A26" s="2">
         <v>203</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A21" s="2">
+      <c r="B26" s="20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A27" s="2">
+        <v>204</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A28" s="2">
         <v>205</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A22" s="2">
+      <c r="B28" s="21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A29" s="2">
         <v>206</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A23" s="2">
+      <c r="B29" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A30" s="2">
+        <v>207</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A31" s="2">
         <v>208</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A24" s="2">
+      <c r="B31" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A32" s="15">
         <v>215</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A25" s="2">
+      <c r="B32" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A33" s="2">
         <v>217</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A26" s="2">
+      <c r="B33" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A34" s="15">
         <v>218</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A27" s="2">
+      <c r="B34" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A35" s="2">
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A28" s="2">
+    <row r="36" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A36" s="15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A37" s="2">
         <v>226</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A29" s="2">
+      <c r="B37" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A38" s="2">
+        <v>227</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A39" s="2">
         <v>231</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A30" s="2">
+      <c r="B39" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A40" s="2">
         <v>234</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A31" s="2">
+      <c r="B40" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A41" s="2">
         <v>235</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A32" s="2">
+      <c r="B41" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A42" s="15">
+        <v>236</v>
+      </c>
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A43" s="2">
         <v>237</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A33" s="2">
+      <c r="B43" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A44" s="2">
         <v>238</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A34" s="2">
+      <c r="B44" s="22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A45" s="15">
+        <v>239</v>
+      </c>
+      <c r="B45" s="22"/>
+    </row>
+    <row r="46" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A46" s="15">
+        <v>240</v>
+      </c>
+      <c r="B46" s="22"/>
+    </row>
+    <row r="47" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A47" s="2">
         <v>242</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A35" s="2">
+      <c r="B47" s="23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A48" s="2">
         <v>253</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A36" s="2">
+      <c r="B48" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A49" s="2">
         <v>258</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A37" s="2">
+      <c r="B49" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A50" s="15">
+        <v>260</v>
+      </c>
+      <c r="B50" s="24"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A51" s="2">
         <v>263</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A38" s="2">
+      <c r="B51" s="21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A52" s="2">
         <v>268</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A39" s="10">
+      <c r="B52" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A53" s="25">
         <v>269</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A40" s="2">
+      <c r="B53" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A54" s="25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A55" s="2">
         <v>273</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A41" s="2">
+      <c r="B55" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A56" s="2">
+        <v>279</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A57" s="17">
         <v>280</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A42" s="2">
+      <c r="B57" s="26" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A58" s="17">
         <v>283</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A43" s="2">
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A59" s="15">
+        <v>287</v>
+      </c>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A60" s="15">
+        <v>289</v>
+      </c>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A61" s="17">
+        <v>292</v>
+      </c>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A62" s="15">
+        <v>295</v>
+      </c>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A63" s="15">
         <v>297</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A44" s="2">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A64" s="15">
+        <v>300</v>
+      </c>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A65" s="15">
         <v>301</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A45" s="2">
+      <c r="B65" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A66" s="15">
         <v>303</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A46" s="2">
+      <c r="B66" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A67" s="15">
         <v>307</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A47" s="2">
+      <c r="B67" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A68" s="15">
+        <v>312</v>
+      </c>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A69" s="15">
+        <v>319</v>
+      </c>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A70" s="15">
         <v>322</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A48" s="2">
+      <c r="B70" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A71" s="15">
         <v>326</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A49" s="2">
+      <c r="B71" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A72" s="17">
+        <v>328</v>
+      </c>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A73" s="15">
         <v>336</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A50" s="2">
+      <c r="B73" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A74" s="15">
+        <v>341</v>
+      </c>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A75" s="15">
         <v>344</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A51" s="2">
+      <c r="B75" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A76" s="15">
+        <v>345</v>
+      </c>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A77" s="15">
+        <v>347</v>
+      </c>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A78" s="15">
+        <v>348</v>
+      </c>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A79" s="15">
         <v>349</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A52" s="2">
+      <c r="B79" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A80" s="15">
+        <v>364</v>
+      </c>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A81" s="15">
         <v>371</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A53" s="2">
+    <row r="82" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A82" s="15">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A83" s="15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A84" s="15">
         <v>383</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A54" s="2">
+      <c r="B84" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A85" s="15">
+        <v>384</v>
+      </c>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A86" s="15">
         <v>387</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A55" s="2">
+      <c r="B86" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A87" s="15">
+        <v>402</v>
+      </c>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A88" s="15">
+        <v>403</v>
+      </c>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A89" s="15">
         <v>406</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A56" s="2">
+      <c r="B89" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A90" s="15">
         <v>412</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A57" s="2">
+      <c r="B90" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A91" s="15">
         <v>438</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A58" s="2">
+      <c r="B91" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A92" s="15">
         <v>442</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A59" s="2">
+      <c r="B92" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A93" s="15">
+        <v>445</v>
+      </c>
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A94" s="15">
         <v>448</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A60" s="2">
+      <c r="B94" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A95" s="15">
         <v>453</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A61" s="2">
+      <c r="B95" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A96" s="15">
+        <v>457</v>
+      </c>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A97" s="15">
         <v>458</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A62" s="2">
+      <c r="B97" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A98" s="15">
         <v>461</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A63" s="2">
+      <c r="B98" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A99" s="15">
         <v>463</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A64" s="2">
+      <c r="B99" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A100" s="15">
         <v>470</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A65" s="2">
+      <c r="B100" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A101" s="15">
         <v>476</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A66" s="2">
+      <c r="B101" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A102" s="15">
         <v>479</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A67" s="2">
+      <c r="B102" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A103" s="15">
         <v>500</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A68" s="2">
+      <c r="B103" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A104" s="15">
+        <v>518</v>
+      </c>
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A105" s="15">
         <v>535</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A69" s="2">
+      <c r="B105" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A106" s="15">
         <v>540</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A70" s="2">
+      <c r="B106" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A107" s="15">
         <v>543</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A71" s="2">
+      <c r="B107" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A108" s="15">
+        <v>547</v>
+      </c>
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A109" s="15">
+        <v>556</v>
+      </c>
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A110" s="15">
         <v>557</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A72" s="2">
+      <c r="B110" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A111" s="15">
         <v>561</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A73" s="2">
+      <c r="B111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A112" s="15">
         <v>617</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A74" s="2">
+      <c r="B112" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A113" s="15">
         <v>628</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A75" s="2">
+      <c r="B113" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A114" s="15">
         <v>654</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A76" s="2">
+      <c r="B114" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A115" s="15">
         <v>657</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A77" s="2">
+      <c r="B115" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A116" s="15">
         <v>669</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A78" s="2">
+      <c r="B116" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A117" s="15">
         <v>681</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A79" s="2">
+      <c r="B117" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A118" s="15">
         <v>683</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A80" s="2">
+      <c r="B118" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A119" s="15">
         <v>695</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A81" s="2">
+      <c r="B119" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A120" s="15">
         <v>697</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A82" s="2">
+      <c r="B120" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A121" s="15">
         <v>728</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A83" s="2">
+      <c r="B121" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A122" s="15">
         <v>760</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A84" s="2">
+      <c r="B122" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A123" s="15">
         <v>771</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A85" s="2">
+      <c r="B123" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A124" s="15">
         <v>804</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A86" s="2">
+      <c r="B124" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A125" s="15">
         <v>807</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A87" s="2">
+      <c r="B125" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A126" s="15">
         <v>819</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A88" s="2">
+      <c r="B126" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A127" s="15">
         <v>844</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A89" s="2">
+      <c r="B127" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A128" s="15">
         <v>867</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A90" s="2">
+      <c r="B128" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A129" s="15">
         <v>872</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A91" s="2">
+      <c r="B129" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A130" s="15">
         <v>876</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A92" s="2">
+      <c r="B130" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A131" s="15">
         <v>877</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A93" s="2">
+      <c r="B131" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A132" s="15">
         <v>925</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A94" s="2">
+      <c r="B132" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A133" s="15">
         <v>905</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A95" s="2">
+      <c r="B133" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A134" s="15">
         <v>908</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A96" s="2">
+      <c r="B134" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A135" s="15">
         <v>922</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A97" s="2">
+      <c r="B135" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A136" s="15">
         <v>925</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A98" s="2">
+      <c r="B136" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A137" s="15">
         <v>926</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A99" s="2">
+      <c r="B137" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A138" s="15">
         <v>929</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A100" s="2">
+      <c r="B138" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A139" s="15">
         <v>930</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A101" s="2">
+      <c r="B139" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A140" s="15">
         <v>931</v>
       </c>
+      <c r="B140" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.8" customHeight="1">
+      <c r="B141" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5102,22 +5787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5125,9 +5795,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.8" customHeight="1">
       <c r="A1" s="2">
         <v>136</v>
       </c>
@@ -5138,40 +5808,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A1" s="2">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/lcdaily.xlsx
+++ b/lcdaily.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9007" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9007" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="336">
   <si>
     <t>目前的目标是过整理的笔记，以及所有题目的算法，不求写程序了，写程序的熟练度已经差不多了。要bug free很难，下面就是力争把900题的hard算法全部能搞定</t>
   </si>
@@ -1551,7 +1551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4437,8 +4437,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
@@ -4502,7 +4502,9 @@
       <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.8" customHeight="1">
       <c r="A8" s="17">
@@ -4511,6 +4513,9 @@
       <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15.8" customHeight="1">
       <c r="A9" s="17">
@@ -4518,6 +4523,9 @@
       </c>
       <c r="B9" s="16" t="s">
         <v>8</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4724,7 +4732,7 @@
   </sheetPr>
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>

--- a/lcdaily.xlsx
+++ b/lcdaily.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="340">
   <si>
     <t>目前的目标是过整理的笔记，以及所有题目的算法，不求写程序了，写程序的熟练度已经差不多了。要bug free很难，下面就是力争把900题的hard算法全部能搞定</t>
   </si>
@@ -1060,6 +1060,18 @@
   </si>
   <si>
     <t>从doc补充到此暂停</t>
+  </si>
+  <si>
+    <t>Floyd's Tortoise and Hare (Cycle Detection)的方法也就是快慢指针法没用过，还可以用对相应坐标的数组改成负号的办法，看是不是已经改成负号，还可以用二分法，先排序</t>
+  </si>
+  <si>
+    <t>算法相对了</t>
+  </si>
+  <si>
+    <t>用bisect dp才可以nlogn</t>
+  </si>
+  <si>
+    <t>20min</t>
   </si>
 </sst>
 </file>
@@ -1564,8 +1576,8 @@
   </sheetPr>
   <dimension ref="A1:AA251"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186:C247"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
@@ -4435,10 +4447,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
@@ -4526,6 +4538,17 @@
       </c>
       <c r="D9" s="16" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A10" s="17">
+        <v>11.18</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -4732,8 +4755,8 @@
   </sheetPr>
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F120" sqref="F120"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
@@ -5180,22 +5203,28 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A59" s="15">
+      <c r="A59" s="17">
         <v>287</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="60" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A60" s="15">
+      <c r="A60" s="17">
         <v>289</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="17" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="61" spans="1:2" ht="15.8" customHeight="1">
       <c r="A61" s="17">
         <v>292</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="17" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="62" spans="1:2" ht="15.8" customHeight="1">
       <c r="A62" s="15">
@@ -5210,10 +5239,12 @@
       <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A64" s="15">
+      <c r="A64" s="17">
         <v>300</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="17" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="65" spans="1:2" ht="15.8" customHeight="1">
       <c r="A65" s="15">

--- a/lcdaily.xlsx
+++ b/lcdaily.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\sttt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E96EB97-EAA2-419B-A216-3D6FA3284A0C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9007" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="347">
   <si>
     <t>目前的目标是过整理的笔记，以及所有题目的算法，不求写程序了，写程序的熟练度已经差不多了。要bug free很难，下面就是力争把900题的hard算法全部能搞定</t>
   </si>
@@ -1073,12 +1079,33 @@
   <si>
     <t>20min</t>
   </si>
+  <si>
+    <t>segment tree.  一定要会</t>
+  </si>
+  <si>
+    <t>算法应该简单</t>
+  </si>
+  <si>
+    <t>要注意vowel也可以是是大写的</t>
+  </si>
+  <si>
+    <t>min heap</t>
+  </si>
+  <si>
+    <t>binary search bug free</t>
+  </si>
+  <si>
+    <t>use stack</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1190,6 +1217,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1217,7 +1259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1257,6 +1299,8 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1317,7 +1361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1369,7 +1413,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1563,14 +1607,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1580,13 +1624,13 @@
       <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
-    <col min="3" max="3" width="49.125" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.9">
+    <row r="1" spans="1:5" ht="13.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1600,7 +1644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.9">
+    <row r="2" spans="1:5" ht="13.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1611,7 +1655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.9">
+    <row r="3" spans="1:5" ht="13.2">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -1625,7 +1669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.9">
+    <row r="4" spans="1:5" ht="13.2">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -1636,7 +1680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.9">
+    <row r="5" spans="1:5" ht="13.2">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -1653,7 +1697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.9">
+    <row r="6" spans="1:5" ht="13.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1664,7 +1708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.9">
+    <row r="7" spans="1:5" ht="13.2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -1678,7 +1722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.9">
+    <row r="8" spans="1:5" ht="13.2">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -1689,7 +1733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.9">
+    <row r="9" spans="1:5" ht="13.2">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1700,7 +1744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.9">
+    <row r="10" spans="1:5" ht="13.2">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1711,7 +1755,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.9">
+    <row r="11" spans="1:5" ht="13.2">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1725,7 +1769,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.9">
+    <row r="12" spans="1:5" ht="13.2">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -1736,7 +1780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.9">
+    <row r="13" spans="1:5" ht="13.2">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -1747,7 +1791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.9">
+    <row r="14" spans="1:5" ht="13.2">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1758,7 +1802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.9">
+    <row r="15" spans="1:5" ht="13.2">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -1772,7 +1816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.9">
+    <row r="16" spans="1:5" ht="13.2">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -1786,7 +1830,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.9">
+    <row r="17" spans="1:4" ht="13.2">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1800,7 +1844,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.9">
+    <row r="18" spans="1:4" ht="13.2">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -1811,7 +1855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.9">
+    <row r="19" spans="1:4" ht="13.2">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1822,7 +1866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.9">
+    <row r="20" spans="1:4" ht="13.2">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -1833,7 +1877,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.9">
+    <row r="21" spans="1:4" ht="13.2">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -1844,7 +1888,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.9">
+    <row r="22" spans="1:4" ht="13.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1858,7 +1902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.9">
+    <row r="23" spans="1:4" ht="13.2">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -1869,7 +1913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.9">
+    <row r="24" spans="1:4" ht="13.2">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -1880,7 +1924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.9">
+    <row r="25" spans="1:4" ht="13.2">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -1892,7 +1936,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="12.9">
+    <row r="26" spans="1:4" ht="13.2">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1906,7 +1950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.9">
+    <row r="27" spans="1:4" ht="13.2">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -1920,7 +1964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.9">
+    <row r="28" spans="1:4" ht="13.2">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -1931,7 +1975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.9">
+    <row r="29" spans="1:4" ht="13.2">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -1942,7 +1986,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.9">
+    <row r="30" spans="1:4" ht="13.2">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -1956,7 +2000,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.9">
+    <row r="31" spans="1:4" ht="13.2">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -1967,7 +2011,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13.6">
+    <row r="32" spans="1:4" ht="13.2">
       <c r="A32" s="4">
         <v>32</v>
       </c>
@@ -1979,7 +2023,7 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="13.6">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -1993,7 +2037,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="13.6">
+    <row r="34" spans="1:5" ht="13.2">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -2007,7 +2051,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="13.6">
+    <row r="35" spans="1:5" ht="13.2">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -2024,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="13.6">
+    <row r="36" spans="1:5" ht="13.8">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -2035,7 +2079,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="13.6">
+    <row r="37" spans="1:5" ht="13.8">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -2046,7 +2090,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.9">
+    <row r="38" spans="1:5" ht="13.2">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -2057,7 +2101,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.9">
+    <row r="39" spans="1:5" ht="13.2">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -2068,7 +2112,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.9">
+    <row r="40" spans="1:5" ht="13.2">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -2079,7 +2123,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.9">
+    <row r="41" spans="1:5" ht="13.2">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -2090,7 +2134,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.9">
+    <row r="42" spans="1:5" ht="13.2">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -2101,7 +2145,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.9">
+    <row r="43" spans="1:5" ht="13.2">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -2115,7 +2159,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="13.6">
+    <row r="44" spans="1:5" ht="13.8">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -2126,7 +2170,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="13.6">
+    <row r="45" spans="1:5" ht="13.8">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -2138,7 +2182,7 @@
       </c>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="13.6">
+    <row r="46" spans="1:5" ht="13.8">
       <c r="A46" s="2">
         <v>46</v>
       </c>
@@ -2152,7 +2196,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="13.6">
+    <row r="47" spans="1:5" ht="13.8">
       <c r="A47" s="2">
         <v>47</v>
       </c>
@@ -2166,7 +2210,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="12.9">
+    <row r="48" spans="1:5" ht="13.2">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -2180,7 +2224,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.9">
+    <row r="49" spans="1:4" ht="13.2">
       <c r="A49" s="2">
         <v>49</v>
       </c>
@@ -2191,7 +2235,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.9">
+    <row r="50" spans="1:4" ht="13.2">
       <c r="A50" s="2">
         <v>50</v>
       </c>
@@ -2202,7 +2246,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.3">
+    <row r="51" spans="1:4" ht="13.8">
       <c r="A51" s="2">
         <v>51</v>
       </c>
@@ -2214,7 +2258,7 @@
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" ht="13.6">
+    <row r="52" spans="1:4" ht="13.2">
       <c r="A52" s="2">
         <v>52</v>
       </c>
@@ -2226,7 +2270,7 @@
       </c>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="1:4" ht="13.6">
+    <row r="53" spans="1:4" ht="13.2">
       <c r="A53" s="2">
         <v>53</v>
       </c>
@@ -2238,7 +2282,7 @@
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" ht="12.9">
+    <row r="54" spans="1:4" ht="13.2">
       <c r="A54" s="2">
         <v>54</v>
       </c>
@@ -2249,7 +2293,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.9">
+    <row r="55" spans="1:4" ht="13.2">
       <c r="A55" s="2">
         <v>55</v>
       </c>
@@ -2260,7 +2304,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.9">
+    <row r="56" spans="1:4" ht="13.2">
       <c r="A56" s="2">
         <v>56</v>
       </c>
@@ -2271,7 +2315,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.9">
+    <row r="57" spans="1:4" ht="13.2">
       <c r="A57" s="2">
         <v>57</v>
       </c>
@@ -2282,7 +2326,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.9">
+    <row r="58" spans="1:4" ht="13.2">
       <c r="A58" s="2">
         <v>58</v>
       </c>
@@ -2293,7 +2337,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.9">
+    <row r="59" spans="1:4" ht="13.2">
       <c r="A59" s="2">
         <v>59</v>
       </c>
@@ -2304,7 +2348,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.9">
+    <row r="60" spans="1:4" ht="13.2">
       <c r="A60" s="2">
         <v>60</v>
       </c>
@@ -2315,7 +2359,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.9">
+    <row r="61" spans="1:4" ht="13.2">
       <c r="A61" s="2">
         <v>61</v>
       </c>
@@ -2326,7 +2370,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.9">
+    <row r="62" spans="1:4" ht="13.2">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -2337,7 +2381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.9">
+    <row r="63" spans="1:4" ht="13.2">
       <c r="A63" s="2">
         <v>63</v>
       </c>
@@ -2348,7 +2392,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.9">
+    <row r="64" spans="1:4" ht="13.2">
       <c r="A64" s="2">
         <v>64</v>
       </c>
@@ -2359,7 +2403,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="13.6">
+    <row r="65" spans="1:4" ht="13.2">
       <c r="A65" s="2">
         <v>65</v>
       </c>
@@ -2371,7 +2415,7 @@
       </c>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="1:4" ht="13.6">
+    <row r="66" spans="1:4" ht="13.2">
       <c r="A66" s="2">
         <v>66</v>
       </c>
@@ -2385,7 +2429,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.9">
+    <row r="67" spans="1:4" ht="13.2">
       <c r="A67" s="2">
         <v>67</v>
       </c>
@@ -2399,7 +2443,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.9">
+    <row r="68" spans="1:4" ht="13.2">
       <c r="A68" s="4">
         <v>68</v>
       </c>
@@ -2410,7 +2454,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.9">
+    <row r="69" spans="1:4" ht="13.2">
       <c r="A69" s="2">
         <v>69</v>
       </c>
@@ -2421,7 +2465,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.9">
+    <row r="70" spans="1:4" ht="13.2">
       <c r="A70" s="2">
         <v>70</v>
       </c>
@@ -2432,7 +2476,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.9">
+    <row r="71" spans="1:4" ht="13.2">
       <c r="A71" s="2">
         <v>71</v>
       </c>
@@ -2443,7 +2487,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.9">
+    <row r="72" spans="1:4" ht="13.2">
       <c r="A72" s="4">
         <v>72</v>
       </c>
@@ -2454,7 +2498,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.9">
+    <row r="73" spans="1:4" ht="13.2">
       <c r="A73" s="3">
         <v>73</v>
       </c>
@@ -2468,7 +2512,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.9">
+    <row r="74" spans="1:4" ht="13.2">
       <c r="A74" s="3">
         <v>74</v>
       </c>
@@ -2479,7 +2523,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.9">
+    <row r="75" spans="1:4" ht="13.2">
       <c r="A75" s="2">
         <v>75</v>
       </c>
@@ -2490,7 +2534,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.9">
+    <row r="76" spans="1:4" ht="13.2">
       <c r="A76" s="3">
         <v>76</v>
       </c>
@@ -2501,7 +2545,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.9">
+    <row r="77" spans="1:4" ht="13.2">
       <c r="A77" s="2">
         <v>77</v>
       </c>
@@ -2512,7 +2556,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.9">
+    <row r="78" spans="1:4" ht="13.2">
       <c r="A78" s="2">
         <v>78</v>
       </c>
@@ -2523,7 +2567,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.9">
+    <row r="79" spans="1:4" ht="13.2">
       <c r="A79" s="2">
         <v>79</v>
       </c>
@@ -2537,7 +2581,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.9">
+    <row r="80" spans="1:4" ht="13.2">
       <c r="A80" s="2">
         <v>80</v>
       </c>
@@ -2548,7 +2592,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.9">
+    <row r="81" spans="1:4" ht="13.2">
       <c r="A81" s="2">
         <v>81</v>
       </c>
@@ -2559,7 +2603,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.9">
+    <row r="82" spans="1:4" ht="13.2">
       <c r="A82" s="2">
         <v>82</v>
       </c>
@@ -2570,7 +2614,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.9">
+    <row r="83" spans="1:4" ht="13.2">
       <c r="A83" s="2">
         <v>83</v>
       </c>
@@ -2581,7 +2625,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.9">
+    <row r="84" spans="1:4" ht="13.2">
       <c r="A84" s="4">
         <v>84</v>
       </c>
@@ -2593,7 +2637,7 @@
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:4" ht="12.9">
+    <row r="85" spans="1:4" ht="13.2">
       <c r="A85" s="4">
         <v>85</v>
       </c>
@@ -2605,7 +2649,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" ht="12.9">
+    <row r="86" spans="1:4" ht="13.2">
       <c r="A86" s="2">
         <v>86</v>
       </c>
@@ -2617,7 +2661,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" ht="12.9">
+    <row r="87" spans="1:4" ht="13.2">
       <c r="A87" s="4">
         <v>87</v>
       </c>
@@ -2629,7 +2673,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" ht="12.9">
+    <row r="88" spans="1:4" ht="13.2">
       <c r="A88" s="2">
         <v>88</v>
       </c>
@@ -2643,7 +2687,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.9">
+    <row r="89" spans="1:4" ht="13.2">
       <c r="A89" s="4">
         <v>89</v>
       </c>
@@ -2654,7 +2698,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.9">
+    <row r="90" spans="1:4" ht="13.2">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -2665,7 +2709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.9">
+    <row r="91" spans="1:4" ht="13.2">
       <c r="A91" s="2">
         <v>91</v>
       </c>
@@ -2676,7 +2720,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="13.6">
+    <row r="92" spans="1:4" ht="13.8">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -2687,7 +2731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="13.6">
+    <row r="93" spans="1:4" ht="13.8">
       <c r="A93" s="2">
         <v>93</v>
       </c>
@@ -2698,7 +2742,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="13.6">
+    <row r="94" spans="1:4" ht="13.8">
       <c r="A94" s="2">
         <v>94</v>
       </c>
@@ -2709,7 +2753,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.9">
+    <row r="95" spans="1:4" ht="13.2">
       <c r="A95" s="4">
         <v>95</v>
       </c>
@@ -2723,7 +2767,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.9">
+    <row r="96" spans="1:4" ht="13.2">
       <c r="A96" s="2">
         <v>96</v>
       </c>
@@ -2734,7 +2778,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="19.55" customHeight="1">
+    <row r="97" spans="1:4" ht="19.5" customHeight="1">
       <c r="A97" s="2">
         <v>97</v>
       </c>
@@ -2745,7 +2789,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.9">
+    <row r="98" spans="1:4" ht="13.2">
       <c r="A98" s="2">
         <v>98</v>
       </c>
@@ -2756,7 +2800,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.9">
+    <row r="99" spans="1:4" ht="13.2">
       <c r="A99" s="4">
         <v>99</v>
       </c>
@@ -2767,7 +2811,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.9">
+    <row r="100" spans="1:4" ht="13.2">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -2778,7 +2822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.9">
+    <row r="101" spans="1:4" ht="13.2">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -2789,7 +2833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.9">
+    <row r="102" spans="1:4" ht="13.2">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -2800,7 +2844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.9">
+    <row r="103" spans="1:4" ht="13.2">
       <c r="A103" s="2">
         <v>103</v>
       </c>
@@ -2811,7 +2855,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.9">
+    <row r="104" spans="1:4" ht="13.2">
       <c r="A104" s="2">
         <v>104</v>
       </c>
@@ -2822,7 +2866,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.9">
+    <row r="105" spans="1:4" ht="13.2">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -2833,7 +2877,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="13.6">
+    <row r="106" spans="1:4" ht="13.8">
       <c r="A106" s="2">
         <v>106</v>
       </c>
@@ -2844,7 +2888,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="13.6">
+    <row r="107" spans="1:4" ht="13.8">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -2856,7 +2900,7 @@
       </c>
       <c r="D107" s="8"/>
     </row>
-    <row r="108" spans="1:4" ht="13.6">
+    <row r="108" spans="1:4" ht="13.8">
       <c r="A108" s="2">
         <v>108</v>
       </c>
@@ -2868,7 +2912,7 @@
       </c>
       <c r="D108" s="8"/>
     </row>
-    <row r="109" spans="1:4" ht="13.6">
+    <row r="109" spans="1:4" ht="13.8">
       <c r="A109" s="2">
         <v>109</v>
       </c>
@@ -2880,7 +2924,7 @@
       </c>
       <c r="D109" s="8"/>
     </row>
-    <row r="110" spans="1:4" ht="12.9">
+    <row r="110" spans="1:4" ht="13.2">
       <c r="A110" s="2">
         <v>110</v>
       </c>
@@ -2891,7 +2935,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.9">
+    <row r="111" spans="1:4" ht="13.2">
       <c r="A111" s="2">
         <v>111</v>
       </c>
@@ -2902,7 +2946,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.9">
+    <row r="112" spans="1:4" ht="13.2">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -2913,7 +2957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.9">
+    <row r="113" spans="1:4" ht="13.2">
       <c r="A113" s="2">
         <v>113</v>
       </c>
@@ -2924,7 +2968,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.9">
+    <row r="114" spans="1:4" ht="13.2">
       <c r="A114" s="2">
         <v>114</v>
       </c>
@@ -2935,7 +2979,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.9">
+    <row r="115" spans="1:4" ht="13.2">
       <c r="A115" s="4">
         <v>115</v>
       </c>
@@ -2946,7 +2990,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.9">
+    <row r="116" spans="1:4" ht="13.2">
       <c r="A116" s="4">
         <v>116</v>
       </c>
@@ -2960,7 +3004,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.9">
+    <row r="117" spans="1:4" ht="13.2">
       <c r="A117" s="2">
         <v>117</v>
       </c>
@@ -2971,7 +3015,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.9">
+    <row r="118" spans="1:4" ht="13.2">
       <c r="A118" s="2">
         <v>118</v>
       </c>
@@ -2982,7 +3026,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.9">
+    <row r="119" spans="1:4" ht="13.2">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -2993,7 +3037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.9">
+    <row r="120" spans="1:4" ht="13.2">
       <c r="A120" s="2">
         <v>120</v>
       </c>
@@ -3004,7 +3048,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.9">
+    <row r="121" spans="1:4" ht="13.2">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -3015,7 +3059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.9">
+    <row r="122" spans="1:4" ht="13.2">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -3026,7 +3070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.9">
+    <row r="123" spans="1:4" ht="13.2">
       <c r="A123" s="4">
         <v>123</v>
       </c>
@@ -3037,7 +3081,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.9">
+    <row r="124" spans="1:4" ht="13.2">
       <c r="A124" s="2">
         <v>124</v>
       </c>
@@ -3048,7 +3092,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.9">
+    <row r="125" spans="1:4" ht="13.2">
       <c r="A125" s="2">
         <v>125</v>
       </c>
@@ -3059,7 +3103,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.9">
+    <row r="126" spans="1:4" ht="13.2">
       <c r="A126" s="4">
         <v>126</v>
       </c>
@@ -3070,7 +3114,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.9">
+    <row r="127" spans="1:4" ht="13.2">
       <c r="A127" s="2">
         <v>127</v>
       </c>
@@ -3084,7 +3128,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.9">
+    <row r="128" spans="1:4" ht="13.2">
       <c r="A128" s="4">
         <v>128</v>
       </c>
@@ -3095,7 +3139,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:27" ht="12.9">
+    <row r="129" spans="1:27" ht="13.2">
       <c r="A129" s="2">
         <v>129</v>
       </c>
@@ -3106,7 +3150,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="12.9">
+    <row r="130" spans="1:27" ht="13.2">
       <c r="A130" s="2">
         <v>130</v>
       </c>
@@ -3117,7 +3161,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="131" spans="1:27" ht="12.9">
+    <row r="131" spans="1:27" ht="13.2">
       <c r="A131" s="4">
         <v>131</v>
       </c>
@@ -3128,7 +3172,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="12.9">
+    <row r="132" spans="1:27" ht="13.2">
       <c r="A132" s="4">
         <v>132</v>
       </c>
@@ -3139,7 +3183,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="12.9">
+    <row r="133" spans="1:27" ht="13.2">
       <c r="A133" s="2">
         <v>133</v>
       </c>
@@ -3150,7 +3194,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="12.9">
+    <row r="134" spans="1:27" ht="13.2">
       <c r="A134" s="2">
         <v>134</v>
       </c>
@@ -3161,7 +3205,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="12.9">
+    <row r="135" spans="1:27" ht="13.2">
       <c r="A135" s="4">
         <v>135</v>
       </c>
@@ -3172,7 +3216,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="12.9">
+    <row r="136" spans="1:27" ht="13.2">
       <c r="A136" s="2">
         <v>136</v>
       </c>
@@ -3183,7 +3227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="12.9">
+    <row r="137" spans="1:27" ht="13.2">
       <c r="A137" s="4">
         <v>137</v>
       </c>
@@ -3220,7 +3264,7 @@
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
     </row>
-    <row r="138" spans="1:27" ht="12.9">
+    <row r="138" spans="1:27" ht="13.2">
       <c r="A138" s="2">
         <v>138</v>
       </c>
@@ -3231,7 +3275,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="12.9">
+    <row r="139" spans="1:27" ht="13.2">
       <c r="A139" s="2">
         <v>139</v>
       </c>
@@ -3242,7 +3286,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="140" spans="1:27" ht="12.9">
+    <row r="140" spans="1:27" ht="13.2">
       <c r="A140" s="2">
         <v>140</v>
       </c>
@@ -3253,7 +3297,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="141" spans="1:27" ht="12.9">
+    <row r="141" spans="1:27" ht="13.2">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -3264,7 +3308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="12.9">
+    <row r="142" spans="1:27" ht="13.2">
       <c r="A142" s="2">
         <v>142</v>
       </c>
@@ -3276,7 +3320,7 @@
       </c>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:27" ht="12.9">
+    <row r="143" spans="1:27" ht="13.2">
       <c r="A143" s="2">
         <v>143</v>
       </c>
@@ -3290,7 +3334,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="12.9">
+    <row r="144" spans="1:27" ht="13.2">
       <c r="A144" s="2">
         <v>144</v>
       </c>
@@ -3302,7 +3346,7 @@
       </c>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" spans="1:4" ht="12.9">
+    <row r="145" spans="1:4" ht="13.2">
       <c r="A145" s="4">
         <v>145</v>
       </c>
@@ -3314,7 +3358,7 @@
       </c>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4" ht="12.9">
+    <row r="146" spans="1:4" ht="13.2">
       <c r="A146" s="2">
         <v>146</v>
       </c>
@@ -3326,7 +3370,7 @@
       </c>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4" ht="12.9">
+    <row r="147" spans="1:4" ht="13.2">
       <c r="A147" s="2">
         <v>147</v>
       </c>
@@ -3340,7 +3384,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.9">
+    <row r="148" spans="1:4" ht="13.2">
       <c r="A148" s="2">
         <v>148</v>
       </c>
@@ -3351,7 +3395,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.9">
+    <row r="149" spans="1:4" ht="13.2">
       <c r="A149" s="4">
         <v>149</v>
       </c>
@@ -3362,7 +3406,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.9">
+    <row r="150" spans="1:4" ht="13.2">
       <c r="A150" s="2">
         <v>150</v>
       </c>
@@ -3373,7 +3417,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.9">
+    <row r="151" spans="1:4" ht="13.2">
       <c r="A151" s="2">
         <v>151</v>
       </c>
@@ -3384,7 +3428,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.9">
+    <row r="152" spans="1:4" ht="13.2">
       <c r="A152" s="2">
         <v>155</v>
       </c>
@@ -3395,7 +3439,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.9">
+    <row r="153" spans="1:4" ht="13.2">
       <c r="A153" s="2">
         <v>160</v>
       </c>
@@ -3406,7 +3450,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.9">
+    <row r="154" spans="1:4" ht="13.2">
       <c r="A154" s="2">
         <v>164</v>
       </c>
@@ -3417,7 +3461,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.9">
+    <row r="155" spans="1:4" ht="13.2">
       <c r="A155" s="2">
         <v>165</v>
       </c>
@@ -3428,7 +3472,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.9">
+    <row r="156" spans="1:4" ht="13.2">
       <c r="A156" s="2">
         <v>167</v>
       </c>
@@ -3439,7 +3483,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.9">
+    <row r="157" spans="1:4" ht="13.2">
       <c r="A157" s="2">
         <v>168</v>
       </c>
@@ -3450,7 +3494,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.9">
+    <row r="158" spans="1:4" ht="13.2">
       <c r="A158" s="2">
         <v>169</v>
       </c>
@@ -3461,7 +3505,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.9">
+    <row r="159" spans="1:4" ht="13.2">
       <c r="A159" s="2">
         <v>171</v>
       </c>
@@ -3472,7 +3516,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.9">
+    <row r="160" spans="1:4" ht="13.2">
       <c r="A160" s="2">
         <v>172</v>
       </c>
@@ -3483,7 +3527,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="12.9">
+    <row r="161" spans="1:3" ht="13.2">
       <c r="A161" s="2">
         <v>191</v>
       </c>
@@ -3494,7 +3538,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="12.9">
+    <row r="162" spans="1:3" ht="13.2">
       <c r="A162" s="2">
         <v>198</v>
       </c>
@@ -3505,7 +3549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="12.9">
+    <row r="163" spans="1:3" ht="13.2">
       <c r="A163" s="2">
         <v>200</v>
       </c>
@@ -3516,7 +3560,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="12.9">
+    <row r="164" spans="1:3" ht="13.2">
       <c r="A164" s="2">
         <v>202</v>
       </c>
@@ -3527,7 +3571,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="12.9">
+    <row r="165" spans="1:3" ht="13.2">
       <c r="A165" s="2">
         <v>203</v>
       </c>
@@ -3538,7 +3582,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="13.6">
+    <row r="166" spans="1:3" ht="13.8">
       <c r="A166" s="2">
         <v>205</v>
       </c>
@@ -3549,7 +3593,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="12.9">
+    <row r="167" spans="1:3" ht="13.2">
       <c r="A167" s="2">
         <v>206</v>
       </c>
@@ -3558,7 +3602,7 @@
       </c>
       <c r="C167" s="2"/>
     </row>
-    <row r="168" spans="1:3" ht="12.9">
+    <row r="168" spans="1:3" ht="13.2">
       <c r="A168" s="2">
         <v>208</v>
       </c>
@@ -3569,7 +3613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="12.9">
+    <row r="169" spans="1:3" ht="13.2">
       <c r="A169" s="2">
         <v>215</v>
       </c>
@@ -3580,7 +3624,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="12.9">
+    <row r="170" spans="1:3" ht="13.2">
       <c r="A170" s="2">
         <v>217</v>
       </c>
@@ -3591,7 +3635,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="12.9">
+    <row r="171" spans="1:3" ht="13.2">
       <c r="A171" s="2">
         <v>218</v>
       </c>
@@ -3602,7 +3646,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="12.9">
+    <row r="172" spans="1:3" ht="13.2">
       <c r="A172" s="2">
         <v>219</v>
       </c>
@@ -3613,7 +3657,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="12.9">
+    <row r="173" spans="1:3" ht="13.2">
       <c r="A173" s="2">
         <v>226</v>
       </c>
@@ -3624,7 +3668,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="12.9">
+    <row r="174" spans="1:3" ht="13.2">
       <c r="A174" s="2">
         <v>231</v>
       </c>
@@ -3635,7 +3679,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="12.9">
+    <row r="175" spans="1:3" ht="13.2">
       <c r="A175" s="2">
         <v>234</v>
       </c>
@@ -3646,7 +3690,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="12.9">
+    <row r="176" spans="1:3" ht="13.2">
       <c r="A176" s="2">
         <v>235</v>
       </c>
@@ -3657,7 +3701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="12.9">
+    <row r="177" spans="1:3" ht="13.2">
       <c r="A177" s="2">
         <v>237</v>
       </c>
@@ -3668,14 +3712,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="12.9">
+    <row r="178" spans="1:3" ht="13.2">
       <c r="A178" s="2">
         <v>238</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
     </row>
-    <row r="179" spans="1:3" ht="12.9">
+    <row r="179" spans="1:3" ht="13.2">
       <c r="A179" s="2">
         <v>242</v>
       </c>
@@ -3686,7 +3730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="12.9">
+    <row r="180" spans="1:3" ht="13.2">
       <c r="A180" s="2">
         <v>253</v>
       </c>
@@ -3697,7 +3741,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="12.9">
+    <row r="181" spans="1:3" ht="13.2">
       <c r="A181" s="2">
         <v>258</v>
       </c>
@@ -3708,7 +3752,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="12.9">
+    <row r="182" spans="1:3" ht="13.2">
       <c r="A182" s="2">
         <v>263</v>
       </c>
@@ -3719,7 +3763,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="12.9">
+    <row r="183" spans="1:3" ht="13.2">
       <c r="A183" s="2">
         <v>268</v>
       </c>
@@ -3730,7 +3774,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="16.3">
+    <row r="184" spans="1:3" ht="16.8">
       <c r="A184" s="10">
         <v>269</v>
       </c>
@@ -3741,7 +3785,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="12.9">
+    <row r="185" spans="1:3" ht="13.2">
       <c r="A185" s="2">
         <v>273</v>
       </c>
@@ -3752,7 +3796,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="16.3">
+    <row r="186" spans="1:3" ht="16.8">
       <c r="A186" s="2">
         <v>280</v>
       </c>
@@ -3763,7 +3807,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="12.9">
+    <row r="187" spans="1:3" ht="13.2">
       <c r="A187" s="2">
         <v>283</v>
       </c>
@@ -3774,7 +3818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="12.9">
+    <row r="188" spans="1:3" ht="13.2">
       <c r="A188" s="2">
         <v>297</v>
       </c>
@@ -3783,7 +3827,7 @@
       </c>
       <c r="C188" s="2"/>
     </row>
-    <row r="189" spans="1:3" ht="12.9">
+    <row r="189" spans="1:3" ht="13.2">
       <c r="A189" s="2">
         <v>301</v>
       </c>
@@ -3794,7 +3838,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="12.9">
+    <row r="190" spans="1:3" ht="13.2">
       <c r="A190" s="2">
         <v>303</v>
       </c>
@@ -3805,7 +3849,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="12.9">
+    <row r="191" spans="1:3" ht="13.2">
       <c r="A191" s="2">
         <v>307</v>
       </c>
@@ -3816,7 +3860,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="12.9">
+    <row r="192" spans="1:3" ht="13.2">
       <c r="A192" s="2">
         <v>322</v>
       </c>
@@ -3827,7 +3871,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="12.9">
+    <row r="193" spans="1:3" ht="13.2">
       <c r="A193" s="2">
         <v>326</v>
       </c>
@@ -3838,7 +3882,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="12.9">
+    <row r="194" spans="1:3" ht="13.2">
       <c r="A194" s="2">
         <v>336</v>
       </c>
@@ -3849,7 +3893,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="12.9">
+    <row r="195" spans="1:3" ht="13.2">
       <c r="A195" s="2">
         <v>344</v>
       </c>
@@ -3860,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="12.9">
+    <row r="196" spans="1:3" ht="13.2">
       <c r="A196" s="2">
         <v>349</v>
       </c>
@@ -3869,7 +3913,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="12.9">
+    <row r="197" spans="1:3" ht="13.2">
       <c r="A197" s="2">
         <v>371</v>
       </c>
@@ -3877,7 +3921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="12.9">
+    <row r="198" spans="1:3" ht="13.2">
       <c r="A198" s="2">
         <v>383</v>
       </c>
@@ -3888,7 +3932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="12.9">
+    <row r="199" spans="1:3" ht="13.2">
       <c r="A199" s="2">
         <v>387</v>
       </c>
@@ -3899,7 +3943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="12.9">
+    <row r="200" spans="1:3" ht="13.2">
       <c r="A200" s="2">
         <v>406</v>
       </c>
@@ -3910,7 +3954,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="12.9">
+    <row r="201" spans="1:3" ht="13.2">
       <c r="A201" s="2">
         <v>412</v>
       </c>
@@ -3918,7 +3962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="12.9">
+    <row r="202" spans="1:3" ht="13.2">
       <c r="A202" s="2">
         <v>438</v>
       </c>
@@ -3929,7 +3973,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="12.9">
+    <row r="203" spans="1:3" ht="13.2">
       <c r="A203" s="2">
         <v>442</v>
       </c>
@@ -3940,7 +3984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="12.9">
+    <row r="204" spans="1:3" ht="13.2">
       <c r="A204" s="2">
         <v>448</v>
       </c>
@@ -3951,7 +3995,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="12.9">
+    <row r="205" spans="1:3" ht="13.2">
       <c r="A205" s="2">
         <v>453</v>
       </c>
@@ -3962,7 +4006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="12.9">
+    <row r="206" spans="1:3" ht="13.2">
       <c r="A206" s="2">
         <v>458</v>
       </c>
@@ -3973,7 +4017,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="12.9">
+    <row r="207" spans="1:3" ht="13.2">
       <c r="A207" s="2">
         <v>461</v>
       </c>
@@ -3984,7 +4028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="12.9">
+    <row r="208" spans="1:3" ht="13.2">
       <c r="A208" s="2">
         <v>463</v>
       </c>
@@ -3995,7 +4039,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="12.9">
+    <row r="209" spans="1:3" ht="13.2">
       <c r="A209" s="2">
         <v>470</v>
       </c>
@@ -4006,7 +4050,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="12.9">
+    <row r="210" spans="1:3" ht="13.2">
       <c r="A210" s="2">
         <v>476</v>
       </c>
@@ -4017,7 +4061,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="12.9">
+    <row r="211" spans="1:3" ht="13.2">
       <c r="A211" s="2">
         <v>479</v>
       </c>
@@ -4026,7 +4070,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="12.9">
+    <row r="212" spans="1:3" ht="13.2">
       <c r="A212" s="2">
         <v>500</v>
       </c>
@@ -4037,7 +4081,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="12.9">
+    <row r="213" spans="1:3" ht="13.2">
       <c r="A213" s="2">
         <v>535</v>
       </c>
@@ -4048,7 +4092,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="12.9">
+    <row r="214" spans="1:3" ht="13.2">
       <c r="A214" s="2">
         <v>540</v>
       </c>
@@ -4059,7 +4103,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="12.9">
+    <row r="215" spans="1:3" ht="13.2">
       <c r="A215" s="2">
         <v>543</v>
       </c>
@@ -4070,7 +4114,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="12.9">
+    <row r="216" spans="1:3" ht="13.2">
       <c r="A216" s="2">
         <v>557</v>
       </c>
@@ -4081,7 +4125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="12.9">
+    <row r="217" spans="1:3" ht="13.2">
       <c r="A217" s="2">
         <v>561</v>
       </c>
@@ -4092,7 +4136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="12.9">
+    <row r="218" spans="1:3" ht="13.2">
       <c r="A218" s="2">
         <v>617</v>
       </c>
@@ -4103,7 +4147,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="12.9">
+    <row r="219" spans="1:3" ht="13.2">
       <c r="A219" s="2">
         <v>628</v>
       </c>
@@ -4114,7 +4158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="12.9">
+    <row r="220" spans="1:3" ht="13.2">
       <c r="A220" s="2">
         <v>654</v>
       </c>
@@ -4125,7 +4169,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="12.9">
+    <row r="221" spans="1:3" ht="13.2">
       <c r="A221" s="2">
         <v>657</v>
       </c>
@@ -4136,7 +4180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="12.9">
+    <row r="222" spans="1:3" ht="13.2">
       <c r="A222" s="2">
         <v>669</v>
       </c>
@@ -4147,7 +4191,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="13.6">
+    <row r="223" spans="1:3" ht="13.8">
       <c r="A223" s="2">
         <v>681</v>
       </c>
@@ -4158,7 +4202,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="13.6">
+    <row r="224" spans="1:3" ht="13.8">
       <c r="A224" s="2">
         <v>683</v>
       </c>
@@ -4169,7 +4213,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="13.6">
+    <row r="225" spans="1:3" ht="13.8">
       <c r="A225" s="2">
         <v>695</v>
       </c>
@@ -4180,7 +4224,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="12.9">
+    <row r="226" spans="1:3" ht="13.2">
       <c r="A226" s="2">
         <v>697</v>
       </c>
@@ -4191,7 +4235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="13.6">
+    <row r="227" spans="1:3" ht="13.8">
       <c r="A227" s="2">
         <v>728</v>
       </c>
@@ -4202,7 +4246,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="12.9">
+    <row r="228" spans="1:3" ht="13.2">
       <c r="A228" s="2">
         <v>760</v>
       </c>
@@ -4213,7 +4257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="12.9">
+    <row r="229" spans="1:3" ht="13.2">
       <c r="A229" s="2">
         <v>771</v>
       </c>
@@ -4224,7 +4268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="12.9">
+    <row r="230" spans="1:3" ht="13.2">
       <c r="A230" s="2">
         <v>804</v>
       </c>
@@ -4235,7 +4279,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="13.6">
+    <row r="231" spans="1:3" ht="13.2">
       <c r="A231" s="2">
         <v>807</v>
       </c>
@@ -4246,7 +4290,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="12.9">
+    <row r="232" spans="1:3" ht="13.2">
       <c r="A232" s="2">
         <v>819</v>
       </c>
@@ -4257,7 +4301,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="12.9">
+    <row r="233" spans="1:3" ht="13.2">
       <c r="A233" s="2">
         <v>844</v>
       </c>
@@ -4268,7 +4312,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="12.9">
+    <row r="234" spans="1:3" ht="13.2">
       <c r="A234" s="2">
         <v>867</v>
       </c>
@@ -4279,7 +4323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="12.9">
+    <row r="235" spans="1:3" ht="13.2">
       <c r="A235" s="2">
         <v>872</v>
       </c>
@@ -4290,7 +4334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="12.9">
+    <row r="236" spans="1:3" ht="13.2">
       <c r="A236" s="2">
         <v>876</v>
       </c>
@@ -4301,7 +4345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="12.9">
+    <row r="237" spans="1:3" ht="13.2">
       <c r="A237" s="2">
         <v>877</v>
       </c>
@@ -4312,7 +4356,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="13.6">
+    <row r="238" spans="1:3" ht="13.8">
       <c r="A238" s="2">
         <v>925</v>
       </c>
@@ -4323,7 +4367,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="13.6">
+    <row r="239" spans="1:3" ht="13.8">
       <c r="A239" s="2">
         <v>905</v>
       </c>
@@ -4334,7 +4378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="13.6">
+    <row r="240" spans="1:3" ht="13.8">
       <c r="A240" s="2">
         <v>908</v>
       </c>
@@ -4345,7 +4389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="13.6">
+    <row r="241" spans="1:3" ht="13.8">
       <c r="A241" s="2">
         <v>922</v>
       </c>
@@ -4356,7 +4400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="13.6">
+    <row r="242" spans="1:3" ht="13.8">
       <c r="A242" s="2">
         <v>925</v>
       </c>
@@ -4367,7 +4411,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="13.6">
+    <row r="243" spans="1:3" ht="13.8">
       <c r="A243" s="2">
         <v>926</v>
       </c>
@@ -4378,7 +4422,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="13.6">
+    <row r="244" spans="1:3" ht="13.8">
       <c r="A244" s="2">
         <v>929</v>
       </c>
@@ -4389,7 +4433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="13.6">
+    <row r="245" spans="1:3" ht="13.8">
       <c r="A245" s="2">
         <v>930</v>
       </c>
@@ -4400,7 +4444,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="13.6">
+    <row r="246" spans="1:3" ht="13.8">
       <c r="A246" s="2">
         <v>931</v>
       </c>
@@ -4411,15 +4455,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="14.3">
+    <row r="247" spans="1:3" ht="14.4">
       <c r="B247" s="14"/>
     </row>
-    <row r="248" spans="1:3" ht="14.3">
+    <row r="248" spans="1:3" ht="14.4">
       <c r="B248" s="14" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="14.3">
+    <row r="249" spans="1:3" ht="14.4">
       <c r="B249" s="14" t="s">
         <v>300</v>
       </c>
@@ -4427,12 +4471,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="14.3">
+    <row r="250" spans="1:3" ht="14.4">
       <c r="B250" s="14" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="14.3">
+    <row r="251" spans="1:3" ht="14.4">
       <c r="B251" s="14" t="s">
         <v>303</v>
       </c>
@@ -4443,29 +4487,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.8" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.8" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.8" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
         <v>324</v>
@@ -4474,7 +4518,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.8" customHeight="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>11.12</v>
       </c>
@@ -4485,7 +4529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.8" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>11.13</v>
       </c>
@@ -4496,7 +4540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.8" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>11.14</v>
       </c>
@@ -4507,7 +4551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.8" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="17">
         <v>11.15</v>
       </c>
@@ -4518,7 +4562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.8" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="17">
         <v>11.16</v>
       </c>
@@ -4529,7 +4573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.8" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="17">
         <v>11.17</v>
       </c>
@@ -4540,7 +4584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.8" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="17">
         <v>11.18</v>
       </c>
@@ -4549,6 +4593,22 @@
       </c>
       <c r="D10" s="16" t="s">
         <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="17">
+        <v>11.19</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="17">
+        <v>11.2</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4557,7 +4617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4567,24 +4627,24 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.8" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.8" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.8" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.8" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>161</v>
       </c>
@@ -4592,7 +4652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.8" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>163</v>
       </c>
@@ -4600,7 +4660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.8" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>170</v>
       </c>
@@ -4608,17 +4668,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.8" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.8" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.8" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>199</v>
       </c>
@@ -4626,7 +4686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.8" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>201</v>
       </c>
@@ -4634,7 +4694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.8" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>209</v>
       </c>
@@ -4642,7 +4702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.8" customHeight="1">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>210</v>
       </c>
@@ -4650,7 +4710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.8" customHeight="1">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>211</v>
       </c>
@@ -4658,12 +4718,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.8" customHeight="1">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.8" customHeight="1">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>213</v>
       </c>
@@ -4671,17 +4731,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.8" customHeight="1">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.8" customHeight="1">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.8" customHeight="1">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>217</v>
       </c>
@@ -4689,12 +4749,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.8" customHeight="1">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="2">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.8" customHeight="1">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="15">
         <v>220</v>
       </c>
@@ -4702,7 +4762,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.8" customHeight="1">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="17">
         <v>221</v>
       </c>
@@ -4710,12 +4770,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.8" customHeight="1">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="A22" s="17">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.8" customHeight="1">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" s="17">
         <v>223</v>
       </c>
@@ -4723,7 +4783,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.8" customHeight="1">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
       <c r="A24" s="17">
         <v>225</v>
       </c>
@@ -4731,7 +4791,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.8" customHeight="1">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
       <c r="A25" s="17">
         <v>228</v>
       </c>
@@ -4739,7 +4799,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.8" customHeight="1">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="17"/>
     </row>
   </sheetData>
@@ -4749,19 +4809,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.8" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2">
         <v>151</v>
       </c>
@@ -4769,7 +4829,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.8" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>152</v>
       </c>
@@ -4777,7 +4837,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.8" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>153</v>
       </c>
@@ -4785,7 +4845,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.8" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>155</v>
       </c>
@@ -4793,7 +4853,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.8" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="15">
         <v>157</v>
       </c>
@@ -4801,13 +4861,13 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.8" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="15">
         <v>158</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15.8" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>160</v>
       </c>
@@ -4815,7 +4875,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.8" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>162</v>
       </c>
@@ -4823,7 +4883,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.8" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="15">
         <v>164</v>
       </c>
@@ -4831,7 +4891,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.8" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>165</v>
       </c>
@@ -4839,7 +4899,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.8" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>167</v>
       </c>
@@ -4847,7 +4907,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.8" customHeight="1">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>168</v>
       </c>
@@ -4855,7 +4915,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.8" customHeight="1">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>169</v>
       </c>
@@ -4863,7 +4923,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.8" customHeight="1">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>171</v>
       </c>
@@ -4871,7 +4931,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.8" customHeight="1">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>172</v>
       </c>
@@ -4879,7 +4939,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.8" customHeight="1">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>173</v>
       </c>
@@ -4887,7 +4947,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.8" customHeight="1">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>179</v>
       </c>
@@ -4895,7 +4955,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.8" customHeight="1">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>187</v>
       </c>
@@ -4903,13 +4963,13 @@
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.8" customHeight="1">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="15">
         <v>188</v>
       </c>
       <c r="B19" s="19"/>
     </row>
-    <row r="20" spans="1:2" ht="15.8" customHeight="1">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>189</v>
       </c>
@@ -4917,13 +4977,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.8" customHeight="1">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="15">
         <v>190</v>
       </c>
       <c r="B21" s="19"/>
     </row>
-    <row r="22" spans="1:2" ht="15.8" customHeight="1">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="A22" s="15">
         <v>191</v>
       </c>
@@ -4931,7 +4991,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.8" customHeight="1">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>198</v>
       </c>
@@ -4939,7 +4999,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.8" customHeight="1">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>200</v>
       </c>
@@ -4947,7 +5007,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.8" customHeight="1">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
       <c r="A25" s="2">
         <v>202</v>
       </c>
@@ -4955,7 +5015,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.8" customHeight="1">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>203</v>
       </c>
@@ -4963,7 +5023,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.8" customHeight="1">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>204</v>
       </c>
@@ -4971,7 +5031,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.8" customHeight="1">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>205</v>
       </c>
@@ -4979,7 +5039,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.8" customHeight="1">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>206</v>
       </c>
@@ -4987,7 +5047,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.8" customHeight="1">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>207</v>
       </c>
@@ -4995,7 +5055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.8" customHeight="1">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>208</v>
       </c>
@@ -5003,7 +5063,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.8" customHeight="1">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" s="15">
         <v>215</v>
       </c>
@@ -5011,7 +5071,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.8" customHeight="1">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>217</v>
       </c>
@@ -5019,7 +5079,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.8" customHeight="1">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34" s="15">
         <v>218</v>
       </c>
@@ -5027,17 +5087,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.8" customHeight="1">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.8" customHeight="1">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36" s="15">
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.8" customHeight="1">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1">
       <c r="A37" s="2">
         <v>226</v>
       </c>
@@ -5045,7 +5105,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.8" customHeight="1">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1">
       <c r="A38" s="2">
         <v>227</v>
       </c>
@@ -5053,7 +5113,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.8" customHeight="1">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="2">
         <v>231</v>
       </c>
@@ -5061,7 +5121,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.8" customHeight="1">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>234</v>
       </c>
@@ -5069,7 +5129,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.8" customHeight="1">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>235</v>
       </c>
@@ -5077,13 +5137,13 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.8" customHeight="1">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1">
       <c r="A42" s="15">
         <v>236</v>
       </c>
       <c r="B42" s="16"/>
     </row>
-    <row r="43" spans="1:2" ht="15.8" customHeight="1">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1">
       <c r="A43" s="2">
         <v>237</v>
       </c>
@@ -5091,7 +5151,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.8" customHeight="1">
+    <row r="44" spans="1:2" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>238</v>
       </c>
@@ -5099,19 +5159,19 @@
         <v>327</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.8" customHeight="1">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1">
       <c r="A45" s="15">
         <v>239</v>
       </c>
       <c r="B45" s="22"/>
     </row>
-    <row r="46" spans="1:2" ht="15.8" customHeight="1">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="15">
         <v>240</v>
       </c>
       <c r="B46" s="22"/>
     </row>
-    <row r="47" spans="1:2" ht="15.8" customHeight="1">
+    <row r="47" spans="1:2" ht="15.75" customHeight="1">
       <c r="A47" s="2">
         <v>242</v>
       </c>
@@ -5119,7 +5179,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.8" customHeight="1">
+    <row r="48" spans="1:2" ht="15.75" customHeight="1">
       <c r="A48" s="2">
         <v>253</v>
       </c>
@@ -5127,7 +5187,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.8" customHeight="1">
+    <row r="49" spans="1:2" ht="15.75" customHeight="1">
       <c r="A49" s="2">
         <v>258</v>
       </c>
@@ -5135,13 +5195,13 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.8" customHeight="1">
+    <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="15">
         <v>260</v>
       </c>
       <c r="B50" s="24"/>
     </row>
-    <row r="51" spans="1:2" ht="15.8" customHeight="1">
+    <row r="51" spans="1:2" ht="15.75" customHeight="1">
       <c r="A51" s="2">
         <v>263</v>
       </c>
@@ -5149,7 +5209,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.8" customHeight="1">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1">
       <c r="A52" s="2">
         <v>268</v>
       </c>
@@ -5157,7 +5217,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.8" customHeight="1">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" s="25">
         <v>269</v>
       </c>
@@ -5165,12 +5225,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.8" customHeight="1">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1">
       <c r="A54" s="25">
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.8" customHeight="1">
+    <row r="55" spans="1:2" ht="15.75" customHeight="1">
       <c r="A55" s="2">
         <v>273</v>
       </c>
@@ -5178,7 +5238,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.8" customHeight="1">
+    <row r="56" spans="1:2" ht="15.75" customHeight="1">
       <c r="A56" s="2">
         <v>279</v>
       </c>
@@ -5186,7 +5246,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.8" customHeight="1">
+    <row r="57" spans="1:2" ht="15.75" customHeight="1">
       <c r="A57" s="17">
         <v>280</v>
       </c>
@@ -5194,7 +5254,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.8" customHeight="1">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1">
       <c r="A58" s="17">
         <v>283</v>
       </c>
@@ -5202,7 +5262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.8" customHeight="1">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1">
       <c r="A59" s="17">
         <v>287</v>
       </c>
@@ -5210,7 +5270,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.8" customHeight="1">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="17">
         <v>289</v>
       </c>
@@ -5218,7 +5278,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.8" customHeight="1">
+    <row r="61" spans="1:2" ht="15.75" customHeight="1">
       <c r="A61" s="17">
         <v>292</v>
       </c>
@@ -5226,19 +5286,19 @@
         <v>308</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.8" customHeight="1">
+    <row r="62" spans="1:2" ht="15.75" customHeight="1">
       <c r="A62" s="15">
         <v>295</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" ht="15.8" customHeight="1">
+    <row r="63" spans="1:2" ht="15.75" customHeight="1">
       <c r="A63" s="15">
         <v>297</v>
       </c>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" ht="15.8" customHeight="1">
+    <row r="64" spans="1:2" ht="15.75" customHeight="1">
       <c r="A64" s="17">
         <v>300</v>
       </c>
@@ -5246,7 +5306,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.8" customHeight="1">
+    <row r="65" spans="1:4" ht="15.75" customHeight="1">
       <c r="A65" s="15">
         <v>301</v>
       </c>
@@ -5254,57 +5314,62 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A66" s="15">
+    <row r="66" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A66" s="17">
         <v>303</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A67" s="15">
+    <row r="67" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A67" s="27">
         <v>307</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.8" customHeight="1">
+      <c r="D67" s="16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1">
       <c r="A68" s="15">
         <v>312</v>
       </c>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" ht="15.8" customHeight="1">
+    <row r="69" spans="1:4" ht="15.75" customHeight="1">
       <c r="A69" s="15">
         <v>319</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A70" s="15">
+    <row r="70" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A70" s="17">
         <v>322</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A71" s="15">
+    <row r="71" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A71" s="17">
         <v>326</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.8" customHeight="1">
+    <row r="72" spans="1:4" ht="15.75" customHeight="1">
       <c r="A72" s="17">
         <v>328</v>
       </c>
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2" ht="15.8" customHeight="1">
+      <c r="B72" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1">
       <c r="A73" s="15">
         <v>336</v>
       </c>
@@ -5312,102 +5377,109 @@
         <v>264</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.8" customHeight="1">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1">
       <c r="A74" s="15">
         <v>341</v>
       </c>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A75" s="15">
+    <row r="75" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A75" s="17">
         <v>344</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A76" s="15">
+    <row r="76" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A76" s="17">
         <v>345</v>
       </c>
-      <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A77" s="15">
+      <c r="B76" s="28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A77" s="17">
         <v>347</v>
       </c>
-      <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="1:2" ht="15.8" customHeight="1">
+      <c r="B77" s="17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1">
       <c r="A78" s="15">
         <v>348</v>
       </c>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A79" s="15">
+    <row r="79" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A79" s="17">
         <v>349</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.8" customHeight="1">
+    <row r="80" spans="1:4" ht="15.75" customHeight="1">
       <c r="A80" s="15">
         <v>364</v>
       </c>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" ht="15.8" customHeight="1">
+    <row r="81" spans="1:2" ht="15.75" customHeight="1">
       <c r="A81" s="15">
         <v>371</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A82" s="15">
+    <row r="82" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A82" s="17">
         <v>374</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.8" customHeight="1">
+      <c r="B82" s="16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" customHeight="1">
       <c r="A83" s="15">
         <v>380</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A84" s="15">
+    <row r="84" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A84" s="17">
         <v>383</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.8" customHeight="1">
+    <row r="85" spans="1:2" ht="15.75" customHeight="1">
       <c r="A85" s="15">
         <v>384</v>
       </c>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A86" s="15">
+    <row r="86" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A86" s="17">
         <v>387</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.8" customHeight="1">
+    <row r="87" spans="1:2" ht="15.75" customHeight="1">
       <c r="A87" s="15">
         <v>402</v>
       </c>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" ht="15.8" customHeight="1">
+    <row r="88" spans="1:2" ht="15.75" customHeight="1">
       <c r="A88" s="15">
         <v>403</v>
       </c>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" ht="15.8" customHeight="1">
+    <row r="89" spans="1:2" ht="15.75" customHeight="1">
       <c r="A89" s="15">
         <v>406</v>
       </c>
@@ -5415,15 +5487,15 @@
         <v>267</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A90" s="15">
+    <row r="90" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A90" s="17">
         <v>412</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.8" customHeight="1">
+    <row r="91" spans="1:2" ht="15.75" customHeight="1">
       <c r="A91" s="15">
         <v>438</v>
       </c>
@@ -5431,43 +5503,45 @@
         <v>269</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A92" s="15">
+    <row r="92" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A92" s="17">
         <v>442</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.8" customHeight="1">
+    <row r="93" spans="1:2" ht="15.75" customHeight="1">
       <c r="A93" s="15">
         <v>445</v>
       </c>
-      <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A94" s="15">
+      <c r="B93" s="17" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A94" s="17">
         <v>448</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A95" s="15">
+    <row r="95" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A95" s="17">
         <v>453</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.8" customHeight="1">
+    <row r="96" spans="1:2" ht="15.75" customHeight="1">
       <c r="A96" s="15">
         <v>457</v>
       </c>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:3" ht="15.8" customHeight="1">
+    <row r="97" spans="1:2" ht="15.75" customHeight="1">
       <c r="A97" s="15">
         <v>458</v>
       </c>
@@ -5475,7 +5549,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.8" customHeight="1">
+    <row r="98" spans="1:2" ht="15.75" customHeight="1">
       <c r="A98" s="15">
         <v>461</v>
       </c>
@@ -5483,15 +5557,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A99" s="15">
+    <row r="99" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A99" s="17">
         <v>463</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.8" customHeight="1">
+    <row r="100" spans="1:2" ht="15.75" customHeight="1">
       <c r="A100" s="15">
         <v>470</v>
       </c>
@@ -5499,7 +5573,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.8" customHeight="1">
+    <row r="101" spans="1:2" ht="15.75" customHeight="1">
       <c r="A101" s="15">
         <v>476</v>
       </c>
@@ -5507,7 +5581,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.8" customHeight="1">
+    <row r="102" spans="1:2" ht="15.75" customHeight="1">
       <c r="A102" s="15">
         <v>479</v>
       </c>
@@ -5515,7 +5589,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.8" customHeight="1">
+    <row r="103" spans="1:2" ht="15.75" customHeight="1">
       <c r="A103" s="15">
         <v>500</v>
       </c>
@@ -5523,13 +5597,13 @@
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.8" customHeight="1">
+    <row r="104" spans="1:2" ht="15.75" customHeight="1">
       <c r="A104" s="15">
         <v>518</v>
       </c>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:3" ht="15.8" customHeight="1">
+    <row r="105" spans="1:2" ht="15.75" customHeight="1">
       <c r="A105" s="15">
         <v>535</v>
       </c>
@@ -5537,7 +5611,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.8" customHeight="1">
+    <row r="106" spans="1:2" ht="15.75" customHeight="1">
       <c r="A106" s="15">
         <v>540</v>
       </c>
@@ -5545,7 +5619,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.8" customHeight="1">
+    <row r="107" spans="1:2" ht="15.75" customHeight="1">
       <c r="A107" s="15">
         <v>543</v>
       </c>
@@ -5553,19 +5627,19 @@
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.8" customHeight="1">
+    <row r="108" spans="1:2" ht="15.75" customHeight="1">
       <c r="A108" s="15">
         <v>547</v>
       </c>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:3" ht="15.8" customHeight="1">
+    <row r="109" spans="1:2" ht="15.75" customHeight="1">
       <c r="A109" s="15">
         <v>556</v>
       </c>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:3" ht="15.8" customHeight="1">
+    <row r="110" spans="1:2" ht="15.75" customHeight="1">
       <c r="A110" s="15">
         <v>557</v>
       </c>
@@ -5573,251 +5647,276 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.8" customHeight="1">
+    <row r="111" spans="1:2" ht="15.75" customHeight="1">
       <c r="A111" s="15">
         <v>561</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C111" s="15" t="s">
+    </row>
+    <row r="112" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A112" s="15">
+        <v>564</v>
+      </c>
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A113" s="15">
+        <v>609</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="15"/>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A114" s="15">
+        <v>617</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A115" s="15">
+        <v>621</v>
+      </c>
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A116" s="15">
+        <v>628</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A117" s="15">
+        <v>636</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="15" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A112" s="15">
-        <v>617</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A113" s="15">
-        <v>628</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A114" s="15">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A118" s="15">
         <v>654</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A115" s="15">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A119" s="15">
         <v>657</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A116" s="15">
+      <c r="B119" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A120" s="15">
         <v>669</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A117" s="15">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A121" s="15">
         <v>681</v>
       </c>
-      <c r="B117" s="13" t="s">
+      <c r="B121" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A118" s="15">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A122" s="15">
         <v>683</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B122" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A119" s="15">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A123" s="15">
         <v>695</v>
       </c>
-      <c r="B119" s="13" t="s">
+      <c r="B123" s="13" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A120" s="15">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A124" s="15">
         <v>697</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A121" s="15">
+      <c r="B124" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A125" s="15">
         <v>728</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B125" s="13" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A122" s="15">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A126" s="15">
         <v>760</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A123" s="15">
+      <c r="B126" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A127" s="15">
         <v>771</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A124" s="15">
+      <c r="B127" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A128" s="15">
         <v>804</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A125" s="15">
+    <row r="129" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A129" s="15">
         <v>807</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B129" s="12" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A126" s="15">
+    <row r="130" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A130" s="15">
         <v>819</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A127" s="15">
+    <row r="131" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A131" s="15">
         <v>844</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A128" s="15">
+    <row r="132" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A132" s="15">
         <v>867</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A129" s="15">
+      <c r="B132" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A133" s="15">
         <v>872</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A130" s="15">
+      <c r="B133" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A134" s="15">
         <v>876</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A131" s="15">
+      <c r="B134" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A135" s="15">
         <v>877</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A132" s="15">
-        <v>925</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A133" s="15">
-        <v>905</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A134" s="15">
-        <v>908</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A135" s="15">
-        <v>922</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="15.8" customHeight="1">
+    <row r="136" spans="1:2" ht="15.75" customHeight="1">
       <c r="A136" s="15">
         <v>925</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A137" s="15">
+        <v>905</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A138" s="15">
+        <v>908</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A139" s="15">
+        <v>922</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A140" s="15">
+        <v>925</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A137" s="15">
+    <row r="141" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A141" s="15">
         <v>926</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A138" s="15">
+    <row r="142" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A142" s="15">
         <v>929</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A139" s="15">
+      <c r="B142" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A143" s="15">
         <v>930</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A140" s="15">
+    <row r="144" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A144" s="15">
         <v>931</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="15.8" customHeight="1">
-      <c r="B141" s="14"/>
+      <c r="B144" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B145" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5826,7 +5925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5834,9 +5933,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.8" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2">
         <v>136</v>
       </c>

--- a/lcdaily.xlsx
+++ b/lcdaily.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\sttt\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E96EB97-EAA2-419B-A216-3D6FA3284A0C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9007" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="350">
   <si>
     <t>目前的目标是过整理的笔记，以及所有题目的算法，不求写程序了，写程序的熟练度已经差不多了。要bug free很难，下面就是力争把900题的hard算法全部能搞定</t>
   </si>
@@ -1065,9 +1059,6 @@
     <t xml:space="preserve">swap的算法没相对，而且nums=sorted(nums) 不能inplace sort,inplace必须用num.sort(),  </t>
   </si>
   <si>
-    <t>从doc补充到此暂停</t>
-  </si>
-  <si>
     <t>Floyd's Tortoise and Hare (Cycle Detection)的方法也就是快慢指针法没用过，还可以用对相应坐标的数组改成负号的办法，看是不是已经改成负号，还可以用二分法，先排序</t>
   </si>
   <si>
@@ -1098,13 +1089,27 @@
     <t>use stack</t>
   </si>
   <si>
-    <t>10 min</t>
+    <t>不要rand7*rand7, use (rand7-1)*7+rand7, 此外，期望值计算有误。</t>
+  </si>
+  <si>
+    <t>wrong, need to learn from solution</t>
+  </si>
+  <si>
+    <t>这题很难，背包问题，要考虑重复的case，需要两重循环，一冲coin，一重amount</t>
+  </si>
+  <si>
+    <t>bug free, passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">两个易错点，第一个是，不能简单盘低mid==mid-1 or mid==mid+1. 必须要结合mid=mid-1 and mid-left%2==0 这样看
+第二个易错点，移动的时候，如果往右移动，而mid==mid+1， 那么要移动两个。否则的话长度计算就不对了
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22">
     <font>
       <sz val="10"/>
@@ -1259,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1301,6 +1306,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1361,7 +1368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1413,7 +1420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1607,14 +1614,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1624,13 +1631,13 @@
       <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
-    <col min="3" max="3" width="49.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.2">
+    <row r="1" spans="1:5" ht="12.9">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1644,7 +1651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.2">
+    <row r="2" spans="1:5" ht="12.9">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1655,7 +1662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.2">
+    <row r="3" spans="1:5" ht="12.9">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -1669,7 +1676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.2">
+    <row r="4" spans="1:5" ht="12.9">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -1680,7 +1687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.2">
+    <row r="5" spans="1:5" ht="12.9">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -1697,7 +1704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.2">
+    <row r="6" spans="1:5" ht="12.9">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1708,7 +1715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.2">
+    <row r="7" spans="1:5" ht="12.9">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -1722,7 +1729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.2">
+    <row r="8" spans="1:5" ht="12.9">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -1733,7 +1740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.2">
+    <row r="9" spans="1:5" ht="12.9">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1744,7 +1751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.2">
+    <row r="10" spans="1:5" ht="12.9">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1755,7 +1762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.2">
+    <row r="11" spans="1:5" ht="12.9">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1769,7 +1776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.2">
+    <row r="12" spans="1:5" ht="12.9">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -1780,7 +1787,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.2">
+    <row r="13" spans="1:5" ht="12.9">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -1791,7 +1798,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.2">
+    <row r="14" spans="1:5" ht="12.9">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1802,7 +1809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.2">
+    <row r="15" spans="1:5" ht="12.9">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -1816,7 +1823,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.2">
+    <row r="16" spans="1:5" ht="12.9">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -1830,7 +1837,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.2">
+    <row r="17" spans="1:4" ht="12.9">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1844,7 +1851,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.2">
+    <row r="18" spans="1:4" ht="12.9">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -1855,7 +1862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.2">
+    <row r="19" spans="1:4" ht="12.9">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1866,7 +1873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.2">
+    <row r="20" spans="1:4" ht="12.9">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -1877,7 +1884,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.2">
+    <row r="21" spans="1:4" ht="12.9">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -1888,7 +1895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.2">
+    <row r="22" spans="1:4" ht="12.9">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -1902,7 +1909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.2">
+    <row r="23" spans="1:4" ht="12.9">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -1913,7 +1920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.2">
+    <row r="24" spans="1:4" ht="12.9">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -1924,7 +1931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13.2">
+    <row r="25" spans="1:4" ht="12.9">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -1936,7 +1943,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="13.2">
+    <row r="26" spans="1:4" ht="12.9">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1950,7 +1957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.2">
+    <row r="27" spans="1:4" ht="12.9">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -1964,7 +1971,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.2">
+    <row r="28" spans="1:4" ht="12.9">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -1975,7 +1982,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.2">
+    <row r="29" spans="1:4" ht="12.9">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -1986,7 +1993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.2">
+    <row r="30" spans="1:4" ht="12.9">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -2000,7 +2007,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13.2">
+    <row r="31" spans="1:4" ht="12.9">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -2011,7 +2018,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13.2">
+    <row r="32" spans="1:4" ht="13.6">
       <c r="A32" s="4">
         <v>32</v>
       </c>
@@ -2023,7 +2030,7 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="13.6">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -2037,7 +2044,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="13.2">
+    <row r="34" spans="1:5" ht="13.6">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -2051,7 +2058,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="13.2">
+    <row r="35" spans="1:5" ht="13.6">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -2068,7 +2075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="13.8">
+    <row r="36" spans="1:5" ht="13.6">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -2079,7 +2086,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="13.8">
+    <row r="37" spans="1:5" ht="13.6">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -2090,7 +2097,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="13.2">
+    <row r="38" spans="1:5" ht="12.9">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -2101,7 +2108,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="13.2">
+    <row r="39" spans="1:5" ht="12.9">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -2112,7 +2119,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="13.2">
+    <row r="40" spans="1:5" ht="12.9">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -2123,7 +2130,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="13.2">
+    <row r="41" spans="1:5" ht="12.9">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -2134,7 +2141,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="13.2">
+    <row r="42" spans="1:5" ht="12.9">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -2145,7 +2152,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="13.2">
+    <row r="43" spans="1:5" ht="12.9">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -2159,7 +2166,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="13.8">
+    <row r="44" spans="1:5" ht="13.6">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -2170,7 +2177,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="13.8">
+    <row r="45" spans="1:5" ht="13.6">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -2182,7 +2189,7 @@
       </c>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="13.8">
+    <row r="46" spans="1:5" ht="13.6">
       <c r="A46" s="2">
         <v>46</v>
       </c>
@@ -2196,7 +2203,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="13.8">
+    <row r="47" spans="1:5" ht="13.6">
       <c r="A47" s="2">
         <v>47</v>
       </c>
@@ -2210,7 +2217,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="13.2">
+    <row r="48" spans="1:5" ht="12.9">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -2224,7 +2231,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="13.2">
+    <row r="49" spans="1:4" ht="12.9">
       <c r="A49" s="2">
         <v>49</v>
       </c>
@@ -2235,7 +2242,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="13.2">
+    <row r="50" spans="1:4" ht="12.9">
       <c r="A50" s="2">
         <v>50</v>
       </c>
@@ -2246,7 +2253,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="13.8">
+    <row r="51" spans="1:4" ht="14.3">
       <c r="A51" s="2">
         <v>51</v>
       </c>
@@ -2258,7 +2265,7 @@
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" ht="13.2">
+    <row r="52" spans="1:4" ht="13.6">
       <c r="A52" s="2">
         <v>52</v>
       </c>
@@ -2270,7 +2277,7 @@
       </c>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="1:4" ht="13.2">
+    <row r="53" spans="1:4" ht="13.6">
       <c r="A53" s="2">
         <v>53</v>
       </c>
@@ -2282,7 +2289,7 @@
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" ht="13.2">
+    <row r="54" spans="1:4" ht="12.9">
       <c r="A54" s="2">
         <v>54</v>
       </c>
@@ -2293,7 +2300,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="13.2">
+    <row r="55" spans="1:4" ht="12.9">
       <c r="A55" s="2">
         <v>55</v>
       </c>
@@ -2304,7 +2311,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="13.2">
+    <row r="56" spans="1:4" ht="12.9">
       <c r="A56" s="2">
         <v>56</v>
       </c>
@@ -2315,7 +2322,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="13.2">
+    <row r="57" spans="1:4" ht="12.9">
       <c r="A57" s="2">
         <v>57</v>
       </c>
@@ -2326,7 +2333,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="13.2">
+    <row r="58" spans="1:4" ht="12.9">
       <c r="A58" s="2">
         <v>58</v>
       </c>
@@ -2337,7 +2344,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="13.2">
+    <row r="59" spans="1:4" ht="12.9">
       <c r="A59" s="2">
         <v>59</v>
       </c>
@@ -2348,7 +2355,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="13.2">
+    <row r="60" spans="1:4" ht="12.9">
       <c r="A60" s="2">
         <v>60</v>
       </c>
@@ -2359,7 +2366,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="13.2">
+    <row r="61" spans="1:4" ht="12.9">
       <c r="A61" s="2">
         <v>61</v>
       </c>
@@ -2370,7 +2377,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="13.2">
+    <row r="62" spans="1:4" ht="12.9">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -2381,7 +2388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="13.2">
+    <row r="63" spans="1:4" ht="12.9">
       <c r="A63" s="2">
         <v>63</v>
       </c>
@@ -2392,7 +2399,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="13.2">
+    <row r="64" spans="1:4" ht="12.9">
       <c r="A64" s="2">
         <v>64</v>
       </c>
@@ -2403,7 +2410,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="13.2">
+    <row r="65" spans="1:4" ht="13.6">
       <c r="A65" s="2">
         <v>65</v>
       </c>
@@ -2415,7 +2422,7 @@
       </c>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="1:4" ht="13.2">
+    <row r="66" spans="1:4" ht="13.6">
       <c r="A66" s="2">
         <v>66</v>
       </c>
@@ -2429,7 +2436,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="13.2">
+    <row r="67" spans="1:4" ht="12.9">
       <c r="A67" s="2">
         <v>67</v>
       </c>
@@ -2443,7 +2450,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="13.2">
+    <row r="68" spans="1:4" ht="12.9">
       <c r="A68" s="4">
         <v>68</v>
       </c>
@@ -2454,7 +2461,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="13.2">
+    <row r="69" spans="1:4" ht="12.9">
       <c r="A69" s="2">
         <v>69</v>
       </c>
@@ -2465,7 +2472,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="13.2">
+    <row r="70" spans="1:4" ht="12.9">
       <c r="A70" s="2">
         <v>70</v>
       </c>
@@ -2476,7 +2483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="13.2">
+    <row r="71" spans="1:4" ht="12.9">
       <c r="A71" s="2">
         <v>71</v>
       </c>
@@ -2487,7 +2494,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="13.2">
+    <row r="72" spans="1:4" ht="12.9">
       <c r="A72" s="4">
         <v>72</v>
       </c>
@@ -2498,7 +2505,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="13.2">
+    <row r="73" spans="1:4" ht="12.9">
       <c r="A73" s="3">
         <v>73</v>
       </c>
@@ -2512,7 +2519,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="13.2">
+    <row r="74" spans="1:4" ht="12.9">
       <c r="A74" s="3">
         <v>74</v>
       </c>
@@ -2523,7 +2530,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="13.2">
+    <row r="75" spans="1:4" ht="12.9">
       <c r="A75" s="2">
         <v>75</v>
       </c>
@@ -2534,7 +2541,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="13.2">
+    <row r="76" spans="1:4" ht="12.9">
       <c r="A76" s="3">
         <v>76</v>
       </c>
@@ -2545,7 +2552,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="13.2">
+    <row r="77" spans="1:4" ht="12.9">
       <c r="A77" s="2">
         <v>77</v>
       </c>
@@ -2556,7 +2563,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="13.2">
+    <row r="78" spans="1:4" ht="12.9">
       <c r="A78" s="2">
         <v>78</v>
       </c>
@@ -2567,7 +2574,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="13.2">
+    <row r="79" spans="1:4" ht="12.9">
       <c r="A79" s="2">
         <v>79</v>
       </c>
@@ -2581,7 +2588,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="13.2">
+    <row r="80" spans="1:4" ht="12.9">
       <c r="A80" s="2">
         <v>80</v>
       </c>
@@ -2592,7 +2599,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="13.2">
+    <row r="81" spans="1:4" ht="12.9">
       <c r="A81" s="2">
         <v>81</v>
       </c>
@@ -2603,7 +2610,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="13.2">
+    <row r="82" spans="1:4" ht="12.9">
       <c r="A82" s="2">
         <v>82</v>
       </c>
@@ -2614,7 +2621,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="13.2">
+    <row r="83" spans="1:4" ht="12.9">
       <c r="A83" s="2">
         <v>83</v>
       </c>
@@ -2625,7 +2632,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="13.2">
+    <row r="84" spans="1:4" ht="12.9">
       <c r="A84" s="4">
         <v>84</v>
       </c>
@@ -2637,7 +2644,7 @@
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:4" ht="13.2">
+    <row r="85" spans="1:4" ht="12.9">
       <c r="A85" s="4">
         <v>85</v>
       </c>
@@ -2649,7 +2656,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" ht="13.2">
+    <row r="86" spans="1:4" ht="12.9">
       <c r="A86" s="2">
         <v>86</v>
       </c>
@@ -2661,7 +2668,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" ht="13.2">
+    <row r="87" spans="1:4" ht="12.9">
       <c r="A87" s="4">
         <v>87</v>
       </c>
@@ -2673,7 +2680,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" ht="13.2">
+    <row r="88" spans="1:4" ht="12.9">
       <c r="A88" s="2">
         <v>88</v>
       </c>
@@ -2687,7 +2694,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="13.2">
+    <row r="89" spans="1:4" ht="12.9">
       <c r="A89" s="4">
         <v>89</v>
       </c>
@@ -2698,7 +2705,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="13.2">
+    <row r="90" spans="1:4" ht="12.9">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -2709,7 +2716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="13.2">
+    <row r="91" spans="1:4" ht="12.9">
       <c r="A91" s="2">
         <v>91</v>
       </c>
@@ -2720,7 +2727,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="13.8">
+    <row r="92" spans="1:4" ht="13.6">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -2731,7 +2738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="13.8">
+    <row r="93" spans="1:4" ht="13.6">
       <c r="A93" s="2">
         <v>93</v>
       </c>
@@ -2742,7 +2749,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="13.8">
+    <row r="94" spans="1:4" ht="13.6">
       <c r="A94" s="2">
         <v>94</v>
       </c>
@@ -2753,7 +2760,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="13.2">
+    <row r="95" spans="1:4" ht="12.9">
       <c r="A95" s="4">
         <v>95</v>
       </c>
@@ -2767,7 +2774,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="13.2">
+    <row r="96" spans="1:4" ht="12.9">
       <c r="A96" s="2">
         <v>96</v>
       </c>
@@ -2778,7 +2785,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="19.5" customHeight="1">
+    <row r="97" spans="1:4" ht="19.55" customHeight="1">
       <c r="A97" s="2">
         <v>97</v>
       </c>
@@ -2789,7 +2796,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="13.2">
+    <row r="98" spans="1:4" ht="12.9">
       <c r="A98" s="2">
         <v>98</v>
       </c>
@@ -2800,7 +2807,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="13.2">
+    <row r="99" spans="1:4" ht="12.9">
       <c r="A99" s="4">
         <v>99</v>
       </c>
@@ -2811,7 +2818,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="13.2">
+    <row r="100" spans="1:4" ht="12.9">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -2822,7 +2829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="13.2">
+    <row r="101" spans="1:4" ht="12.9">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -2833,7 +2840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="13.2">
+    <row r="102" spans="1:4" ht="12.9">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -2844,7 +2851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="13.2">
+    <row r="103" spans="1:4" ht="12.9">
       <c r="A103" s="2">
         <v>103</v>
       </c>
@@ -2855,7 +2862,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="13.2">
+    <row r="104" spans="1:4" ht="12.9">
       <c r="A104" s="2">
         <v>104</v>
       </c>
@@ -2866,7 +2873,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="13.2">
+    <row r="105" spans="1:4" ht="12.9">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -2877,7 +2884,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="13.8">
+    <row r="106" spans="1:4" ht="13.6">
       <c r="A106" s="2">
         <v>106</v>
       </c>
@@ -2888,7 +2895,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="13.8">
+    <row r="107" spans="1:4" ht="13.6">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -2900,7 +2907,7 @@
       </c>
       <c r="D107" s="8"/>
     </row>
-    <row r="108" spans="1:4" ht="13.8">
+    <row r="108" spans="1:4" ht="13.6">
       <c r="A108" s="2">
         <v>108</v>
       </c>
@@ -2912,7 +2919,7 @@
       </c>
       <c r="D108" s="8"/>
     </row>
-    <row r="109" spans="1:4" ht="13.8">
+    <row r="109" spans="1:4" ht="13.6">
       <c r="A109" s="2">
         <v>109</v>
       </c>
@@ -2924,7 +2931,7 @@
       </c>
       <c r="D109" s="8"/>
     </row>
-    <row r="110" spans="1:4" ht="13.2">
+    <row r="110" spans="1:4" ht="12.9">
       <c r="A110" s="2">
         <v>110</v>
       </c>
@@ -2935,7 +2942,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="13.2">
+    <row r="111" spans="1:4" ht="12.9">
       <c r="A111" s="2">
         <v>111</v>
       </c>
@@ -2946,7 +2953,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="13.2">
+    <row r="112" spans="1:4" ht="12.9">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -2957,7 +2964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="13.2">
+    <row r="113" spans="1:4" ht="12.9">
       <c r="A113" s="2">
         <v>113</v>
       </c>
@@ -2968,7 +2975,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="13.2">
+    <row r="114" spans="1:4" ht="12.9">
       <c r="A114" s="2">
         <v>114</v>
       </c>
@@ -2979,7 +2986,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="13.2">
+    <row r="115" spans="1:4" ht="12.9">
       <c r="A115" s="4">
         <v>115</v>
       </c>
@@ -2990,7 +2997,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="13.2">
+    <row r="116" spans="1:4" ht="12.9">
       <c r="A116" s="4">
         <v>116</v>
       </c>
@@ -3004,7 +3011,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="13.2">
+    <row r="117" spans="1:4" ht="12.9">
       <c r="A117" s="2">
         <v>117</v>
       </c>
@@ -3015,7 +3022,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="13.2">
+    <row r="118" spans="1:4" ht="12.9">
       <c r="A118" s="2">
         <v>118</v>
       </c>
@@ -3026,7 +3033,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="13.2">
+    <row r="119" spans="1:4" ht="12.9">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -3037,7 +3044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="13.2">
+    <row r="120" spans="1:4" ht="12.9">
       <c r="A120" s="2">
         <v>120</v>
       </c>
@@ -3048,7 +3055,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="13.2">
+    <row r="121" spans="1:4" ht="12.9">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -3059,7 +3066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="13.2">
+    <row r="122" spans="1:4" ht="12.9">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -3070,7 +3077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="13.2">
+    <row r="123" spans="1:4" ht="12.9">
       <c r="A123" s="4">
         <v>123</v>
       </c>
@@ -3081,7 +3088,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="13.2">
+    <row r="124" spans="1:4" ht="12.9">
       <c r="A124" s="2">
         <v>124</v>
       </c>
@@ -3092,7 +3099,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="13.2">
+    <row r="125" spans="1:4" ht="12.9">
       <c r="A125" s="2">
         <v>125</v>
       </c>
@@ -3103,7 +3110,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="13.2">
+    <row r="126" spans="1:4" ht="12.9">
       <c r="A126" s="4">
         <v>126</v>
       </c>
@@ -3114,7 +3121,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="13.2">
+    <row r="127" spans="1:4" ht="12.9">
       <c r="A127" s="2">
         <v>127</v>
       </c>
@@ -3128,7 +3135,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="13.2">
+    <row r="128" spans="1:4" ht="12.9">
       <c r="A128" s="4">
         <v>128</v>
       </c>
@@ -3139,7 +3146,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:27" ht="13.2">
+    <row r="129" spans="1:27" ht="12.9">
       <c r="A129" s="2">
         <v>129</v>
       </c>
@@ -3150,7 +3157,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="13.2">
+    <row r="130" spans="1:27" ht="12.9">
       <c r="A130" s="2">
         <v>130</v>
       </c>
@@ -3161,7 +3168,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="131" spans="1:27" ht="13.2">
+    <row r="131" spans="1:27" ht="12.9">
       <c r="A131" s="4">
         <v>131</v>
       </c>
@@ -3172,7 +3179,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="13.2">
+    <row r="132" spans="1:27" ht="12.9">
       <c r="A132" s="4">
         <v>132</v>
       </c>
@@ -3183,7 +3190,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="13.2">
+    <row r="133" spans="1:27" ht="12.9">
       <c r="A133" s="2">
         <v>133</v>
       </c>
@@ -3194,7 +3201,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="13.2">
+    <row r="134" spans="1:27" ht="12.9">
       <c r="A134" s="2">
         <v>134</v>
       </c>
@@ -3205,7 +3212,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="13.2">
+    <row r="135" spans="1:27" ht="12.9">
       <c r="A135" s="4">
         <v>135</v>
       </c>
@@ -3216,7 +3223,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="13.2">
+    <row r="136" spans="1:27" ht="12.9">
       <c r="A136" s="2">
         <v>136</v>
       </c>
@@ -3227,7 +3234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="13.2">
+    <row r="137" spans="1:27" ht="12.9">
       <c r="A137" s="4">
         <v>137</v>
       </c>
@@ -3264,7 +3271,7 @@
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
     </row>
-    <row r="138" spans="1:27" ht="13.2">
+    <row r="138" spans="1:27" ht="12.9">
       <c r="A138" s="2">
         <v>138</v>
       </c>
@@ -3275,7 +3282,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="13.2">
+    <row r="139" spans="1:27" ht="12.9">
       <c r="A139" s="2">
         <v>139</v>
       </c>
@@ -3286,7 +3293,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="140" spans="1:27" ht="13.2">
+    <row r="140" spans="1:27" ht="12.9">
       <c r="A140" s="2">
         <v>140</v>
       </c>
@@ -3297,7 +3304,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="141" spans="1:27" ht="13.2">
+    <row r="141" spans="1:27" ht="12.9">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -3308,7 +3315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="13.2">
+    <row r="142" spans="1:27" ht="12.9">
       <c r="A142" s="2">
         <v>142</v>
       </c>
@@ -3320,7 +3327,7 @@
       </c>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:27" ht="13.2">
+    <row r="143" spans="1:27" ht="12.9">
       <c r="A143" s="2">
         <v>143</v>
       </c>
@@ -3334,7 +3341,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="13.2">
+    <row r="144" spans="1:27" ht="12.9">
       <c r="A144" s="2">
         <v>144</v>
       </c>
@@ -3346,7 +3353,7 @@
       </c>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" spans="1:4" ht="13.2">
+    <row r="145" spans="1:4" ht="12.9">
       <c r="A145" s="4">
         <v>145</v>
       </c>
@@ -3358,7 +3365,7 @@
       </c>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4" ht="13.2">
+    <row r="146" spans="1:4" ht="12.9">
       <c r="A146" s="2">
         <v>146</v>
       </c>
@@ -3370,7 +3377,7 @@
       </c>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4" ht="13.2">
+    <row r="147" spans="1:4" ht="12.9">
       <c r="A147" s="2">
         <v>147</v>
       </c>
@@ -3384,7 +3391,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="13.2">
+    <row r="148" spans="1:4" ht="12.9">
       <c r="A148" s="2">
         <v>148</v>
       </c>
@@ -3395,7 +3402,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="13.2">
+    <row r="149" spans="1:4" ht="12.9">
       <c r="A149" s="4">
         <v>149</v>
       </c>
@@ -3406,7 +3413,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="13.2">
+    <row r="150" spans="1:4" ht="12.9">
       <c r="A150" s="2">
         <v>150</v>
       </c>
@@ -3417,7 +3424,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="13.2">
+    <row r="151" spans="1:4" ht="12.9">
       <c r="A151" s="2">
         <v>151</v>
       </c>
@@ -3428,7 +3435,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="13.2">
+    <row r="152" spans="1:4" ht="12.9">
       <c r="A152" s="2">
         <v>155</v>
       </c>
@@ -3439,7 +3446,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="13.2">
+    <row r="153" spans="1:4" ht="12.9">
       <c r="A153" s="2">
         <v>160</v>
       </c>
@@ -3450,7 +3457,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="13.2">
+    <row r="154" spans="1:4" ht="12.9">
       <c r="A154" s="2">
         <v>164</v>
       </c>
@@ -3461,7 +3468,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="13.2">
+    <row r="155" spans="1:4" ht="12.9">
       <c r="A155" s="2">
         <v>165</v>
       </c>
@@ -3472,7 +3479,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="13.2">
+    <row r="156" spans="1:4" ht="12.9">
       <c r="A156" s="2">
         <v>167</v>
       </c>
@@ -3483,7 +3490,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="13.2">
+    <row r="157" spans="1:4" ht="12.9">
       <c r="A157" s="2">
         <v>168</v>
       </c>
@@ -3494,7 +3501,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="13.2">
+    <row r="158" spans="1:4" ht="12.9">
       <c r="A158" s="2">
         <v>169</v>
       </c>
@@ -3505,7 +3512,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="13.2">
+    <row r="159" spans="1:4" ht="12.9">
       <c r="A159" s="2">
         <v>171</v>
       </c>
@@ -3516,7 +3523,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="13.2">
+    <row r="160" spans="1:4" ht="12.9">
       <c r="A160" s="2">
         <v>172</v>
       </c>
@@ -3527,7 +3534,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="13.2">
+    <row r="161" spans="1:3" ht="12.9">
       <c r="A161" s="2">
         <v>191</v>
       </c>
@@ -3538,7 +3545,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="13.2">
+    <row r="162" spans="1:3" ht="12.9">
       <c r="A162" s="2">
         <v>198</v>
       </c>
@@ -3549,7 +3556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="13.2">
+    <row r="163" spans="1:3" ht="12.9">
       <c r="A163" s="2">
         <v>200</v>
       </c>
@@ -3560,7 +3567,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="13.2">
+    <row r="164" spans="1:3" ht="12.9">
       <c r="A164" s="2">
         <v>202</v>
       </c>
@@ -3571,7 +3578,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="13.2">
+    <row r="165" spans="1:3" ht="12.9">
       <c r="A165" s="2">
         <v>203</v>
       </c>
@@ -3582,7 +3589,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="13.8">
+    <row r="166" spans="1:3" ht="13.6">
       <c r="A166" s="2">
         <v>205</v>
       </c>
@@ -3593,7 +3600,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="13.2">
+    <row r="167" spans="1:3" ht="12.9">
       <c r="A167" s="2">
         <v>206</v>
       </c>
@@ -3602,7 +3609,7 @@
       </c>
       <c r="C167" s="2"/>
     </row>
-    <row r="168" spans="1:3" ht="13.2">
+    <row r="168" spans="1:3" ht="12.9">
       <c r="A168" s="2">
         <v>208</v>
       </c>
@@ -3613,7 +3620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="13.2">
+    <row r="169" spans="1:3" ht="12.9">
       <c r="A169" s="2">
         <v>215</v>
       </c>
@@ -3624,7 +3631,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="13.2">
+    <row r="170" spans="1:3" ht="12.9">
       <c r="A170" s="2">
         <v>217</v>
       </c>
@@ -3635,7 +3642,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="13.2">
+    <row r="171" spans="1:3" ht="12.9">
       <c r="A171" s="2">
         <v>218</v>
       </c>
@@ -3646,7 +3653,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="13.2">
+    <row r="172" spans="1:3" ht="12.9">
       <c r="A172" s="2">
         <v>219</v>
       </c>
@@ -3657,7 +3664,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="13.2">
+    <row r="173" spans="1:3" ht="12.9">
       <c r="A173" s="2">
         <v>226</v>
       </c>
@@ -3668,7 +3675,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="13.2">
+    <row r="174" spans="1:3" ht="12.9">
       <c r="A174" s="2">
         <v>231</v>
       </c>
@@ -3679,7 +3686,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="13.2">
+    <row r="175" spans="1:3" ht="12.9">
       <c r="A175" s="2">
         <v>234</v>
       </c>
@@ -3690,7 +3697,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="13.2">
+    <row r="176" spans="1:3" ht="12.9">
       <c r="A176" s="2">
         <v>235</v>
       </c>
@@ -3701,7 +3708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="13.2">
+    <row r="177" spans="1:3" ht="12.9">
       <c r="A177" s="2">
         <v>237</v>
       </c>
@@ -3712,14 +3719,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="13.2">
+    <row r="178" spans="1:3" ht="12.9">
       <c r="A178" s="2">
         <v>238</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
     </row>
-    <row r="179" spans="1:3" ht="13.2">
+    <row r="179" spans="1:3" ht="12.9">
       <c r="A179" s="2">
         <v>242</v>
       </c>
@@ -3730,7 +3737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="13.2">
+    <row r="180" spans="1:3" ht="12.9">
       <c r="A180" s="2">
         <v>253</v>
       </c>
@@ -3741,7 +3748,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="13.2">
+    <row r="181" spans="1:3" ht="12.9">
       <c r="A181" s="2">
         <v>258</v>
       </c>
@@ -3752,7 +3759,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="13.2">
+    <row r="182" spans="1:3" ht="12.9">
       <c r="A182" s="2">
         <v>263</v>
       </c>
@@ -3763,7 +3770,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="13.2">
+    <row r="183" spans="1:3" ht="12.9">
       <c r="A183" s="2">
         <v>268</v>
       </c>
@@ -3774,7 +3781,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="16.8">
+    <row r="184" spans="1:3" ht="16.3">
       <c r="A184" s="10">
         <v>269</v>
       </c>
@@ -3785,7 +3792,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="13.2">
+    <row r="185" spans="1:3" ht="12.9">
       <c r="A185" s="2">
         <v>273</v>
       </c>
@@ -3796,7 +3803,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="16.8">
+    <row r="186" spans="1:3" ht="16.3">
       <c r="A186" s="2">
         <v>280</v>
       </c>
@@ -3807,7 +3814,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="13.2">
+    <row r="187" spans="1:3" ht="12.9">
       <c r="A187" s="2">
         <v>283</v>
       </c>
@@ -3818,7 +3825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="13.2">
+    <row r="188" spans="1:3" ht="12.9">
       <c r="A188" s="2">
         <v>297</v>
       </c>
@@ -3827,7 +3834,7 @@
       </c>
       <c r="C188" s="2"/>
     </row>
-    <row r="189" spans="1:3" ht="13.2">
+    <row r="189" spans="1:3" ht="12.9">
       <c r="A189" s="2">
         <v>301</v>
       </c>
@@ -3838,7 +3845,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="13.2">
+    <row r="190" spans="1:3" ht="12.9">
       <c r="A190" s="2">
         <v>303</v>
       </c>
@@ -3849,7 +3856,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="13.2">
+    <row r="191" spans="1:3" ht="12.9">
       <c r="A191" s="2">
         <v>307</v>
       </c>
@@ -3860,7 +3867,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="13.2">
+    <row r="192" spans="1:3" ht="12.9">
       <c r="A192" s="2">
         <v>322</v>
       </c>
@@ -3871,7 +3878,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="13.2">
+    <row r="193" spans="1:3" ht="12.9">
       <c r="A193" s="2">
         <v>326</v>
       </c>
@@ -3882,7 +3889,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="13.2">
+    <row r="194" spans="1:3" ht="12.9">
       <c r="A194" s="2">
         <v>336</v>
       </c>
@@ -3893,7 +3900,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="13.2">
+    <row r="195" spans="1:3" ht="12.9">
       <c r="A195" s="2">
         <v>344</v>
       </c>
@@ -3904,7 +3911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="13.2">
+    <row r="196" spans="1:3" ht="12.9">
       <c r="A196" s="2">
         <v>349</v>
       </c>
@@ -3913,7 +3920,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="13.2">
+    <row r="197" spans="1:3" ht="12.9">
       <c r="A197" s="2">
         <v>371</v>
       </c>
@@ -3921,7 +3928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="13.2">
+    <row r="198" spans="1:3" ht="12.9">
       <c r="A198" s="2">
         <v>383</v>
       </c>
@@ -3932,7 +3939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="13.2">
+    <row r="199" spans="1:3" ht="12.9">
       <c r="A199" s="2">
         <v>387</v>
       </c>
@@ -3943,7 +3950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="13.2">
+    <row r="200" spans="1:3" ht="12.9">
       <c r="A200" s="2">
         <v>406</v>
       </c>
@@ -3954,7 +3961,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="13.2">
+    <row r="201" spans="1:3" ht="12.9">
       <c r="A201" s="2">
         <v>412</v>
       </c>
@@ -3962,7 +3969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="13.2">
+    <row r="202" spans="1:3" ht="12.9">
       <c r="A202" s="2">
         <v>438</v>
       </c>
@@ -3973,7 +3980,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="13.2">
+    <row r="203" spans="1:3" ht="12.9">
       <c r="A203" s="2">
         <v>442</v>
       </c>
@@ -3984,7 +3991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="13.2">
+    <row r="204" spans="1:3" ht="12.9">
       <c r="A204" s="2">
         <v>448</v>
       </c>
@@ -3995,7 +4002,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="13.2">
+    <row r="205" spans="1:3" ht="12.9">
       <c r="A205" s="2">
         <v>453</v>
       </c>
@@ -4006,7 +4013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="13.2">
+    <row r="206" spans="1:3" ht="12.9">
       <c r="A206" s="2">
         <v>458</v>
       </c>
@@ -4017,7 +4024,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="13.2">
+    <row r="207" spans="1:3" ht="12.9">
       <c r="A207" s="2">
         <v>461</v>
       </c>
@@ -4028,7 +4035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="13.2">
+    <row r="208" spans="1:3" ht="12.9">
       <c r="A208" s="2">
         <v>463</v>
       </c>
@@ -4039,7 +4046,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="13.2">
+    <row r="209" spans="1:3" ht="12.9">
       <c r="A209" s="2">
         <v>470</v>
       </c>
@@ -4050,7 +4057,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="13.2">
+    <row r="210" spans="1:3" ht="12.9">
       <c r="A210" s="2">
         <v>476</v>
       </c>
@@ -4061,7 +4068,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="13.2">
+    <row r="211" spans="1:3" ht="12.9">
       <c r="A211" s="2">
         <v>479</v>
       </c>
@@ -4070,7 +4077,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="13.2">
+    <row r="212" spans="1:3" ht="12.9">
       <c r="A212" s="2">
         <v>500</v>
       </c>
@@ -4081,7 +4088,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="13.2">
+    <row r="213" spans="1:3" ht="12.9">
       <c r="A213" s="2">
         <v>535</v>
       </c>
@@ -4092,7 +4099,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="13.2">
+    <row r="214" spans="1:3" ht="12.9">
       <c r="A214" s="2">
         <v>540</v>
       </c>
@@ -4103,7 +4110,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="13.2">
+    <row r="215" spans="1:3" ht="12.9">
       <c r="A215" s="2">
         <v>543</v>
       </c>
@@ -4114,7 +4121,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="13.2">
+    <row r="216" spans="1:3" ht="12.9">
       <c r="A216" s="2">
         <v>557</v>
       </c>
@@ -4125,7 +4132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="13.2">
+    <row r="217" spans="1:3" ht="12.9">
       <c r="A217" s="2">
         <v>561</v>
       </c>
@@ -4136,7 +4143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="13.2">
+    <row r="218" spans="1:3" ht="12.9">
       <c r="A218" s="2">
         <v>617</v>
       </c>
@@ -4147,7 +4154,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="13.2">
+    <row r="219" spans="1:3" ht="12.9">
       <c r="A219" s="2">
         <v>628</v>
       </c>
@@ -4158,7 +4165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="13.2">
+    <row r="220" spans="1:3" ht="12.9">
       <c r="A220" s="2">
         <v>654</v>
       </c>
@@ -4169,7 +4176,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="13.2">
+    <row r="221" spans="1:3" ht="12.9">
       <c r="A221" s="2">
         <v>657</v>
       </c>
@@ -4180,7 +4187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="13.2">
+    <row r="222" spans="1:3" ht="12.9">
       <c r="A222" s="2">
         <v>669</v>
       </c>
@@ -4191,7 +4198,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="13.8">
+    <row r="223" spans="1:3" ht="13.6">
       <c r="A223" s="2">
         <v>681</v>
       </c>
@@ -4202,7 +4209,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="13.8">
+    <row r="224" spans="1:3" ht="13.6">
       <c r="A224" s="2">
         <v>683</v>
       </c>
@@ -4213,7 +4220,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="13.8">
+    <row r="225" spans="1:3" ht="13.6">
       <c r="A225" s="2">
         <v>695</v>
       </c>
@@ -4224,7 +4231,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="13.2">
+    <row r="226" spans="1:3" ht="12.9">
       <c r="A226" s="2">
         <v>697</v>
       </c>
@@ -4235,7 +4242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="13.8">
+    <row r="227" spans="1:3" ht="13.6">
       <c r="A227" s="2">
         <v>728</v>
       </c>
@@ -4246,7 +4253,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="13.2">
+    <row r="228" spans="1:3" ht="12.9">
       <c r="A228" s="2">
         <v>760</v>
       </c>
@@ -4257,7 +4264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="13.2">
+    <row r="229" spans="1:3" ht="12.9">
       <c r="A229" s="2">
         <v>771</v>
       </c>
@@ -4268,7 +4275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="13.2">
+    <row r="230" spans="1:3" ht="12.9">
       <c r="A230" s="2">
         <v>804</v>
       </c>
@@ -4279,7 +4286,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="13.2">
+    <row r="231" spans="1:3" ht="13.6">
       <c r="A231" s="2">
         <v>807</v>
       </c>
@@ -4290,7 +4297,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="13.2">
+    <row r="232" spans="1:3" ht="12.9">
       <c r="A232" s="2">
         <v>819</v>
       </c>
@@ -4301,7 +4308,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="13.2">
+    <row r="233" spans="1:3" ht="12.9">
       <c r="A233" s="2">
         <v>844</v>
       </c>
@@ -4312,7 +4319,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="13.2">
+    <row r="234" spans="1:3" ht="12.9">
       <c r="A234" s="2">
         <v>867</v>
       </c>
@@ -4323,7 +4330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="13.2">
+    <row r="235" spans="1:3" ht="12.9">
       <c r="A235" s="2">
         <v>872</v>
       </c>
@@ -4334,7 +4341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="13.2">
+    <row r="236" spans="1:3" ht="12.9">
       <c r="A236" s="2">
         <v>876</v>
       </c>
@@ -4345,7 +4352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="13.2">
+    <row r="237" spans="1:3" ht="12.9">
       <c r="A237" s="2">
         <v>877</v>
       </c>
@@ -4356,7 +4363,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="13.8">
+    <row r="238" spans="1:3" ht="13.6">
       <c r="A238" s="2">
         <v>925</v>
       </c>
@@ -4367,7 +4374,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="13.8">
+    <row r="239" spans="1:3" ht="13.6">
       <c r="A239" s="2">
         <v>905</v>
       </c>
@@ -4378,7 +4385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="13.8">
+    <row r="240" spans="1:3" ht="13.6">
       <c r="A240" s="2">
         <v>908</v>
       </c>
@@ -4389,7 +4396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="13.8">
+    <row r="241" spans="1:3" ht="13.6">
       <c r="A241" s="2">
         <v>922</v>
       </c>
@@ -4400,7 +4407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="13.8">
+    <row r="242" spans="1:3" ht="13.6">
       <c r="A242" s="2">
         <v>925</v>
       </c>
@@ -4411,7 +4418,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="13.8">
+    <row r="243" spans="1:3" ht="13.6">
       <c r="A243" s="2">
         <v>926</v>
       </c>
@@ -4422,7 +4429,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="13.8">
+    <row r="244" spans="1:3" ht="13.6">
       <c r="A244" s="2">
         <v>929</v>
       </c>
@@ -4433,7 +4440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="13.8">
+    <row r="245" spans="1:3" ht="13.6">
       <c r="A245" s="2">
         <v>930</v>
       </c>
@@ -4444,7 +4451,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="13.8">
+    <row r="246" spans="1:3" ht="13.6">
       <c r="A246" s="2">
         <v>931</v>
       </c>
@@ -4455,15 +4462,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="14.4">
+    <row r="247" spans="1:3" ht="14.3">
       <c r="B247" s="14"/>
     </row>
-    <row r="248" spans="1:3" ht="14.4">
+    <row r="248" spans="1:3" ht="14.3">
       <c r="B248" s="14" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="14.4">
+    <row r="249" spans="1:3" ht="14.3">
       <c r="B249" s="14" t="s">
         <v>300</v>
       </c>
@@ -4471,12 +4478,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="14.4">
+    <row r="250" spans="1:3" ht="14.3">
       <c r="B250" s="14" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="14.4">
+    <row r="251" spans="1:3" ht="14.3">
       <c r="B251" s="14" t="s">
         <v>303</v>
       </c>
@@ -4487,29 +4494,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.8" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.8" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.8" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
         <v>324</v>
@@ -4518,7 +4525,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:4" ht="15.8" customHeight="1">
       <c r="A4" s="2">
         <v>11.12</v>
       </c>
@@ -4529,7 +4536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.8" customHeight="1">
       <c r="A5" s="2">
         <v>11.13</v>
       </c>
@@ -4540,7 +4547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.8" customHeight="1">
       <c r="A6" s="2">
         <v>11.14</v>
       </c>
@@ -4551,7 +4558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.8" customHeight="1">
       <c r="A7" s="17">
         <v>11.15</v>
       </c>
@@ -4562,7 +4569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.8" customHeight="1">
       <c r="A8" s="17">
         <v>11.16</v>
       </c>
@@ -4573,7 +4580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+    <row r="9" spans="1:4" ht="15.8" customHeight="1">
       <c r="A9" s="17">
         <v>11.17</v>
       </c>
@@ -4584,7 +4591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+    <row r="10" spans="1:4" ht="15.8" customHeight="1">
       <c r="A10" s="17">
         <v>11.18</v>
       </c>
@@ -4592,10 +4599,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.8" customHeight="1">
       <c r="A11" s="17">
         <v>11.19</v>
       </c>
@@ -4603,12 +4610,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A12" s="17">
-        <v>11.2</v>
+    <row r="12" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A12" s="29">
+        <v>43424</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>346</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A13" s="30">
+        <v>43425</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4617,34 +4632,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.8" customHeight="1">
       <c r="A1" s="2">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.8" customHeight="1">
       <c r="A2" s="2">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.8" customHeight="1">
       <c r="A3" s="2">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.8" customHeight="1">
       <c r="A4" s="2">
         <v>161</v>
       </c>
@@ -4652,7 +4667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.8" customHeight="1">
       <c r="A5" s="2">
         <v>163</v>
       </c>
@@ -4660,7 +4675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.8" customHeight="1">
       <c r="A6" s="2">
         <v>170</v>
       </c>
@@ -4668,17 +4683,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.8" customHeight="1">
       <c r="A7" s="2">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+    <row r="8" spans="1:2" ht="15.8" customHeight="1">
       <c r="A8" s="2">
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.8" customHeight="1">
       <c r="A9" s="2">
         <v>199</v>
       </c>
@@ -4686,7 +4701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+    <row r="10" spans="1:2" ht="15.8" customHeight="1">
       <c r="A10" s="2">
         <v>201</v>
       </c>
@@ -4694,7 +4709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.8" customHeight="1">
       <c r="A11" s="2">
         <v>209</v>
       </c>
@@ -4702,7 +4717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+    <row r="12" spans="1:2" ht="15.8" customHeight="1">
       <c r="A12" s="2">
         <v>210</v>
       </c>
@@ -4710,7 +4725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+    <row r="13" spans="1:2" ht="15.8" customHeight="1">
       <c r="A13" s="2">
         <v>211</v>
       </c>
@@ -4718,12 +4733,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+    <row r="14" spans="1:2" ht="15.8" customHeight="1">
       <c r="A14" s="2">
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+    <row r="15" spans="1:2" ht="15.8" customHeight="1">
       <c r="A15" s="2">
         <v>213</v>
       </c>
@@ -4731,17 +4746,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+    <row r="16" spans="1:2" ht="15.8" customHeight="1">
       <c r="A16" s="2">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+    <row r="17" spans="1:2" ht="15.8" customHeight="1">
       <c r="A17" s="2">
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+    <row r="18" spans="1:2" ht="15.8" customHeight="1">
       <c r="A18" s="2">
         <v>217</v>
       </c>
@@ -4749,12 +4764,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+    <row r="19" spans="1:2" ht="15.8" customHeight="1">
       <c r="A19" s="2">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+    <row r="20" spans="1:2" ht="15.8" customHeight="1">
       <c r="A20" s="15">
         <v>220</v>
       </c>
@@ -4762,7 +4777,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+    <row r="21" spans="1:2" ht="15.8" customHeight="1">
       <c r="A21" s="17">
         <v>221</v>
       </c>
@@ -4770,12 +4785,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+    <row r="22" spans="1:2" ht="15.8" customHeight="1">
       <c r="A22" s="17">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+    <row r="23" spans="1:2" ht="15.8" customHeight="1">
       <c r="A23" s="17">
         <v>223</v>
       </c>
@@ -4783,7 +4798,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+    <row r="24" spans="1:2" ht="15.8" customHeight="1">
       <c r="A24" s="17">
         <v>225</v>
       </c>
@@ -4791,7 +4806,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+    <row r="25" spans="1:2" ht="15.8" customHeight="1">
       <c r="A25" s="17">
         <v>228</v>
       </c>
@@ -4799,7 +4814,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+    <row r="26" spans="1:2" ht="15.8" customHeight="1">
       <c r="A26" s="17"/>
     </row>
   </sheetData>
@@ -4809,19 +4824,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.8" customHeight="1">
       <c r="A1" s="2">
         <v>151</v>
       </c>
@@ -4829,7 +4844,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.8" customHeight="1">
       <c r="A2" s="2">
         <v>152</v>
       </c>
@@ -4837,7 +4852,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.8" customHeight="1">
       <c r="A3" s="2">
         <v>153</v>
       </c>
@@ -4845,7 +4860,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.8" customHeight="1">
       <c r="A4" s="2">
         <v>155</v>
       </c>
@@ -4853,7 +4868,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.8" customHeight="1">
       <c r="A5" s="15">
         <v>157</v>
       </c>
@@ -4861,13 +4876,13 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.8" customHeight="1">
       <c r="A6" s="15">
         <v>158</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.8" customHeight="1">
       <c r="A7" s="2">
         <v>160</v>
       </c>
@@ -4875,7 +4890,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+    <row r="8" spans="1:2" ht="15.8" customHeight="1">
       <c r="A8" s="2">
         <v>162</v>
       </c>
@@ -4883,7 +4898,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.8" customHeight="1">
       <c r="A9" s="15">
         <v>164</v>
       </c>
@@ -4891,7 +4906,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+    <row r="10" spans="1:2" ht="15.8" customHeight="1">
       <c r="A10" s="2">
         <v>165</v>
       </c>
@@ -4899,7 +4914,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.8" customHeight="1">
       <c r="A11" s="2">
         <v>167</v>
       </c>
@@ -4907,7 +4922,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+    <row r="12" spans="1:2" ht="15.8" customHeight="1">
       <c r="A12" s="2">
         <v>168</v>
       </c>
@@ -4915,7 +4930,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+    <row r="13" spans="1:2" ht="15.8" customHeight="1">
       <c r="A13" s="2">
         <v>169</v>
       </c>
@@ -4923,7 +4938,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+    <row r="14" spans="1:2" ht="15.8" customHeight="1">
       <c r="A14" s="2">
         <v>171</v>
       </c>
@@ -4931,7 +4946,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+    <row r="15" spans="1:2" ht="15.8" customHeight="1">
       <c r="A15" s="2">
         <v>172</v>
       </c>
@@ -4939,7 +4954,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+    <row r="16" spans="1:2" ht="15.8" customHeight="1">
       <c r="A16" s="2">
         <v>173</v>
       </c>
@@ -4947,7 +4962,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+    <row r="17" spans="1:2" ht="15.8" customHeight="1">
       <c r="A17" s="2">
         <v>179</v>
       </c>
@@ -4955,7 +4970,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1">
+    <row r="18" spans="1:2" ht="15.8" customHeight="1">
       <c r="A18" s="2">
         <v>187</v>
       </c>
@@ -4963,13 +4978,13 @@
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+    <row r="19" spans="1:2" ht="15.8" customHeight="1">
       <c r="A19" s="15">
         <v>188</v>
       </c>
       <c r="B19" s="19"/>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+    <row r="20" spans="1:2" ht="15.8" customHeight="1">
       <c r="A20" s="2">
         <v>189</v>
       </c>
@@ -4977,13 +4992,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1">
+    <row r="21" spans="1:2" ht="15.8" customHeight="1">
       <c r="A21" s="15">
         <v>190</v>
       </c>
       <c r="B21" s="19"/>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1">
+    <row r="22" spans="1:2" ht="15.8" customHeight="1">
       <c r="A22" s="15">
         <v>191</v>
       </c>
@@ -4991,7 +5006,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1">
+    <row r="23" spans="1:2" ht="15.8" customHeight="1">
       <c r="A23" s="2">
         <v>198</v>
       </c>
@@ -4999,7 +5014,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+    <row r="24" spans="1:2" ht="15.8" customHeight="1">
       <c r="A24" s="2">
         <v>200</v>
       </c>
@@ -5007,7 +5022,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+    <row r="25" spans="1:2" ht="15.8" customHeight="1">
       <c r="A25" s="2">
         <v>202</v>
       </c>
@@ -5015,7 +5030,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+    <row r="26" spans="1:2" ht="15.8" customHeight="1">
       <c r="A26" s="2">
         <v>203</v>
       </c>
@@ -5023,7 +5038,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+    <row r="27" spans="1:2" ht="15.8" customHeight="1">
       <c r="A27" s="2">
         <v>204</v>
       </c>
@@ -5031,7 +5046,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+    <row r="28" spans="1:2" ht="15.8" customHeight="1">
       <c r="A28" s="2">
         <v>205</v>
       </c>
@@ -5039,7 +5054,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+    <row r="29" spans="1:2" ht="15.8" customHeight="1">
       <c r="A29" s="2">
         <v>206</v>
       </c>
@@ -5047,7 +5062,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+    <row r="30" spans="1:2" ht="15.8" customHeight="1">
       <c r="A30" s="2">
         <v>207</v>
       </c>
@@ -5055,7 +5070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+    <row r="31" spans="1:2" ht="15.8" customHeight="1">
       <c r="A31" s="2">
         <v>208</v>
       </c>
@@ -5063,7 +5078,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1">
+    <row r="32" spans="1:2" ht="15.8" customHeight="1">
       <c r="A32" s="15">
         <v>215</v>
       </c>
@@ -5071,7 +5086,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
+    <row r="33" spans="1:2" ht="15.8" customHeight="1">
       <c r="A33" s="2">
         <v>217</v>
       </c>
@@ -5079,7 +5094,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+    <row r="34" spans="1:2" ht="15.8" customHeight="1">
       <c r="A34" s="15">
         <v>218</v>
       </c>
@@ -5087,17 +5102,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
+    <row r="35" spans="1:2" ht="15.8" customHeight="1">
       <c r="A35" s="2">
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1">
+    <row r="36" spans="1:2" ht="15.8" customHeight="1">
       <c r="A36" s="15">
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1">
+    <row r="37" spans="1:2" ht="15.8" customHeight="1">
       <c r="A37" s="2">
         <v>226</v>
       </c>
@@ -5105,7 +5120,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1">
+    <row r="38" spans="1:2" ht="15.8" customHeight="1">
       <c r="A38" s="2">
         <v>227</v>
       </c>
@@ -5113,7 +5128,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1">
+    <row r="39" spans="1:2" ht="15.8" customHeight="1">
       <c r="A39" s="2">
         <v>231</v>
       </c>
@@ -5121,7 +5136,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1">
+    <row r="40" spans="1:2" ht="15.8" customHeight="1">
       <c r="A40" s="2">
         <v>234</v>
       </c>
@@ -5129,7 +5144,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1">
+    <row r="41" spans="1:2" ht="15.8" customHeight="1">
       <c r="A41" s="2">
         <v>235</v>
       </c>
@@ -5137,13 +5152,13 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1">
+    <row r="42" spans="1:2" ht="15.8" customHeight="1">
       <c r="A42" s="15">
         <v>236</v>
       </c>
       <c r="B42" s="16"/>
     </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1">
+    <row r="43" spans="1:2" ht="15.8" customHeight="1">
       <c r="A43" s="2">
         <v>237</v>
       </c>
@@ -5151,7 +5166,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1">
+    <row r="44" spans="1:2" ht="15.8" customHeight="1">
       <c r="A44" s="2">
         <v>238</v>
       </c>
@@ -5159,19 +5174,19 @@
         <v>327</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1">
+    <row r="45" spans="1:2" ht="15.8" customHeight="1">
       <c r="A45" s="15">
         <v>239</v>
       </c>
       <c r="B45" s="22"/>
     </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1">
+    <row r="46" spans="1:2" ht="15.8" customHeight="1">
       <c r="A46" s="15">
         <v>240</v>
       </c>
       <c r="B46" s="22"/>
     </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1">
+    <row r="47" spans="1:2" ht="15.8" customHeight="1">
       <c r="A47" s="2">
         <v>242</v>
       </c>
@@ -5179,7 +5194,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1">
+    <row r="48" spans="1:2" ht="15.8" customHeight="1">
       <c r="A48" s="2">
         <v>253</v>
       </c>
@@ -5187,7 +5202,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1">
+    <row r="49" spans="1:2" ht="15.8" customHeight="1">
       <c r="A49" s="2">
         <v>258</v>
       </c>
@@ -5195,13 +5210,13 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1">
+    <row r="50" spans="1:2" ht="15.8" customHeight="1">
       <c r="A50" s="15">
         <v>260</v>
       </c>
       <c r="B50" s="24"/>
     </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1">
+    <row r="51" spans="1:2" ht="15.8" customHeight="1">
       <c r="A51" s="2">
         <v>263</v>
       </c>
@@ -5209,7 +5224,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1">
+    <row r="52" spans="1:2" ht="15.8" customHeight="1">
       <c r="A52" s="2">
         <v>268</v>
       </c>
@@ -5217,7 +5232,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1">
+    <row r="53" spans="1:2" ht="15.8" customHeight="1">
       <c r="A53" s="25">
         <v>269</v>
       </c>
@@ -5225,12 +5240,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1">
+    <row r="54" spans="1:2" ht="15.8" customHeight="1">
       <c r="A54" s="25">
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1">
+    <row r="55" spans="1:2" ht="15.8" customHeight="1">
       <c r="A55" s="2">
         <v>273</v>
       </c>
@@ -5238,7 +5253,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1">
+    <row r="56" spans="1:2" ht="15.8" customHeight="1">
       <c r="A56" s="2">
         <v>279</v>
       </c>
@@ -5246,7 +5261,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1">
+    <row r="57" spans="1:2" ht="15.8" customHeight="1">
       <c r="A57" s="17">
         <v>280</v>
       </c>
@@ -5254,7 +5269,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1">
+    <row r="58" spans="1:2" ht="15.8" customHeight="1">
       <c r="A58" s="17">
         <v>283</v>
       </c>
@@ -5262,23 +5277,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1">
+    <row r="59" spans="1:2" ht="15.8" customHeight="1">
       <c r="A59" s="17">
         <v>287</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.8" customHeight="1">
       <c r="A60" s="17">
         <v>289</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.8" customHeight="1">
       <c r="A61" s="17">
         <v>292</v>
       </c>
@@ -5286,27 +5301,27 @@
         <v>308</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1">
+    <row r="62" spans="1:2" ht="15.8" customHeight="1">
       <c r="A62" s="15">
         <v>295</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" ht="15.75" customHeight="1">
+    <row r="63" spans="1:2" ht="15.8" customHeight="1">
       <c r="A63" s="15">
         <v>297</v>
       </c>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" ht="15.75" customHeight="1">
+    <row r="64" spans="1:2" ht="15.8" customHeight="1">
       <c r="A64" s="17">
         <v>300</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.8" customHeight="1">
       <c r="A65" s="15">
         <v>301</v>
       </c>
@@ -5314,7 +5329,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1">
+    <row r="66" spans="1:4" ht="15.8" customHeight="1">
       <c r="A66" s="17">
         <v>303</v>
       </c>
@@ -5322,7 +5337,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1">
+    <row r="67" spans="1:4" ht="15.8" customHeight="1">
       <c r="A67" s="27">
         <v>307</v>
       </c>
@@ -5330,22 +5345,22 @@
         <v>260</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.8" customHeight="1">
       <c r="A68" s="15">
         <v>312</v>
       </c>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1">
+    <row r="69" spans="1:4" ht="15.8" customHeight="1">
       <c r="A69" s="15">
         <v>319</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1">
+    <row r="70" spans="1:4" ht="15.8" customHeight="1">
       <c r="A70" s="17">
         <v>322</v>
       </c>
@@ -5353,7 +5368,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1">
+    <row r="71" spans="1:4" ht="15.8" customHeight="1">
       <c r="A71" s="17">
         <v>326</v>
       </c>
@@ -5361,15 +5376,15 @@
         <v>262</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1">
+    <row r="72" spans="1:4" ht="15.8" customHeight="1">
       <c r="A72" s="17">
         <v>328</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.8" customHeight="1">
       <c r="A73" s="15">
         <v>336</v>
       </c>
@@ -5377,13 +5392,13 @@
         <v>264</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1">
+    <row r="74" spans="1:4" ht="15.8" customHeight="1">
       <c r="A74" s="15">
         <v>341</v>
       </c>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1">
+    <row r="75" spans="1:4" ht="15.8" customHeight="1">
       <c r="A75" s="17">
         <v>344</v>
       </c>
@@ -5391,29 +5406,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1">
+    <row r="76" spans="1:4" ht="15.8" customHeight="1">
       <c r="A76" s="17">
         <v>345</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.8" customHeight="1">
       <c r="A77" s="17">
         <v>347</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.8" customHeight="1">
       <c r="A78" s="15">
         <v>348</v>
       </c>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1">
+    <row r="79" spans="1:4" ht="15.8" customHeight="1">
       <c r="A79" s="17">
         <v>349</v>
       </c>
@@ -5421,31 +5436,31 @@
         <v>265</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1">
+    <row r="80" spans="1:4" ht="15.8" customHeight="1">
       <c r="A80" s="15">
         <v>364</v>
       </c>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" ht="15.75" customHeight="1">
+    <row r="81" spans="1:2" ht="15.8" customHeight="1">
       <c r="A81" s="15">
         <v>371</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" customHeight="1">
+    <row r="82" spans="1:2" ht="15.8" customHeight="1">
       <c r="A82" s="17">
         <v>374</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.75" customHeight="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.8" customHeight="1">
       <c r="A83" s="15">
         <v>380</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" customHeight="1">
+    <row r="84" spans="1:2" ht="15.8" customHeight="1">
       <c r="A84" s="17">
         <v>383</v>
       </c>
@@ -5453,13 +5468,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75" customHeight="1">
+    <row r="85" spans="1:2" ht="15.8" customHeight="1">
       <c r="A85" s="15">
         <v>384</v>
       </c>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" ht="15.75" customHeight="1">
+    <row r="86" spans="1:2" ht="15.8" customHeight="1">
       <c r="A86" s="17">
         <v>387</v>
       </c>
@@ -5467,19 +5482,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75" customHeight="1">
+    <row r="87" spans="1:2" ht="15.8" customHeight="1">
       <c r="A87" s="15">
         <v>402</v>
       </c>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" ht="15.75" customHeight="1">
+    <row r="88" spans="1:2" ht="15.8" customHeight="1">
       <c r="A88" s="15">
         <v>403</v>
       </c>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" ht="15.75" customHeight="1">
+    <row r="89" spans="1:2" ht="15.8" customHeight="1">
       <c r="A89" s="15">
         <v>406</v>
       </c>
@@ -5487,7 +5502,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.75" customHeight="1">
+    <row r="90" spans="1:2" ht="15.8" customHeight="1">
       <c r="A90" s="17">
         <v>412</v>
       </c>
@@ -5495,7 +5510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" customHeight="1">
+    <row r="91" spans="1:2" ht="15.8" customHeight="1">
       <c r="A91" s="15">
         <v>438</v>
       </c>
@@ -5503,7 +5518,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.75" customHeight="1">
+    <row r="92" spans="1:2" ht="15.8" customHeight="1">
       <c r="A92" s="17">
         <v>442</v>
       </c>
@@ -5511,15 +5526,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.75" customHeight="1">
+    <row r="93" spans="1:2" ht="15.8" customHeight="1">
       <c r="A93" s="15">
         <v>445</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15.75" customHeight="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.8" customHeight="1">
       <c r="A94" s="17">
         <v>448</v>
       </c>
@@ -5527,7 +5542,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.75" customHeight="1">
+    <row r="95" spans="1:2" ht="15.8" customHeight="1">
       <c r="A95" s="17">
         <v>453</v>
       </c>
@@ -5535,13 +5550,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.75" customHeight="1">
+    <row r="96" spans="1:2" ht="15.8" customHeight="1">
       <c r="A96" s="15">
         <v>457</v>
       </c>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" ht="15.75" customHeight="1">
+    <row r="97" spans="1:3" ht="15.8" customHeight="1">
       <c r="A97" s="15">
         <v>458</v>
       </c>
@@ -5549,7 +5564,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75" customHeight="1">
+    <row r="98" spans="1:3" ht="15.8" customHeight="1">
       <c r="A98" s="15">
         <v>461</v>
       </c>
@@ -5557,7 +5572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.75" customHeight="1">
+    <row r="99" spans="1:3" ht="15.8" customHeight="1">
       <c r="A99" s="17">
         <v>463</v>
       </c>
@@ -5565,23 +5580,29 @@
         <v>272</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A100" s="15">
+    <row r="100" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A100" s="17">
         <v>470</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C100" s="16" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.8" customHeight="1">
       <c r="A101" s="15">
         <v>476</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C101" s="16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.8" customHeight="1">
       <c r="A102" s="15">
         <v>479</v>
       </c>
@@ -5589,37 +5610,46 @@
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A103" s="15">
+    <row r="103" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A103" s="17">
         <v>500</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" ht="15.8" customHeight="1">
       <c r="A104" s="15">
         <v>518</v>
       </c>
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A105" s="15">
+      <c r="B104" s="17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A105" s="17">
         <v>535</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A106" s="15">
+      <c r="C105" s="16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A106" s="17">
         <v>540</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C106" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.8" customHeight="1">
       <c r="A107" s="15">
         <v>543</v>
       </c>
@@ -5627,19 +5657,19 @@
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.75" customHeight="1">
+    <row r="108" spans="1:3" ht="15.8" customHeight="1">
       <c r="A108" s="15">
         <v>547</v>
       </c>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" ht="15.75" customHeight="1">
+    <row r="109" spans="1:3" ht="15.8" customHeight="1">
       <c r="A109" s="15">
         <v>556</v>
       </c>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" ht="15.75" customHeight="1">
+    <row r="110" spans="1:3" ht="15.8" customHeight="1">
       <c r="A110" s="15">
         <v>557</v>
       </c>
@@ -5647,7 +5677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.75" customHeight="1">
+    <row r="111" spans="1:3" ht="15.8" customHeight="1">
       <c r="A111" s="15">
         <v>561</v>
       </c>
@@ -5655,20 +5685,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15.75" customHeight="1">
+    <row r="112" spans="1:3" ht="15.8" customHeight="1">
       <c r="A112" s="15">
         <v>564</v>
       </c>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1">
+    <row r="113" spans="1:3" ht="15.8" customHeight="1">
       <c r="A113" s="15">
         <v>609</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="15"/>
     </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1">
+    <row r="114" spans="1:3" ht="15.8" customHeight="1">
       <c r="A114" s="15">
         <v>617</v>
       </c>
@@ -5676,13 +5706,13 @@
         <v>281</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1">
+    <row r="115" spans="1:3" ht="15.8" customHeight="1">
       <c r="A115" s="15">
         <v>621</v>
       </c>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1">
+    <row r="116" spans="1:3" ht="15.8" customHeight="1">
       <c r="A116" s="15">
         <v>628</v>
       </c>
@@ -5690,233 +5720,293 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1">
+    <row r="117" spans="1:3" ht="15.8" customHeight="1">
       <c r="A117" s="15">
         <v>636</v>
       </c>
       <c r="B117" s="2"/>
-      <c r="C117" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1">
+      <c r="C117" s="15"/>
+    </row>
+    <row r="118" spans="1:3" ht="15.8" customHeight="1">
       <c r="A118" s="15">
+        <v>642</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="15"/>
+    </row>
+    <row r="119" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A119" s="15">
+        <v>647</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="15"/>
+    </row>
+    <row r="120" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A120" s="15">
         <v>654</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A119" s="15">
+    <row r="121" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A121" s="15">
         <v>657</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A120" s="15">
+      <c r="B121" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A122" s="15">
         <v>669</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A121" s="15">
+    <row r="123" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A123" s="15">
         <v>681</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B123" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A122" s="15">
+    <row r="124" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A124" s="15">
         <v>683</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B124" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A123" s="15">
+    <row r="125" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A125" s="15">
         <v>695</v>
       </c>
-      <c r="B123" s="13" t="s">
+      <c r="B125" s="13" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A124" s="15">
+    <row r="126" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A126" s="15">
         <v>697</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A125" s="15">
+      <c r="B126" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A127" s="15">
+        <v>716</v>
+      </c>
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A128" s="15">
+        <v>717</v>
+      </c>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A129" s="15">
+        <v>722</v>
+      </c>
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A130" s="15">
         <v>728</v>
       </c>
-      <c r="B125" s="13" t="s">
+      <c r="B130" s="13" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A126" s="15">
+    <row r="131" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A131" s="15">
+        <v>739</v>
+      </c>
+      <c r="B131" s="13"/>
+    </row>
+    <row r="132" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A132" s="15">
+        <v>740</v>
+      </c>
+      <c r="B132" s="13"/>
+    </row>
+    <row r="133" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A133" s="15">
         <v>760</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A127" s="15">
+      <c r="B133" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A134" s="15">
         <v>771</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A128" s="15">
+      <c r="B134" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A135" s="15">
+        <v>772</v>
+      </c>
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A136" s="15">
+        <v>798</v>
+      </c>
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A137" s="15">
         <v>804</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B137" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A129" s="15">
+    <row r="138" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A138" s="15">
         <v>807</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B138" s="12" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A130" s="15">
+    <row r="139" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A139" s="15">
         <v>819</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B139" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A131" s="15">
+    <row r="140" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A140" s="15">
         <v>844</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A132" s="15">
+    <row r="141" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A141" s="15">
         <v>867</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A133" s="15">
+      <c r="B141" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A142" s="15">
         <v>872</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A134" s="15">
+      <c r="B142" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A143" s="15">
         <v>876</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A135" s="15">
+      <c r="B143" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A144" s="15">
         <v>877</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A136" s="15">
+    <row r="145" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A145" s="15">
+        <v>878</v>
+      </c>
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A146" s="15">
         <v>925</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A137" s="15">
+    <row r="147" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A147" s="15">
         <v>905</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A138" s="15">
+      <c r="B147" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A148" s="15">
         <v>908</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A139" s="15">
+      <c r="B148" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A149" s="15">
         <v>922</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A140" s="15">
+      <c r="B149" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A150" s="15">
         <v>925</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A141" s="15">
+    <row r="151" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A151" s="15">
         <v>926</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A142" s="15">
+    <row r="152" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A152" s="15">
         <v>929</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A143" s="15">
+      <c r="B152" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A153" s="15">
         <v>930</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A144" s="15">
+    <row r="154" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A154" s="15">
         <v>931</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B145" s="14"/>
+      <c r="B154" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.8" customHeight="1">
+      <c r="B155" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5925,7 +6015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5933,9 +6023,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.8" customHeight="1">
       <c r="A1" s="2">
         <v>136</v>
       </c>

--- a/lcdaily.xlsx
+++ b/lcdaily.xlsx
@@ -12,13 +12,14 @@
     <sheet name="非高频思考" sheetId="3" r:id="rId3"/>
     <sheet name="150以后高频思考" sheetId="4" r:id="rId4"/>
     <sheet name="bit" sheetId="6" r:id="rId5"/>
+    <sheet name="综合性易错点" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="361">
   <si>
     <t>目前的目标是过整理的笔记，以及所有题目的算法，不求写程序了，写程序的熟练度已经差不多了。要bug free很难，下面就是力争把900题的hard算法全部能搞定</t>
   </si>
@@ -1068,9 +1069,6 @@
     <t>用bisect dp才可以nlogn</t>
   </si>
   <si>
-    <t>20min</t>
-  </si>
-  <si>
     <t>segment tree.  一定要会</t>
   </si>
   <si>
@@ -1104,6 +1102,42 @@
     <t xml:space="preserve">两个易错点，第一个是，不能简单盘低mid==mid-1 or mid==mid+1. 必须要结合mid=mid-1 and mid-left%2==0 这样看
 第二个易错点，移动的时候，如果往右移动，而mid==mid+1， 那么要移动两个。否则的话长度计算就不对了
 </t>
+  </si>
+  <si>
+    <t>1.sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use python2 </t>
+  </si>
+  <si>
+    <t>nums=sorted(nums,key=lambda x:x[0])</t>
+  </si>
+  <si>
+    <t>正常情况下，def可以接触到定义在def之前的variable。 但是如果是class method里面在定义的def，那么这个def不能接触class method里面的localvariable，需要用self。Var</t>
+  </si>
+  <si>
+    <t>应该没啥问题吧</t>
+  </si>
+  <si>
+    <t>算法很简单</t>
+  </si>
+  <si>
+    <t>supder easy</t>
+  </si>
+  <si>
+    <t>算法应该不难</t>
+  </si>
+  <si>
+    <t>算法不难，但是想错了一点点</t>
+  </si>
+  <si>
+    <t>supder easy, bug free</t>
+  </si>
+  <si>
+    <t>算法简单，实现略复杂</t>
+  </si>
+  <si>
+    <t>easy, bug free</t>
   </si>
 </sst>
 </file>
@@ -4498,10 +4532,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
@@ -4599,7 +4633,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>338</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.8" customHeight="1">
@@ -4609,6 +4643,9 @@
       <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
+      <c r="D11" s="16" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.8" customHeight="1">
       <c r="A12" s="29">
@@ -4617,12 +4654,37 @@
       <c r="B12" s="16" t="s">
         <v>8</v>
       </c>
+      <c r="D12" s="16" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.8" customHeight="1">
       <c r="A13" s="30">
         <v>43425</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A14" s="30">
+        <v>43426</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A15" s="30">
+        <v>43427</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4639,7 +4701,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
@@ -4828,10 +4890,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
@@ -4883,140 +4945,138 @@
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A7" s="2">
-        <v>160</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>216</v>
-      </c>
+      <c r="A7" s="15">
+        <v>159</v>
+      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" ht="15.8" customHeight="1">
       <c r="A8" s="2">
+        <v>160</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A9" s="2">
         <v>162</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A9" s="15">
+    <row r="10" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A10" s="15">
         <v>164</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A10" s="2">
-        <v>165</v>
-      </c>
-      <c r="B10" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.8" customHeight="1">
       <c r="A11" s="2">
-        <v>167</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>308</v>
+        <v>165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.8" customHeight="1">
       <c r="A12" s="2">
-        <v>168</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>313</v>
+        <v>167</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.8" customHeight="1">
       <c r="A13" s="2">
-        <v>169</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>222</v>
+        <v>168</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.8" customHeight="1">
       <c r="A14" s="2">
-        <v>171</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>308</v>
+        <v>169</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.8" customHeight="1">
       <c r="A15" s="2">
-        <v>172</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>314</v>
+        <v>171</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.8" customHeight="1">
       <c r="A16" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.8" customHeight="1">
       <c r="A17" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.8" customHeight="1">
       <c r="A18" s="2">
+        <v>179</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A19" s="2">
         <v>187</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B19" s="19" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A19" s="15">
+    <row r="20" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A20" s="15">
         <v>188</v>
       </c>
-      <c r="B19" s="19"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A20" s="2">
+      <c r="B20" s="19"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A21" s="2">
         <v>189</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B21" s="20" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A21" s="15">
-        <v>190</v>
-      </c>
-      <c r="B21" s="19"/>
     </row>
     <row r="22" spans="1:2" ht="15.8" customHeight="1">
       <c r="A22" s="15">
+        <v>190</v>
+      </c>
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A23" s="15">
         <v>191</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A23" s="2">
-        <v>198</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.8" customHeight="1">
       <c r="A24" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>308</v>
@@ -5024,527 +5084,523 @@
     </row>
     <row r="25" spans="1:2" ht="15.8" customHeight="1">
       <c r="A25" s="2">
-        <v>202</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>228</v>
+        <v>200</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.8" customHeight="1">
       <c r="A26" s="2">
-        <v>203</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>319</v>
+        <v>202</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.8" customHeight="1">
       <c r="A27" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.8" customHeight="1">
       <c r="A28" s="2">
-        <v>205</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>321</v>
+        <v>204</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.8" customHeight="1">
       <c r="A29" s="2">
-        <v>206</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>308</v>
+        <v>205</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.8" customHeight="1">
       <c r="A30" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>29</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.8" customHeight="1">
       <c r="A31" s="2">
+        <v>207</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A32" s="2">
         <v>208</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B32" s="16" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A32" s="15">
+    <row r="33" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A33" s="15">
         <v>215</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A33" s="2">
+    <row r="34" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A34" s="2">
         <v>217</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B34" s="16" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A34" s="15">
+    <row r="35" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A35" s="15">
         <v>218</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A35" s="2">
+    <row r="36" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A36" s="2">
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A36" s="15">
+    <row r="37" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A37" s="15">
         <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A37" s="2">
-        <v>226</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.8" customHeight="1">
       <c r="A38" s="2">
-        <v>227</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>326</v>
+        <v>226</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.8" customHeight="1">
       <c r="A39" s="2">
-        <v>231</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.8" customHeight="1">
       <c r="A40" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.8" customHeight="1">
       <c r="A41" s="2">
+        <v>234</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A42" s="2">
         <v>235</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B42" s="16" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A42" s="15">
+    <row r="43" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A43" s="15">
         <v>236</v>
       </c>
-      <c r="B42" s="16"/>
-    </row>
-    <row r="43" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A43" s="2">
-        <v>237</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>308</v>
-      </c>
+      <c r="B43" s="16"/>
     </row>
     <row r="44" spans="1:2" ht="15.8" customHeight="1">
       <c r="A44" s="2">
+        <v>237</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A45" s="2">
         <v>238</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B45" s="22" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A45" s="15">
-        <v>239</v>
-      </c>
-      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:2" ht="15.8" customHeight="1">
       <c r="A46" s="15">
+        <v>239</v>
+      </c>
+      <c r="B46" s="22"/>
+    </row>
+    <row r="47" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A47" s="15">
         <v>240</v>
       </c>
-      <c r="B46" s="22"/>
-    </row>
-    <row r="47" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A47" s="2">
-        <v>242</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>328</v>
-      </c>
+      <c r="B47" s="22"/>
     </row>
     <row r="48" spans="1:2" ht="15.8" customHeight="1">
       <c r="A48" s="2">
-        <v>253</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.8" customHeight="1">
       <c r="A49" s="2">
+        <v>253</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A50" s="2">
         <v>258</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B50" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A50" s="15">
+    <row r="51" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A51" s="15">
         <v>260</v>
       </c>
-      <c r="B50" s="24"/>
-    </row>
-    <row r="51" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A51" s="2">
-        <v>263</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>330</v>
-      </c>
+      <c r="B51" s="24"/>
     </row>
     <row r="52" spans="1:2" ht="15.8" customHeight="1">
       <c r="A52" s="2">
+        <v>263</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A53" s="2">
         <v>268</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B53" s="16" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A53" s="25">
-        <v>269</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.8" customHeight="1">
       <c r="A54" s="25">
+        <v>269</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A55" s="25">
         <v>272</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A55" s="2">
-        <v>273</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.8" customHeight="1">
       <c r="A56" s="2">
+        <v>273</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A57" s="2">
         <v>279</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B57" s="16" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A57" s="17">
-        <v>280</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.8" customHeight="1">
       <c r="A58" s="17">
-        <v>283</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>4</v>
+        <v>280</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.8" customHeight="1">
       <c r="A59" s="17">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>335</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.8" customHeight="1">
       <c r="A60" s="17">
-        <v>289</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>336</v>
+        <v>287</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.8" customHeight="1">
       <c r="A61" s="17">
+        <v>289</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A62" s="17">
         <v>292</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B62" s="17" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A62" s="15">
-        <v>295</v>
-      </c>
-      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="1:2" ht="15.8" customHeight="1">
       <c r="A63" s="15">
+        <v>295</v>
+      </c>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A64" s="15">
         <v>297</v>
       </c>
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A64" s="17">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A65" s="17">
         <v>300</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B65" s="17" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.8" customHeight="1">
-      <c r="A65" s="15">
+    <row r="66" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A66" s="15">
         <v>301</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.8" customHeight="1">
-      <c r="A66" s="17">
+    <row r="67" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A67" s="17">
         <v>303</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.8" customHeight="1">
-      <c r="A67" s="27">
+    <row r="68" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A68" s="27">
         <v>307</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D67" s="16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.8" customHeight="1">
-      <c r="A68" s="15">
-        <v>312</v>
-      </c>
-      <c r="B68" s="2"/>
+      <c r="D68" s="16" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="15.8" customHeight="1">
       <c r="A69" s="15">
+        <v>312</v>
+      </c>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A70" s="15">
         <v>319</v>
       </c>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" ht="15.8" customHeight="1">
-      <c r="A70" s="17">
-        <v>322</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>261</v>
-      </c>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:4" ht="15.8" customHeight="1">
       <c r="A71" s="17">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.8" customHeight="1">
       <c r="A72" s="17">
+        <v>326</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A73" s="17">
         <v>328</v>
       </c>
-      <c r="B72" s="17" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.8" customHeight="1">
-      <c r="A73" s="15">
-        <v>336</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>264</v>
+      <c r="B73" s="17" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.8" customHeight="1">
       <c r="A74" s="15">
+        <v>336</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A75" s="15">
         <v>341</v>
       </c>
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" ht="15.8" customHeight="1">
-      <c r="A75" s="17">
-        <v>344</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:4" ht="15.8" customHeight="1">
       <c r="A76" s="17">
-        <v>345</v>
-      </c>
-      <c r="B76" s="28" t="s">
-        <v>341</v>
+        <v>344</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.8" customHeight="1">
       <c r="A77" s="17">
+        <v>345</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A78" s="17">
         <v>347</v>
       </c>
-      <c r="B77" s="17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.8" customHeight="1">
-      <c r="A78" s="15">
+      <c r="B78" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A79" s="15">
         <v>348</v>
       </c>
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" ht="15.8" customHeight="1">
-      <c r="A79" s="17">
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A80" s="17">
         <v>349</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.8" customHeight="1">
-      <c r="A80" s="15">
-        <v>364</v>
-      </c>
-      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:2" ht="15.8" customHeight="1">
       <c r="A81" s="15">
+        <v>364</v>
+      </c>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A82" s="15">
         <v>371</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A82" s="17">
+    <row r="83" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A83" s="17">
         <v>374</v>
       </c>
-      <c r="B82" s="16" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A83" s="15">
+      <c r="B83" s="16" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A84" s="15">
         <v>380</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A84" s="17">
+    <row r="85" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A85" s="17">
         <v>383</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A85" s="15">
+      <c r="B85" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A86" s="15">
         <v>384</v>
       </c>
-      <c r="B85" s="2"/>
-    </row>
-    <row r="86" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A86" s="17">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A87" s="17">
         <v>387</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A87" s="15">
-        <v>402</v>
-      </c>
-      <c r="B87" s="2"/>
+      <c r="B87" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="88" spans="1:2" ht="15.8" customHeight="1">
       <c r="A88" s="15">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2" ht="15.8" customHeight="1">
       <c r="A89" s="15">
-        <v>406</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A90" s="17">
-        <v>412</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A90" s="15">
+        <v>402</v>
+      </c>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2" ht="15.8" customHeight="1">
       <c r="A91" s="15">
+        <v>403</v>
+      </c>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A92" s="15">
+        <v>406</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A93" s="17">
+        <v>412</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.8" customHeight="1">
+      <c r="A94" s="15">
         <v>438</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A92" s="17">
-        <v>442</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A93" s="15">
-        <v>445</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A94" s="17">
-        <v>448</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.8" customHeight="1">
       <c r="A95" s="17">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>4</v>
@@ -5552,206 +5608,217 @@
     </row>
     <row r="96" spans="1:2" ht="15.8" customHeight="1">
       <c r="A96" s="15">
+        <v>445</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A97" s="17">
+        <v>448</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A98" s="17">
+        <v>453</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A99" s="15">
         <v>457</v>
       </c>
-      <c r="B96" s="2"/>
-    </row>
-    <row r="97" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A97" s="15">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A100" s="15">
         <v>458</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A98" s="15">
-        <v>461</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A99" s="17">
-        <v>463</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A100" s="17">
-        <v>470</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.8" customHeight="1">
       <c r="A101" s="15">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>346</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A102" s="15">
-        <v>479</v>
+      <c r="A102" s="17">
+        <v>463</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.8" customHeight="1">
       <c r="A103" s="17">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="104" spans="1:3" ht="15.8" customHeight="1">
       <c r="A104" s="15">
-        <v>518</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>347</v>
+        <v>476</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A105" s="17">
-        <v>535</v>
+      <c r="A105" s="15">
+        <v>479</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>348</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A106" s="17">
-        <v>540</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>349</v>
-      </c>
+      <c r="A106" s="15">
+        <v>482</v>
+      </c>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A107" s="15">
-        <v>543</v>
+      <c r="A107" s="17">
+        <v>500</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>280</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:3" ht="15.8" customHeight="1">
       <c r="A108" s="15">
-        <v>547</v>
-      </c>
-      <c r="B108" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="109" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A109" s="15">
-        <v>556</v>
-      </c>
-      <c r="B109" s="2"/>
+      <c r="A109" s="17">
+        <v>535</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="110" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A110" s="15">
-        <v>557</v>
+      <c r="A110" s="17">
+        <v>540</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>4</v>
+        <v>113</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A111" s="15">
-        <v>561</v>
+      <c r="A111" s="17">
+        <v>543</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>4</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.8" customHeight="1">
       <c r="A112" s="15">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="B112" s="2"/>
     </row>
     <row r="113" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A113" s="15">
-        <v>609</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" s="15"/>
+      <c r="A113" s="17">
+        <v>556</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="114" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A114" s="15">
-        <v>617</v>
+      <c r="A114" s="17">
+        <v>557</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>281</v>
+        <v>4</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A115" s="15">
-        <v>621</v>
+      <c r="A115" s="17">
+        <v>560</v>
       </c>
       <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A116" s="15">
-        <v>628</v>
+      <c r="A116" s="17">
+        <v>561</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.8" customHeight="1">
       <c r="A117" s="15">
-        <v>636</v>
+        <v>564</v>
       </c>
       <c r="B117" s="2"/>
-      <c r="C117" s="15"/>
     </row>
     <row r="118" spans="1:3" ht="15.8" customHeight="1">
       <c r="A118" s="15">
-        <v>642</v>
+        <v>609</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="15"/>
     </row>
     <row r="119" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A119" s="15">
-        <v>647</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="15"/>
+      <c r="A119" s="17">
+        <v>617</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="120" spans="1:3" ht="15.8" customHeight="1">
       <c r="A120" s="15">
-        <v>654</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>282</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A121" s="15">
-        <v>657</v>
+      <c r="A121" s="17">
+        <v>628</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>4</v>
@@ -5759,254 +5826,323 @@
     </row>
     <row r="122" spans="1:3" ht="15.8" customHeight="1">
       <c r="A122" s="15">
-        <v>669</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>283</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="15"/>
     </row>
     <row r="123" spans="1:3" ht="15.8" customHeight="1">
       <c r="A123" s="15">
-        <v>681</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>284</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="15"/>
     </row>
     <row r="124" spans="1:3" ht="15.8" customHeight="1">
       <c r="A124" s="15">
-        <v>683</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>286</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="15"/>
     </row>
     <row r="125" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A125" s="15">
-        <v>695</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>287</v>
+      <c r="A125" s="17">
+        <v>654</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A126" s="15">
-        <v>697</v>
+      <c r="A126" s="17">
+        <v>657</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C126" s="16" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="127" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A127" s="15">
-        <v>716</v>
-      </c>
-      <c r="B127" s="2"/>
+      <c r="A127" s="17">
+        <v>669</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="128" spans="1:3" ht="15.8" customHeight="1">
       <c r="A128" s="15">
+        <v>681</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A129" s="15">
+        <v>683</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A130" s="17">
+        <v>695</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A131" s="17">
+        <v>697</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A132" s="17">
+        <v>716</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A133" s="17">
         <v>717</v>
       </c>
-      <c r="B128" s="2"/>
-    </row>
-    <row r="129" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A129" s="15">
+      <c r="B133" s="17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A134" s="15">
         <v>722</v>
       </c>
-      <c r="B129" s="2"/>
-    </row>
-    <row r="130" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A130" s="15">
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A135" s="17">
         <v>728</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B135" s="13" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A131" s="15">
+      <c r="C135" s="17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A136" s="15">
         <v>739</v>
       </c>
-      <c r="B131" s="13"/>
-    </row>
-    <row r="132" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A132" s="15">
+      <c r="B136" s="13"/>
+    </row>
+    <row r="137" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A137" s="15">
         <v>740</v>
       </c>
-      <c r="B132" s="13"/>
-    </row>
-    <row r="133" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A133" s="15">
+      <c r="B137" s="13"/>
+    </row>
+    <row r="138" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A138" s="17">
         <v>760</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A134" s="15">
+      <c r="B138" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A139" s="17">
         <v>771</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A135" s="15">
+      <c r="B139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A140" s="15">
         <v>772</v>
       </c>
-      <c r="B135" s="2"/>
-    </row>
-    <row r="136" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A136" s="15">
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A141" s="15">
         <v>798</v>
       </c>
-      <c r="B136" s="2"/>
-    </row>
-    <row r="137" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A137" s="15">
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A142" s="15">
         <v>804</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A138" s="15">
+    <row r="143" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A143" s="15">
         <v>807</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B143" s="12" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A139" s="15">
+    <row r="144" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A144" s="15">
         <v>819</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A140" s="15">
+    <row r="145" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A145" s="15">
         <v>844</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B145" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A141" s="15">
+    <row r="146" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A146" s="15">
         <v>867</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A142" s="15">
+      <c r="B146" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A147" s="15">
         <v>872</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A143" s="15">
+      <c r="B147" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A148" s="15">
         <v>876</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A144" s="15">
+      <c r="B148" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A149" s="15">
         <v>877</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B149" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A145" s="15">
+    <row r="150" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A150" s="15">
         <v>878</v>
       </c>
-      <c r="B145" s="2"/>
-    </row>
-    <row r="146" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A146" s="15">
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A151" s="15">
+        <v>904</v>
+      </c>
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A152" s="15">
+        <v>905</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A153" s="15">
+        <v>908</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A154" s="17">
+        <v>922</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A155" s="15">
         <v>925</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A147" s="15">
-        <v>905</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A148" s="15">
-        <v>908</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A149" s="15">
-        <v>922</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A150" s="15">
-        <v>925</v>
-      </c>
-      <c r="B150" s="2" t="s">
+      <c r="B155" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A151" s="15">
+    <row r="156" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A156" s="15">
         <v>926</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B156" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A152" s="15">
+    <row r="157" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A157" s="17">
         <v>929</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A153" s="15">
+      <c r="B157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A158" s="15">
         <v>930</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A154" s="15">
+    <row r="159" spans="1:3" ht="15.8" customHeight="1">
+      <c r="A159" s="17">
         <v>931</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="15.8" customHeight="1">
-      <c r="B155" s="14"/>
+      <c r="B159" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15.8" customHeight="1">
+      <c r="B160" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6036,4 +6172,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lcdaily.xlsx
+++ b/lcdaily.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9007" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9007" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="362">
   <si>
     <t>目前的目标是过整理的笔记，以及所有题目的算法，不求写程序了，写程序的熟练度已经差不多了。要bug free很难，下面就是力争把900题的hard算法全部能搞定</t>
   </si>
@@ -1138,6 +1138,9 @@
   </si>
   <si>
     <t>easy, bug free</t>
+  </si>
+  <si>
+    <t>27min</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1651,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4532,10 +4535,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
@@ -4686,6 +4689,17 @@
       </c>
       <c r="B15" s="16" t="s">
         <v>8</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A16" s="30">
+        <v>43428</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -4892,8 +4906,8 @@
   </sheetPr>
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>

--- a/lcdaily.xlsx
+++ b/lcdaily.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="374">
   <si>
     <t>目前的目标是过整理的笔记，以及所有题目的算法，不求写程序了，写程序的熟练度已经差不多了。要bug free很难，下面就是力争把900题的hard算法全部能搞定</t>
   </si>
@@ -1131,16 +1131,63 @@
     <t>算法不难，但是想错了一点点</t>
   </si>
   <si>
-    <t>supder easy, bug free</t>
-  </si>
-  <si>
     <t>算法简单，实现略复杂</t>
   </si>
   <si>
     <t>easy, bug free</t>
   </si>
   <si>
-    <t>27min</t>
+    <t>very easy</t>
+  </si>
+  <si>
+    <t>super easy, bug free</t>
+  </si>
+  <si>
+    <t>bug free, super easy</t>
+  </si>
+  <si>
+    <t>看错题了</t>
+  </si>
+  <si>
+    <t>bitwise operation</t>
+  </si>
+  <si>
+    <t>op = 0
+for _ in range(32):
+     op = op&lt;&lt;1 | n&amp;1
+     n &gt;&gt;= 1</t>
+  </si>
+  <si>
+    <t>bitwise operation需要再写一遍</t>
+  </si>
+  <si>
+    <t>算法清楚了</t>
+  </si>
+  <si>
+    <t>1. 考虑[[]]第一个元素是空list的情况
+2. 第二是考虑第一个元素是三层空list 情况
+3. 从前面pop是pop（0）
+4. 代码不能重复</t>
+  </si>
+  <si>
+    <t>counter and strip usage</t>
+  </si>
+  <si>
+    <t>count = collections.Counter(
+            word.strip("!?',;.") for word in paragraph.lower().split())</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i = 1
+        while num &gt;= i:
+            num ^= i
+            i &lt;&lt;= 1
+        return num</t>
+  </si>
+  <si>
+    <t>number complement</t>
+  </si>
+  <si>
+    <t>26min</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1345,6 +1392,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4535,10 +4585,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
@@ -4698,8 +4748,78 @@
       <c r="A16" s="30">
         <v>43428</v>
       </c>
+      <c r="B16" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="D16" s="16" t="s">
-        <v>361</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A17" s="30">
+        <v>43429</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A18" s="30">
+        <v>43430</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A19" s="30">
+        <v>43431</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A20" s="30">
+        <v>43432</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A21" s="30">
+        <v>43433</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A22" s="30">
+        <v>43434</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A23" s="30">
+        <v>43435</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A24" s="30">
+        <v>43436</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4906,8 +5026,8 @@
   </sheetPr>
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
@@ -5075,13 +5195,15 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A22" s="15">
+      <c r="A22" s="17">
         <v>190</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="19" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A23" s="15">
+      <c r="A23" s="17">
         <v>191</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -5437,10 +5559,12 @@
       <c r="B69" s="2"/>
     </row>
     <row r="70" spans="1:4" ht="15.8" customHeight="1">
-      <c r="A70" s="15">
+      <c r="A70" s="17">
         <v>319</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" s="17" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="15.8" customHeight="1">
       <c r="A71" s="17">
@@ -5475,10 +5599,12 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.8" customHeight="1">
-      <c r="A75" s="15">
+      <c r="A75" s="17">
         <v>341</v>
       </c>
-      <c r="B75" s="2"/>
+      <c r="B75" s="31" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="15.8" customHeight="1">
       <c r="A76" s="17">
@@ -5605,7 +5731,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A94" s="15">
+      <c r="A94" s="17">
         <v>438</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -5621,14 +5747,14 @@
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A96" s="15">
+      <c r="A96" s="17">
         <v>445</v>
       </c>
       <c r="B96" s="17" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.8" customHeight="1">
+    <row r="97" spans="1:4" ht="15.8" customHeight="1">
       <c r="A97" s="17">
         <v>448</v>
       </c>
@@ -5636,7 +5762,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.8" customHeight="1">
+    <row r="98" spans="1:4" ht="15.8" customHeight="1">
       <c r="A98" s="17">
         <v>453</v>
       </c>
@@ -5644,29 +5770,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.8" customHeight="1">
+    <row r="99" spans="1:4" ht="15.8" customHeight="1">
       <c r="A99" s="15">
         <v>457</v>
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A100" s="15">
+    <row r="100" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A100" s="17">
         <v>458</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A101" s="15">
+    <row r="101" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A101" s="17">
         <v>461</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.8" customHeight="1">
+    <row r="102" spans="1:4" ht="15.8" customHeight="1">
       <c r="A102" s="17">
         <v>463</v>
       </c>
@@ -5674,7 +5800,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.8" customHeight="1">
+    <row r="103" spans="1:4" ht="15.8" customHeight="1">
       <c r="A103" s="17">
         <v>470</v>
       </c>
@@ -5685,8 +5811,8 @@
         <v>344</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A104" s="15">
+    <row r="104" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A104" s="17">
         <v>476</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -5695,8 +5821,11 @@
       <c r="C104" s="16" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="15.8" customHeight="1">
+      <c r="D104" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.8" customHeight="1">
       <c r="A105" s="15">
         <v>479</v>
       </c>
@@ -5704,13 +5833,15 @@
         <v>276</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A106" s="15">
+    <row r="106" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A106" s="17">
         <v>482</v>
       </c>
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:3" ht="15.8" customHeight="1">
+      <c r="B106" s="17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.8" customHeight="1">
       <c r="A107" s="17">
         <v>500</v>
       </c>
@@ -5719,7 +5850,7 @@
       </c>
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="1:3" ht="15.8" customHeight="1">
+    <row r="108" spans="1:4" ht="15.8" customHeight="1">
       <c r="A108" s="15">
         <v>518</v>
       </c>
@@ -5727,7 +5858,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.8" customHeight="1">
+    <row r="109" spans="1:4" ht="15.8" customHeight="1">
       <c r="A109" s="17">
         <v>535</v>
       </c>
@@ -5738,7 +5869,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.8" customHeight="1">
+    <row r="110" spans="1:4" ht="15.8" customHeight="1">
       <c r="A110" s="17">
         <v>540</v>
       </c>
@@ -5749,7 +5880,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.8" customHeight="1">
+    <row r="111" spans="1:4" ht="15.8" customHeight="1">
       <c r="A111" s="17">
         <v>543</v>
       </c>
@@ -5757,7 +5888,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.8" customHeight="1">
+    <row r="112" spans="1:4" ht="15.8" customHeight="1">
       <c r="A112" s="15">
         <v>547</v>
       </c>
@@ -5783,7 +5914,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A115" s="17">
+      <c r="A115" s="15">
         <v>560</v>
       </c>
       <c r="B115" s="2"/>
@@ -5991,7 +6122,7 @@
         <v>4</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15.8" customHeight="1">
@@ -6007,19 +6138,25 @@
       <c r="B141" s="2"/>
     </row>
     <row r="142" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A142" s="15">
+      <c r="A142" s="17">
         <v>804</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>289</v>
       </c>
+      <c r="C142" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="143" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A143" s="15">
+      <c r="A143" s="17">
         <v>807</v>
       </c>
       <c r="B143" s="12" t="s">
         <v>290</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.8" customHeight="1">
@@ -6031,15 +6168,18 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A145" s="15">
+      <c r="A145" s="17">
         <v>844</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="C145" s="16" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="146" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A146" s="15">
+      <c r="A146" s="17">
         <v>867</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -6047,7 +6187,7 @@
       </c>
     </row>
     <row r="147" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A147" s="15">
+      <c r="A147" s="17">
         <v>872</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -6055,7 +6195,7 @@
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A148" s="15">
+      <c r="A148" s="17">
         <v>876</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -6083,7 +6223,7 @@
       <c r="B151" s="2"/>
     </row>
     <row r="152" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A152" s="15">
+      <c r="A152" s="17">
         <v>905</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -6091,11 +6231,14 @@
       </c>
     </row>
     <row r="153" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A153" s="15">
+      <c r="A153" s="17">
         <v>908</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15.8" customHeight="1">
@@ -6110,7 +6253,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A155" s="15">
+      <c r="A155" s="17">
         <v>925</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -6133,7 +6276,7 @@
         <v>4</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15.8" customHeight="1">
@@ -6152,7 +6295,7 @@
         <v>4</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15.8" customHeight="1">
@@ -6190,10 +6333,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9"/>
@@ -6214,6 +6357,30 @@
         <v>352</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="116.15">
+      <c r="A3" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="154.9">
+      <c r="A4" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="129.1">
+      <c r="A5" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lcdaily.xlsx
+++ b/lcdaily.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="377">
   <si>
     <t>目前的目标是过整理的笔记，以及所有题目的算法，不求写程序了，写程序的熟练度已经差不多了。要bug free很难，下面就是力争把900题的hard算法全部能搞定</t>
   </si>
@@ -1187,7 +1187,16 @@
     <t>number complement</t>
   </si>
   <si>
-    <t>26min</t>
+    <t>sliding window,算法想清楚了</t>
+  </si>
+  <si>
+    <t>s算法清楚</t>
+  </si>
+  <si>
+    <t>算法想清楚了</t>
+  </si>
+  <si>
+    <t>算法想清楚，但是要看答案，貌似答案的情况比较简单，我多想了？</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4585,10 +4594,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
@@ -4770,6 +4779,9 @@
       <c r="A18" s="30">
         <v>43430</v>
       </c>
+      <c r="B18" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="D18" s="16" t="s">
         <v>8</v>
       </c>
@@ -4819,7 +4831,23 @@
         <v>43436</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>373</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A25" s="30">
+        <v>43437</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.8" customHeight="1">
+      <c r="A26" s="30">
+        <v>43438</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5026,8 +5054,8 @@
   </sheetPr>
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
@@ -5691,16 +5719,20 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A88" s="15">
+      <c r="A88" s="17">
         <v>393</v>
       </c>
-      <c r="B88" s="2"/>
+      <c r="B88" s="17" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="89" spans="1:2" ht="15.8" customHeight="1">
       <c r="A89" s="15">
         <v>399</v>
       </c>
-      <c r="B89" s="2"/>
+      <c r="B89" s="17" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="90" spans="1:2" ht="15.8" customHeight="1">
       <c r="A90" s="15">
@@ -6024,11 +6056,14 @@
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A128" s="15">
+      <c r="A128" s="17">
         <v>681</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>284</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.8" customHeight="1">
@@ -6217,10 +6252,12 @@
       <c r="B150" s="2"/>
     </row>
     <row r="151" spans="1:3" ht="15.8" customHeight="1">
-      <c r="A151" s="15">
+      <c r="A151" s="17">
         <v>904</v>
       </c>
-      <c r="B151" s="2"/>
+      <c r="B151" s="2" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="152" spans="1:3" ht="15.8" customHeight="1">
       <c r="A152" s="17">

--- a/lcdaily.xlsx
+++ b/lcdaily.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\sttt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2634179B-4414-4D0F-BF24-2A047708A4AA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9007" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -1202,8 +1208,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1330,6 +1336,13 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1357,7 +1370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1404,6 +1417,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1710,14 +1724,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1727,13 +1741,13 @@
       <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
-    <col min="3" max="3" width="49.125" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.9">
+    <row r="1" spans="1:5" ht="13.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1747,7 +1761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.9">
+    <row r="2" spans="1:5" ht="13.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1758,7 +1772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.9">
+    <row r="3" spans="1:5" ht="13.2">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -1772,7 +1786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.9">
+    <row r="4" spans="1:5" ht="13.2">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -1783,7 +1797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.9">
+    <row r="5" spans="1:5" ht="13.2">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -1800,7 +1814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.9">
+    <row r="6" spans="1:5" ht="13.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1811,7 +1825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.9">
+    <row r="7" spans="1:5" ht="13.2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -1825,7 +1839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.9">
+    <row r="8" spans="1:5" ht="13.2">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -1836,7 +1850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.9">
+    <row r="9" spans="1:5" ht="13.2">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1847,7 +1861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.9">
+    <row r="10" spans="1:5" ht="13.2">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1858,7 +1872,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.9">
+    <row r="11" spans="1:5" ht="13.2">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1872,7 +1886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.9">
+    <row r="12" spans="1:5" ht="13.2">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -1883,7 +1897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.9">
+    <row r="13" spans="1:5" ht="13.2">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -1894,7 +1908,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.9">
+    <row r="14" spans="1:5" ht="13.2">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1905,7 +1919,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.9">
+    <row r="15" spans="1:5" ht="13.2">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -1919,7 +1933,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.9">
+    <row r="16" spans="1:5" ht="13.2">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -1933,7 +1947,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.9">
+    <row r="17" spans="1:4" ht="13.2">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1947,7 +1961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.9">
+    <row r="18" spans="1:4" ht="13.2">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -1958,7 +1972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.9">
+    <row r="19" spans="1:4" ht="13.2">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -1969,7 +1983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.9">
+    <row r="20" spans="1:4" ht="13.2">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -1980,7 +1994,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.9">
+    <row r="21" spans="1:4" ht="13.2">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -1991,7 +2005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.9">
+    <row r="22" spans="1:4" ht="13.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2005,7 +2019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.9">
+    <row r="23" spans="1:4" ht="13.2">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -2016,7 +2030,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.9">
+    <row r="24" spans="1:4" ht="13.2">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -2027,7 +2041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.9">
+    <row r="25" spans="1:4" ht="13.2">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -2039,7 +2053,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="12.9">
+    <row r="26" spans="1:4" ht="13.2">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -2053,7 +2067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.9">
+    <row r="27" spans="1:4" ht="13.2">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -2067,7 +2081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.9">
+    <row r="28" spans="1:4" ht="13.2">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -2078,7 +2092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.9">
+    <row r="29" spans="1:4" ht="13.2">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -2089,7 +2103,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.9">
+    <row r="30" spans="1:4" ht="13.2">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -2103,7 +2117,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.9">
+    <row r="31" spans="1:4" ht="13.2">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -2114,7 +2128,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13.6">
+    <row r="32" spans="1:4" ht="13.2">
       <c r="A32" s="4">
         <v>32</v>
       </c>
@@ -2126,7 +2140,7 @@
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="13.6">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -2140,7 +2154,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="13.6">
+    <row r="34" spans="1:5" ht="13.2">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -2154,7 +2168,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="13.6">
+    <row r="35" spans="1:5" ht="13.2">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -2171,7 +2185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="13.6">
+    <row r="36" spans="1:5" ht="13.8">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -2182,7 +2196,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="13.6">
+    <row r="37" spans="1:5" ht="13.8">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -2193,7 +2207,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.9">
+    <row r="38" spans="1:5" ht="13.2">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -2204,7 +2218,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.9">
+    <row r="39" spans="1:5" ht="13.2">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -2215,7 +2229,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.9">
+    <row r="40" spans="1:5" ht="13.2">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -2226,7 +2240,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.9">
+    <row r="41" spans="1:5" ht="13.2">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -2237,7 +2251,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.9">
+    <row r="42" spans="1:5" ht="13.2">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -2248,7 +2262,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.9">
+    <row r="43" spans="1:5" ht="13.2">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -2262,7 +2276,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="13.6">
+    <row r="44" spans="1:5" ht="13.8">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -2273,7 +2287,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="13.6">
+    <row r="45" spans="1:5" ht="13.8">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -2285,7 +2299,7 @@
       </c>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="13.6">
+    <row r="46" spans="1:5" ht="13.8">
       <c r="A46" s="2">
         <v>46</v>
       </c>
@@ -2299,7 +2313,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="13.6">
+    <row r="47" spans="1:5" ht="13.8">
       <c r="A47" s="2">
         <v>47</v>
       </c>
@@ -2313,7 +2327,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="12.9">
+    <row r="48" spans="1:5" ht="13.2">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -2327,7 +2341,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.9">
+    <row r="49" spans="1:4" ht="13.2">
       <c r="A49" s="2">
         <v>49</v>
       </c>
@@ -2338,7 +2352,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.9">
+    <row r="50" spans="1:4" ht="13.2">
       <c r="A50" s="2">
         <v>50</v>
       </c>
@@ -2349,7 +2363,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.3">
+    <row r="51" spans="1:4" ht="13.8">
       <c r="A51" s="2">
         <v>51</v>
       </c>
@@ -2361,7 +2375,7 @@
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" ht="13.6">
+    <row r="52" spans="1:4" ht="13.2">
       <c r="A52" s="2">
         <v>52</v>
       </c>
@@ -2373,7 +2387,7 @@
       </c>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="1:4" ht="13.6">
+    <row r="53" spans="1:4" ht="13.2">
       <c r="A53" s="2">
         <v>53</v>
       </c>
@@ -2385,7 +2399,7 @@
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" ht="12.9">
+    <row r="54" spans="1:4" ht="13.2">
       <c r="A54" s="2">
         <v>54</v>
       </c>
@@ -2396,7 +2410,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.9">
+    <row r="55" spans="1:4" ht="13.2">
       <c r="A55" s="2">
         <v>55</v>
       </c>
@@ -2407,7 +2421,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.9">
+    <row r="56" spans="1:4" ht="13.2">
       <c r="A56" s="2">
         <v>56</v>
       </c>
@@ -2418,7 +2432,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.9">
+    <row r="57" spans="1:4" ht="13.2">
       <c r="A57" s="2">
         <v>57</v>
       </c>
@@ -2429,7 +2443,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.9">
+    <row r="58" spans="1:4" ht="13.2">
       <c r="A58" s="2">
         <v>58</v>
       </c>
@@ -2440,7 +2454,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.9">
+    <row r="59" spans="1:4" ht="13.2">
       <c r="A59" s="2">
         <v>59</v>
       </c>
@@ -2451,7 +2465,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.9">
+    <row r="60" spans="1:4" ht="13.2">
       <c r="A60" s="2">
         <v>60</v>
       </c>
@@ -2462,7 +2476,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.9">
+    <row r="61" spans="1:4" ht="13.2">
       <c r="A61" s="2">
         <v>61</v>
       </c>
@@ -2473,7 +2487,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.9">
+    <row r="62" spans="1:4" ht="13.2">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -2484,7 +2498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.9">
+    <row r="63" spans="1:4" ht="13.2">
       <c r="A63" s="2">
         <v>63</v>
       </c>
@@ -2495,7 +2509,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.9">
+    <row r="64" spans="1:4" ht="13.2">
       <c r="A64" s="2">
         <v>64</v>
       </c>
@@ -2506,7 +2520,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="13.6">
+    <row r="65" spans="1:4" ht="13.2">
       <c r="A65" s="2">
         <v>65</v>
       </c>
@@ -2518,7 +2532,7 @@
       </c>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="1:4" ht="13.6">
+    <row r="66" spans="1:4" ht="13.2">
       <c r="A66" s="2">
         <v>66</v>
       </c>
@@ -2532,7 +2546,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.9">
+    <row r="67" spans="1:4" ht="13.2">
       <c r="A67" s="2">
         <v>67</v>
       </c>
@@ -2546,7 +2560,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.9">
+    <row r="68" spans="1:4" ht="13.2">
       <c r="A68" s="4">
         <v>68</v>
       </c>
@@ -2557,7 +2571,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.9">
+    <row r="69" spans="1:4" ht="13.2">
       <c r="A69" s="2">
         <v>69</v>
       </c>
@@ -2568,7 +2582,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.9">
+    <row r="70" spans="1:4" ht="13.2">
       <c r="A70" s="2">
         <v>70</v>
       </c>
@@ -2579,7 +2593,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.9">
+    <row r="71" spans="1:4" ht="13.2">
       <c r="A71" s="2">
         <v>71</v>
       </c>
@@ -2590,7 +2604,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.9">
+    <row r="72" spans="1:4" ht="13.2">
       <c r="A72" s="4">
         <v>72</v>
       </c>
@@ -2601,7 +2615,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.9">
+    <row r="73" spans="1:4" ht="13.2">
       <c r="A73" s="3">
         <v>73</v>
       </c>
@@ -2615,7 +2629,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.9">
+    <row r="74" spans="1:4" ht="13.2">
       <c r="A74" s="3">
         <v>74</v>
       </c>
@@ -2626,7 +2640,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.9">
+    <row r="75" spans="1:4" ht="13.2">
       <c r="A75" s="2">
         <v>75</v>
       </c>
@@ -2637,7 +2651,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.9">
+    <row r="76" spans="1:4" ht="13.2">
       <c r="A76" s="3">
         <v>76</v>
       </c>
@@ -2648,7 +2662,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.9">
+    <row r="77" spans="1:4" ht="13.2">
       <c r="A77" s="2">
         <v>77</v>
       </c>
@@ -2659,7 +2673,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.9">
+    <row r="78" spans="1:4" ht="13.2">
       <c r="A78" s="2">
         <v>78</v>
       </c>
@@ -2670,7 +2684,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.9">
+    <row r="79" spans="1:4" ht="13.2">
       <c r="A79" s="2">
         <v>79</v>
       </c>
@@ -2684,7 +2698,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.9">
+    <row r="80" spans="1:4" ht="13.2">
       <c r="A80" s="2">
         <v>80</v>
       </c>
@@ -2695,7 +2709,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.9">
+    <row r="81" spans="1:4" ht="13.2">
       <c r="A81" s="2">
         <v>81</v>
       </c>
@@ -2706,7 +2720,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.9">
+    <row r="82" spans="1:4" ht="13.2">
       <c r="A82" s="2">
         <v>82</v>
       </c>
@@ -2717,7 +2731,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.9">
+    <row r="83" spans="1:4" ht="13.2">
       <c r="A83" s="2">
         <v>83</v>
       </c>
@@ -2728,7 +2742,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.9">
+    <row r="84" spans="1:4" ht="13.2">
       <c r="A84" s="4">
         <v>84</v>
       </c>
@@ -2740,7 +2754,7 @@
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:4" ht="12.9">
+    <row r="85" spans="1:4" ht="13.2">
       <c r="A85" s="4">
         <v>85</v>
       </c>
@@ -2752,7 +2766,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" ht="12.9">
+    <row r="86" spans="1:4" ht="13.2">
       <c r="A86" s="2">
         <v>86</v>
       </c>
@@ -2764,7 +2778,7 @@
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" ht="12.9">
+    <row r="87" spans="1:4" ht="13.2">
       <c r="A87" s="4">
         <v>87</v>
       </c>
@@ -2776,7 +2790,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" ht="12.9">
+    <row r="88" spans="1:4" ht="13.2">
       <c r="A88" s="2">
         <v>88</v>
       </c>
@@ -2790,7 +2804,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.9">
+    <row r="89" spans="1:4" ht="13.2">
       <c r="A89" s="4">
         <v>89</v>
       </c>
@@ -2801,7 +2815,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.9">
+    <row r="90" spans="1:4" ht="13.2">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -2812,7 +2826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.9">
+    <row r="91" spans="1:4" ht="13.2">
       <c r="A91" s="2">
         <v>91</v>
       </c>
@@ -2823,7 +2837,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="13.6">
+    <row r="92" spans="1:4" ht="13.8">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -2834,7 +2848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="13.6">
+    <row r="93" spans="1:4" ht="13.8">
       <c r="A93" s="2">
         <v>93</v>
       </c>
@@ -2845,7 +2859,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="13.6">
+    <row r="94" spans="1:4" ht="13.8">
       <c r="A94" s="2">
         <v>94</v>
       </c>
@@ -2856,7 +2870,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.9">
+    <row r="95" spans="1:4" ht="13.2">
       <c r="A95" s="4">
         <v>95</v>
       </c>
@@ -2870,7 +2884,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.9">
+    <row r="96" spans="1:4" ht="13.2">
       <c r="A96" s="2">
         <v>96</v>
       </c>
@@ -2881,7 +2895,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="19.55" customHeight="1">
+    <row r="97" spans="1:4" ht="19.5" customHeight="1">
       <c r="A97" s="2">
         <v>97</v>
       </c>
@@ -2892,7 +2906,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.9">
+    <row r="98" spans="1:4" ht="13.2">
       <c r="A98" s="2">
         <v>98</v>
       </c>
@@ -2903,7 +2917,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.9">
+    <row r="99" spans="1:4" ht="13.2">
       <c r="A99" s="4">
         <v>99</v>
       </c>
@@ -2914,7 +2928,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.9">
+    <row r="100" spans="1:4" ht="13.2">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -2925,7 +2939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.9">
+    <row r="101" spans="1:4" ht="13.2">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -2936,7 +2950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.9">
+    <row r="102" spans="1:4" ht="13.2">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -2947,7 +2961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.9">
+    <row r="103" spans="1:4" ht="13.2">
       <c r="A103" s="2">
         <v>103</v>
       </c>
@@ -2958,7 +2972,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.9">
+    <row r="104" spans="1:4" ht="13.2">
       <c r="A104" s="2">
         <v>104</v>
       </c>
@@ -2969,7 +2983,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.9">
+    <row r="105" spans="1:4" ht="13.2">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -2980,7 +2994,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="13.6">
+    <row r="106" spans="1:4" ht="13.8">
       <c r="A106" s="2">
         <v>106</v>
       </c>
@@ -2991,7 +3005,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="13.6">
+    <row r="107" spans="1:4" ht="13.8">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -3003,7 +3017,7 @@
       </c>
       <c r="D107" s="8"/>
     </row>
-    <row r="108" spans="1:4" ht="13.6">
+    <row r="108" spans="1:4" ht="13.8">
       <c r="A108" s="2">
         <v>108</v>
       </c>
@@ -3015,7 +3029,7 @@
       </c>
       <c r="D108" s="8"/>
     </row>
-    <row r="109" spans="1:4" ht="13.6">
+    <row r="109" spans="1:4" ht="13.8">
       <c r="A109" s="2">
         <v>109</v>
       </c>
@@ -3027,7 +3041,7 @@
       </c>
       <c r="D109" s="8"/>
     </row>
-    <row r="110" spans="1:4" ht="12.9">
+    <row r="110" spans="1:4" ht="13.2">
       <c r="A110" s="2">
         <v>110</v>
       </c>
@@ -3038,7 +3052,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.9">
+    <row r="111" spans="1:4" ht="13.2">
       <c r="A111" s="2">
         <v>111</v>
       </c>
@@ -3049,7 +3063,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.9">
+    <row r="112" spans="1:4" ht="13.2">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -3060,7 +3074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.9">
+    <row r="113" spans="1:4" ht="13.2">
       <c r="A113" s="2">
         <v>113</v>
       </c>
@@ -3071,7 +3085,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.9">
+    <row r="114" spans="1:4" ht="13.2">
       <c r="A114" s="2">
         <v>114</v>
       </c>
@@ -3082,7 +3096,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.9">
+    <row r="115" spans="1:4" ht="13.2">
       <c r="A115" s="4">
         <v>115</v>
       </c>
@@ -3093,7 +3107,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.9">
+    <row r="116" spans="1:4" ht="13.2">
       <c r="A116" s="4">
         <v>116</v>
       </c>
@@ -3107,7 +3121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.9">
+    <row r="117" spans="1:4" ht="13.2">
       <c r="A117" s="2">
         <v>117</v>
       </c>
@@ -3118,7 +3132,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.9">
+    <row r="118" spans="1:4" ht="13.2">
       <c r="A118" s="2">
         <v>118</v>
       </c>
@@ -3129,7 +3143,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.9">
+    <row r="119" spans="1:4" ht="13.2">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -3140,7 +3154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.9">
+    <row r="120" spans="1:4" ht="13.2">
       <c r="A120" s="2">
         <v>120</v>
       </c>
@@ -3151,7 +3165,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.9">
+    <row r="121" spans="1:4" ht="13.2">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -3162,7 +3176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.9">
+    <row r="122" spans="1:4" ht="13.2">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -3173,7 +3187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.9">
+    <row r="123" spans="1:4" ht="13.2">
       <c r="A123" s="4">
         <v>123</v>
       </c>
@@ -3184,7 +3198,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.9">
+    <row r="124" spans="1:4" ht="13.2">
       <c r="A124" s="2">
         <v>124</v>
       </c>
@@ -3195,7 +3209,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.9">
+    <row r="125" spans="1:4" ht="13.2">
       <c r="A125" s="2">
         <v>125</v>
       </c>
@@ -3206,7 +3220,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.9">
+    <row r="126" spans="1:4" ht="13.2">
       <c r="A126" s="4">
         <v>126</v>
       </c>
@@ -3217,7 +3231,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.9">
+    <row r="127" spans="1:4" ht="13.2">
       <c r="A127" s="2">
         <v>127</v>
       </c>
@@ -3231,7 +3245,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.9">
+    <row r="128" spans="1:4" ht="13.2">
       <c r="A128" s="4">
         <v>128</v>
       </c>
@@ -3242,7 +3256,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:27" ht="12.9">
+    <row r="129" spans="1:27" ht="13.2">
       <c r="A129" s="2">
         <v>129</v>
       </c>
@@ -3253,7 +3267,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="12.9">
+    <row r="130" spans="1:27" ht="13.2">
       <c r="A130" s="2">
         <v>130</v>
       </c>
@@ -3264,7 +3278,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="131" spans="1:27" ht="12.9">
+    <row r="131" spans="1:27" ht="13.2">
       <c r="A131" s="4">
         <v>131</v>
       </c>
@@ -3275,7 +3289,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="12.9">
+    <row r="132" spans="1:27" ht="13.2">
       <c r="A132" s="4">
         <v>132</v>
       </c>
@@ -3286,7 +3300,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="12.9">
+    <row r="133" spans="1:27" ht="13.2">
       <c r="A133" s="2">
         <v>133</v>
       </c>
@@ -3297,7 +3311,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="12.9">
+    <row r="134" spans="1:27" ht="13.2">
       <c r="A134" s="2">
         <v>134</v>
       </c>
@@ -3308,7 +3322,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="12.9">
+    <row r="135" spans="1:27" ht="13.2">
       <c r="A135" s="4">
         <v>135</v>
       </c>
@@ -3319,7 +3333,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="12.9">
+    <row r="136" spans="1:27" ht="13.2">
       <c r="A136" s="2">
         <v>136</v>
       </c>
@@ -3330,7 +3344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="12.9">
+    <row r="137" spans="1:27" ht="13.2">
       <c r="A137" s="4">
         <v>137</v>
       </c>
@@ -3367,7 +3381,7 @@
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
     </row>
-    <row r="138" spans="1:27" ht="12.9">
+    <row r="138" spans="1:27" ht="13.2">
       <c r="A138" s="2">
         <v>138</v>
       </c>
@@ -3378,7 +3392,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="12.9">
+    <row r="139" spans="1:27" ht="13.2">
       <c r="A139" s="2">
         <v>139</v>
       </c>
@@ -3389,7 +3403,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="140" spans="1:27" ht="12.9">
+    <row r="140" spans="1:27" ht="13.2">
       <c r="A140" s="2">
         <v>140</v>
       </c>
@@ -3400,7 +3414,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="141" spans="1:27" ht="12.9">
+    <row r="141" spans="1:27" ht="13.2">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -3411,7 +3425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="12.9">
+    <row r="142" spans="1:27" ht="13.2">
       <c r="A142" s="2">
         <v>142</v>
       </c>
@@ -3423,7 +3437,7 @@
       </c>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:27" ht="12.9">
+    <row r="143" spans="1:27" ht="13.2">
       <c r="A143" s="2">
         <v>143</v>
       </c>
@@ -3437,7 +3451,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="12.9">
+    <row r="144" spans="1:27" ht="13.2">
       <c r="A144" s="2">
         <v>144</v>
       </c>
@@ -3449,7 +3463,7 @@
       </c>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" spans="1:4" ht="12.9">
+    <row r="145" spans="1:4" ht="13.2">
       <c r="A145" s="4">
         <v>145</v>
       </c>
@@ -3461,7 +3475,7 @@
       </c>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4" ht="12.9">
+    <row r="146" spans="1:4" ht="13.2">
       <c r="A146" s="2">
         <v>146</v>
       </c>
@@ -3473,7 +3487,7 @@
       </c>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4" ht="12.9">
+    <row r="147" spans="1:4" ht="13.2">
       <c r="A147" s="2">
         <v>147</v>
       </c>
@@ -3487,7 +3501,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.9">
+    <row r="148" spans="1:4" ht="13.2">
       <c r="A148" s="2">
         <v>148</v>
       </c>
@@ -3498,7 +3512,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.9">
+    <row r="149" spans="1:4" ht="13.2">
       <c r="A149" s="4">
         <v>149</v>
       </c>
@@ -3509,7 +3523,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.9">
+    <row r="150" spans="1:4" ht="13.2">
       <c r="A150" s="2">
         <v>150</v>
       </c>
@@ -3520,7 +3534,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.9">
+    <row r="151" spans="1:4" ht="13.2">
       <c r="A151" s="2">
         <v>151</v>
       </c>
@@ -3531,7 +3545,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.9">
+    <row r="152" spans="1:4" ht="13.2">
       <c r="A152" s="2">
         <v>155</v>
       </c>
@@ -3542,7 +3556,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.9">
+    <row r="153" spans="1:4" ht="13.2">
       <c r="A153" s="2">
         <v>160</v>
       </c>
@@ -3553,7 +3567,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.9">
+    <row r="154" spans="1:4" ht="13.2">
       <c r="A154" s="2">
         <v>164</v>
       </c>
@@ -3564,7 +3578,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.9">
+    <row r="155" spans="1:4" ht="13.2">
       <c r="A155" s="2">
         <v>165</v>
       </c>
@@ -3575,7 +3589,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.9">
+    <row r="156" spans="1:4" ht="13.2">
       <c r="A156" s="2">
         <v>167</v>
       </c>
@@ -3586,7 +3600,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.9">
+    <row r="157" spans="1:4" ht="13.2">
       <c r="A157" s="2">
         <v>168</v>
       </c>
@@ -3597,7 +3611,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.9">
+    <row r="158" spans="1:4" ht="13.2">
       <c r="A158" s="2">
         <v>169</v>
       </c>
@@ -3608,7 +3622,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.9">
+    <row r="159" spans="1:4" ht="13.2">
       <c r="A159" s="2">
         <v>171</v>
       </c>
@@ -3619,7 +3633,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.9">
+    <row r="160" spans="1:4" ht="13.2">
       <c r="A160" s="2">
         <v>172</v>
       </c>
@@ -3630,7 +3644,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="12.9">
+    <row r="161" spans="1:3" ht="13.2">
       <c r="A161" s="2">
         <v>191</v>
       </c>
@@ -3641,7 +3655,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="12.9">
+    <row r="162" spans="1:3" ht="13.2">
       <c r="A162" s="2">
         <v>198</v>
       </c>
@@ -3652,7 +3666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="12.9">
+    <row r="163" spans="1:3" ht="13.2">
       <c r="A163" s="2">
         <v>200</v>
       </c>
@@ -3663,7 +3677,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="12.9">
+    <row r="164" spans="1:3" ht="13.2">
       <c r="A164" s="2">
         <v>202</v>
       </c>
@@ -3674,7 +3688,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="12.9">
+    <row r="165" spans="1:3" ht="13.2">
       <c r="A165" s="2">
         <v>203</v>
       </c>
@@ -3685,7 +3699,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="13.6">
+    <row r="166" spans="1:3" ht="13.8">
       <c r="A166" s="2">
         <v>205</v>
       </c>
@@ -3696,7 +3710,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="12.9">
+    <row r="167" spans="1:3" ht="13.2">
       <c r="A167" s="2">
         <v>206</v>
       </c>
@@ -3705,7 +3719,7 @@
       </c>
       <c r="C167" s="2"/>
     </row>
-    <row r="168" spans="1:3" ht="12.9">
+    <row r="168" spans="1:3" ht="13.2">
       <c r="A168" s="2">
         <v>208</v>
       </c>
@@ -3716,7 +3730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="12.9">
+    <row r="169" spans="1:3" ht="13.2">
       <c r="A169" s="2">
         <v>215</v>
       </c>
@@ -3727,7 +3741,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="12.9">
+    <row r="170" spans="1:3" ht="13.2">
       <c r="A170" s="2">
         <v>217</v>
       </c>
@@ -3738,7 +3752,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="12.9">
+    <row r="171" spans="1:3" ht="13.2">
       <c r="A171" s="2">
         <v>218</v>
       </c>
@@ -3749,7 +3763,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="12.9">
+    <row r="172" spans="1:3" ht="13.2">
       <c r="A172" s="2">
         <v>219</v>
       </c>
@@ -3760,7 +3774,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="12.9">
+    <row r="173" spans="1:3" ht="13.2">
       <c r="A173" s="2">
         <v>226</v>
       </c>
@@ -3771,7 +3785,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="12.9">
+    <row r="174" spans="1:3" ht="13.2">
       <c r="A174" s="2">
         <v>231</v>
       </c>
@@ -3782,7 +3796,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="12.9">
+    <row r="175" spans="1:3" ht="13.2">
       <c r="A175" s="2">
         <v>234</v>
       </c>
@@ -3793,7 +3807,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="12.9">
+    <row r="176" spans="1:3" ht="13.2">
       <c r="A176" s="2">
         <v>235</v>
       </c>
@@ -3804,7 +3818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="12.9">
+    <row r="177" spans="1:3" ht="13.2">
       <c r="A177" s="2">
         <v>237</v>
       </c>
@@ -3815,14 +3829,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="12.9">
+    <row r="178" spans="1:3" ht="13.2">
       <c r="A178" s="2">
         <v>238</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
     </row>
-    <row r="179" spans="1:3" ht="12.9">
+    <row r="179" spans="1:3" ht="13.2">
       <c r="A179" s="2">
         <v>242</v>
       </c>
@@ -3833,7 +3847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="12.9">
+    <row r="180" spans="1:3" ht="13.2">
       <c r="A180" s="2">
         <v>253</v>
       </c>
@@ -3844,7 +3858,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="12.9">
+    <row r="181" spans="1:3" ht="13.2">
       <c r="A181" s="2">
         <v>258</v>
       </c>
@@ -3855,7 +3869,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="12.9">
+    <row r="182" spans="1:3" ht="13.2">
       <c r="A182" s="2">
         <v>263</v>
       </c>
@@ -3866,7 +3880,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="12.9">
+    <row r="183" spans="1:3" ht="13.2">
       <c r="A183" s="2">
         <v>268</v>
       </c>
@@ -3877,7 +3891,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="16.3">
+    <row r="184" spans="1:3" ht="16.8">
       <c r="A184" s="10">
         <v>269</v>
       </c>
@@ -3888,7 +3902,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="12.9">
+    <row r="185" spans="1:3" ht="13.2">
       <c r="A185" s="2">
         <v>273</v>
       </c>
@@ -3899,7 +3913,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="16.3">
+    <row r="186" spans="1:3" ht="16.8">
       <c r="A186" s="2">
         <v>280</v>
       </c>
@@ -3910,7 +3924,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="12.9">
+    <row r="187" spans="1:3" ht="13.2">
       <c r="A187" s="2">
         <v>283</v>
       </c>
@@ -3921,7 +3935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="12.9">
+    <row r="188" spans="1:3" ht="13.2">
       <c r="A188" s="2">
         <v>297</v>
       </c>
@@ -3930,7 +3944,7 @@
       </c>
       <c r="C188" s="2"/>
     </row>
-    <row r="189" spans="1:3" ht="12.9">
+    <row r="189" spans="1:3" ht="13.2">
       <c r="A189" s="2">
         <v>301</v>
       </c>
@@ -3941,7 +3955,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="12.9">
+    <row r="190" spans="1:3" ht="13.2">
       <c r="A190" s="2">
         <v>303</v>
       </c>
@@ -3952,7 +3966,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="12.9">
+    <row r="191" spans="1:3" ht="13.2">
       <c r="A191" s="2">
         <v>307</v>
       </c>
@@ -3963,7 +3977,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="12.9">
+    <row r="192" spans="1:3" ht="13.2">
       <c r="A192" s="2">
         <v>322</v>
       </c>
@@ -3974,7 +3988,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="12.9">
+    <row r="193" spans="1:3" ht="13.2">
       <c r="A193" s="2">
         <v>326</v>
       </c>
@@ -3985,7 +3999,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="12.9">
+    <row r="194" spans="1:3" ht="13.2">
       <c r="A194" s="2">
         <v>336</v>
       </c>
@@ -3996,7 +4010,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="12.9">
+    <row r="195" spans="1:3" ht="13.2">
       <c r="A195" s="2">
         <v>344</v>
       </c>
@@ -4007,7 +4021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="12.9">
+    <row r="196" spans="1:3" ht="13.2">
       <c r="A196" s="2">
         <v>349</v>
       </c>
@@ -4016,7 +4030,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="12.9">
+    <row r="197" spans="1:3" ht="13.2">
       <c r="A197" s="2">
         <v>371</v>
       </c>
@@ -4024,7 +4038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="12.9">
+    <row r="198" spans="1:3" ht="13.2">
       <c r="A198" s="2">
         <v>383</v>
       </c>
@@ -4035,7 +4049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="12.9">
+    <row r="199" spans="1:3" ht="13.2">
       <c r="A199" s="2">
         <v>387</v>
       </c>
@@ -4046,7 +4060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="12.9">
+    <row r="200" spans="1:3" ht="13.2">
       <c r="A200" s="2">
         <v>406</v>
       </c>
@@ -4057,7 +4071,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="12.9">
+    <row r="201" spans="1:3" ht="13.2">
       <c r="A201" s="2">
         <v>412</v>
       </c>
@@ -4065,7 +4079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="12.9">
+    <row r="202" spans="1:3" ht="13.2">
       <c r="A202" s="2">
         <v>438</v>
       </c>
@@ -4076,7 +4090,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="12.9">
+    <row r="203" spans="1:3" ht="13.2">
       <c r="A203" s="2">
         <v>442</v>
       </c>
@@ -4087,7 +4101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="12.9">
+    <row r="204" spans="1:3" ht="13.2">
       <c r="A204" s="2">
         <v>448</v>
       </c>
@@ -4098,7 +4112,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="12.9">
+    <row r="205" spans="1:3" ht="13.2">
       <c r="A205" s="2">
         <v>453</v>
       </c>
@@ -4109,7 +4123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="12.9">
+    <row r="206" spans="1:3" ht="13.2">
       <c r="A206" s="2">
         <v>458</v>
       </c>
@@ -4120,7 +4134,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="12.9">
+    <row r="207" spans="1:3" ht="13.2">
       <c r="A207" s="2">
         <v>461</v>
       </c>
@@ -4131,7 +4145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="12.9">
+    <row r="208" spans="1:3" ht="13.2">
       <c r="A208" s="2">
         <v>463</v>
       </c>
@@ -4142,7 +4156,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="12.9">
+    <row r="209" spans="1:3" ht="13.2">
       <c r="A209" s="2">
         <v>470</v>
       </c>
@@ -4153,7 +4167,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="12.9">
+    <row r="210" spans="1:3" ht="13.2">
       <c r="A210" s="2">
         <v>476</v>
       </c>
@@ -4164,7 +4178,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="12.9">
+    <row r="211" spans="1:3" ht="13.2">
       <c r="A211" s="2">
         <v>479</v>
       </c>
@@ -4173,7 +4187,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="12.9">
+    <row r="212" spans="1:3" ht="13.2">
       <c r="A212" s="2">
         <v>500</v>
       </c>
@@ -4184,7 +4198,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="12.9">
+    <row r="213" spans="1:3" ht="13.2">
       <c r="A213" s="2">
         <v>535</v>
       </c>
@@ -4195,7 +4209,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="12.9">
+    <row r="214" spans="1:3" ht="13.2">
       <c r="A214" s="2">
         <v>540</v>
       </c>
@@ -4206,7 +4220,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="12.9">
+    <row r="215" spans="1:3" ht="13.2">
       <c r="A215" s="2">
         <v>543</v>
       </c>
@@ -4217,7 +4231,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="12.9">
+    <row r="216" spans="1:3" ht="13.2">
       <c r="A216" s="2">
         <v>557</v>
       </c>
@@ -4228,7 +4242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="12.9">
+    <row r="217" spans="1:3" ht="13.2">
       <c r="A217" s="2">
         <v>561</v>
       </c>
@@ -4239,7 +4253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="12.9">
+    <row r="218" spans="1:3" ht="13.2">
       <c r="A218" s="2">
         <v>617</v>
       </c>
@@ -4250,7 +4264,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="12.9">
+    <row r="219" spans="1:3" ht="13.2">
       <c r="A219" s="2">
         <v>628</v>
       </c>
@@ -4261,7 +4275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="12.9">
+    <row r="220" spans="1:3" ht="13.2">
       <c r="A220" s="2">
         <v>654</v>
       </c>
@@ -4272,7 +4286,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="12.9">
+    <row r="221" spans="1:3" ht="13.2">
       <c r="A221" s="2">
         <v>657</v>
       </c>
@@ -4283,7 +4297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="12.9">
+    <row r="222" spans="1:3" ht="13.2">
       <c r="A222" s="2">
         <v>669</v>
       </c>
@@ -4294,7 +4308,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="13.6">
+    <row r="223" spans="1:3" ht="13.8">
       <c r="A223" s="2">
         <v>681</v>
       </c>
@@ -4305,7 +4319,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="13.6">
+    <row r="224" spans="1:3" ht="13.8">
       <c r="A224" s="2">
         <v>683</v>
       </c>
@@ -4316,7 +4330,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="13.6">
+    <row r="225" spans="1:3" ht="13.8">
       <c r="A225" s="2">
         <v>695</v>
       </c>
@@ -4327,7 +4341,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="12.9">
+    <row r="226" spans="1:3" ht="13.2">
       <c r="A226" s="2">
         <v>697</v>
       </c>
@@ -4338,7 +4352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="13.6">
+    <row r="227" spans="1:3" ht="13.8">
       <c r="A227" s="2">
         <v>728</v>
       </c>
@@ -4349,7 +4363,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="12.9">
+    <row r="228" spans="1:3" ht="13.2">
       <c r="A228" s="2">
         <v>760</v>
       </c>
@@ -4360,7 +4374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="12.9">
+    <row r="229" spans="1:3" ht="13.2">
       <c r="A229" s="2">
         <v>771</v>
       </c>
@@ -4371,7 +4385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="12.9">
+    <row r="230" spans="1:3" ht="13.2">
       <c r="A230" s="2">
         <v>804</v>
       </c>
@@ -4382,7 +4396,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="13.6">
+    <row r="231" spans="1:3" ht="13.2">
       <c r="A231" s="2">
         <v>807</v>
       </c>
@@ -4393,7 +4407,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="12.9">
+    <row r="232" spans="1:3" ht="13.2">
       <c r="A232" s="2">
         <v>819</v>
       </c>
@@ -4404,7 +4418,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="12.9">
+    <row r="233" spans="1:3" ht="13.2">
       <c r="A233" s="2">
         <v>844</v>
       </c>
@@ -4415,7 +4429,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="12.9">
+    <row r="234" spans="1:3" ht="13.2">
       <c r="A234" s="2">
         <v>867</v>
       </c>
@@ -4426,7 +4440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="12.9">
+    <row r="235" spans="1:3" ht="13.2">
       <c r="A235" s="2">
         <v>872</v>
       </c>
@@ -4437,7 +4451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="12.9">
+    <row r="236" spans="1:3" ht="13.2">
       <c r="A236" s="2">
         <v>876</v>
       </c>
@@ -4448,7 +4462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="12.9">
+    <row r="237" spans="1:3" ht="13.2">
       <c r="A237" s="2">
         <v>877</v>
       </c>
@@ -4459,7 +4473,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="13.6">
+    <row r="238" spans="1:3" ht="13.8">
       <c r="A238" s="2">
         <v>925</v>
       </c>
@@ -4470,7 +4484,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="13.6">
+    <row r="239" spans="1:3" ht="13.8">
       <c r="A239" s="2">
         <v>905</v>
       </c>
@@ -4481,7 +4495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="13.6">
+    <row r="240" spans="1:3" ht="13.8">
       <c r="A240" s="2">
         <v>908</v>
       </c>
@@ -4492,7 +4506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="13.6">
+    <row r="241" spans="1:3" ht="13.8">
       <c r="A241" s="2">
         <v>922</v>
       </c>
@@ -4503,7 +4517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="13.6">
+    <row r="242" spans="1:3" ht="13.8">
       <c r="A242" s="2">
         <v>925</v>
       </c>
@@ -4514,7 +4528,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="13.6">
+    <row r="243" spans="1:3" ht="13.8">
       <c r="A243" s="2">
         <v>926</v>
       </c>
@@ -4525,7 +4539,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="13.6">
+    <row r="244" spans="1:3" ht="13.8">
       <c r="A244" s="2">
         <v>929</v>
       </c>
@@ -4536,7 +4550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="13.6">
+    <row r="245" spans="1:3" ht="13.8">
       <c r="A245" s="2">
         <v>930</v>
       </c>
@@ -4547,7 +4561,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="13.6">
+    <row r="246" spans="1:3" ht="13.8">
       <c r="A246" s="2">
         <v>931</v>
       </c>
@@ -4558,15 +4572,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="14.3">
+    <row r="247" spans="1:3" ht="14.4">
       <c r="B247" s="14"/>
     </row>
-    <row r="248" spans="1:3" ht="14.3">
+    <row r="248" spans="1:3" ht="14.4">
       <c r="B248" s="14" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="14.3">
+    <row r="249" spans="1:3" ht="14.4">
       <c r="B249" s="14" t="s">
         <v>300</v>
       </c>
@@ -4574,12 +4588,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="14.3">
+    <row r="250" spans="1:3" ht="14.4">
       <c r="B250" s="14" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="14.3">
+    <row r="251" spans="1:3" ht="14.4">
       <c r="B251" s="14" t="s">
         <v>303</v>
       </c>
@@ -4590,29 +4604,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.8" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.8" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.8" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
         <v>324</v>
@@ -4621,7 +4635,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.8" customHeight="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>11.12</v>
       </c>
@@ -4632,7 +4646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.8" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>11.13</v>
       </c>
@@ -4643,7 +4657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.8" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>11.14</v>
       </c>
@@ -4654,7 +4668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.8" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="17">
         <v>11.15</v>
       </c>
@@ -4665,7 +4679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.8" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="17">
         <v>11.16</v>
       </c>
@@ -4676,7 +4690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.8" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="17">
         <v>11.17</v>
       </c>
@@ -4687,7 +4701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.8" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="17">
         <v>11.18</v>
       </c>
@@ -4698,7 +4712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.8" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="17">
         <v>11.19</v>
       </c>
@@ -4709,7 +4723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.8" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="29">
         <v>43424</v>
       </c>
@@ -4720,7 +4734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.8" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="30">
         <v>43425</v>
       </c>
@@ -4731,7 +4745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.8" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="30">
         <v>43426</v>
       </c>
@@ -4742,7 +4756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.8" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="30">
         <v>43427</v>
       </c>
@@ -4753,7 +4767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.8" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="30">
         <v>43428</v>
       </c>
@@ -4764,7 +4778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.8" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="30">
         <v>43429</v>
       </c>
@@ -4775,7 +4789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.8" customHeight="1">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="30">
         <v>43430</v>
       </c>
@@ -4786,7 +4800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.8" customHeight="1">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="30">
         <v>43431</v>
       </c>
@@ -4794,7 +4808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.8" customHeight="1">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="30">
         <v>43432</v>
       </c>
@@ -4802,7 +4816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.8" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="30">
         <v>43433</v>
       </c>
@@ -4810,7 +4824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.8" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="30">
         <v>43434</v>
       </c>
@@ -4818,7 +4832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.8" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="30">
         <v>43435</v>
       </c>
@@ -4826,7 +4840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.8" customHeight="1">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="30">
         <v>43436</v>
       </c>
@@ -4834,7 +4848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.8" customHeight="1">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="30">
         <v>43437</v>
       </c>
@@ -4842,7 +4856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.8" customHeight="1">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="30">
         <v>43438</v>
       </c>
@@ -4856,7 +4870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4866,24 +4880,24 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.8" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.8" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.8" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.8" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>161</v>
       </c>
@@ -4891,7 +4905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.8" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>163</v>
       </c>
@@ -4899,7 +4913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.8" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>170</v>
       </c>
@@ -4907,17 +4921,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.8" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.8" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.8" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>199</v>
       </c>
@@ -4925,7 +4939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.8" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>201</v>
       </c>
@@ -4933,7 +4947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.8" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>209</v>
       </c>
@@ -4941,7 +4955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.8" customHeight="1">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>210</v>
       </c>
@@ -4949,7 +4963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.8" customHeight="1">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>211</v>
       </c>
@@ -4957,12 +4971,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.8" customHeight="1">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.8" customHeight="1">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>213</v>
       </c>
@@ -4970,17 +4984,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.8" customHeight="1">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.8" customHeight="1">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.8" customHeight="1">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>217</v>
       </c>
@@ -4988,12 +5002,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.8" customHeight="1">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="2">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.8" customHeight="1">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="15">
         <v>220</v>
       </c>
@@ -5001,7 +5015,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.8" customHeight="1">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="17">
         <v>221</v>
       </c>
@@ -5009,12 +5023,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.8" customHeight="1">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="A22" s="17">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.8" customHeight="1">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" s="17">
         <v>223</v>
       </c>
@@ -5022,7 +5036,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.8" customHeight="1">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
       <c r="A24" s="17">
         <v>225</v>
       </c>
@@ -5030,7 +5044,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.8" customHeight="1">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
       <c r="A25" s="17">
         <v>228</v>
       </c>
@@ -5038,7 +5052,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.8" customHeight="1">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="17"/>
     </row>
   </sheetData>
@@ -5048,19 +5062,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.8" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2">
         <v>151</v>
       </c>
@@ -5068,7 +5082,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.8" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>152</v>
       </c>
@@ -5076,7 +5090,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.8" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>153</v>
       </c>
@@ -5084,7 +5098,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.8" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>155</v>
       </c>
@@ -5092,7 +5106,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.8" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="15">
         <v>157</v>
       </c>
@@ -5100,19 +5114,19 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.8" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="15">
         <v>158</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15.8" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="15">
         <v>159</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" ht="15.8" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>160</v>
       </c>
@@ -5120,7 +5134,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.8" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>162</v>
       </c>
@@ -5128,7 +5142,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.8" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="15">
         <v>164</v>
       </c>
@@ -5136,7 +5150,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.8" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>165</v>
       </c>
@@ -5144,7 +5158,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.8" customHeight="1">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>167</v>
       </c>
@@ -5152,7 +5166,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.8" customHeight="1">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>168</v>
       </c>
@@ -5160,7 +5174,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.8" customHeight="1">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>169</v>
       </c>
@@ -5168,7 +5182,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.8" customHeight="1">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>171</v>
       </c>
@@ -5176,7 +5190,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.8" customHeight="1">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>172</v>
       </c>
@@ -5184,7 +5198,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.8" customHeight="1">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>173</v>
       </c>
@@ -5192,7 +5206,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.8" customHeight="1">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>179</v>
       </c>
@@ -5200,7 +5214,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.8" customHeight="1">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="2">
         <v>187</v>
       </c>
@@ -5208,13 +5222,13 @@
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.8" customHeight="1">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="15">
         <v>188</v>
       </c>
       <c r="B20" s="19"/>
     </row>
-    <row r="21" spans="1:2" ht="15.8" customHeight="1">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>189</v>
       </c>
@@ -5222,7 +5236,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.8" customHeight="1">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="A22" s="17">
         <v>190</v>
       </c>
@@ -5230,7 +5244,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.8" customHeight="1">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" s="17">
         <v>191</v>
       </c>
@@ -5238,7 +5252,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.8" customHeight="1">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>198</v>
       </c>
@@ -5246,7 +5260,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.8" customHeight="1">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
       <c r="A25" s="2">
         <v>200</v>
       </c>
@@ -5254,7 +5268,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.8" customHeight="1">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>202</v>
       </c>
@@ -5262,7 +5276,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.8" customHeight="1">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>203</v>
       </c>
@@ -5270,7 +5284,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.8" customHeight="1">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>204</v>
       </c>
@@ -5278,7 +5292,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.8" customHeight="1">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>205</v>
       </c>
@@ -5286,7 +5300,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.8" customHeight="1">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>206</v>
       </c>
@@ -5294,7 +5308,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.8" customHeight="1">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>207</v>
       </c>
@@ -5302,7 +5316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.8" customHeight="1">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>208</v>
       </c>
@@ -5310,7 +5324,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.8" customHeight="1">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
       <c r="A33" s="15">
         <v>215</v>
       </c>
@@ -5318,7 +5332,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.8" customHeight="1">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>217</v>
       </c>
@@ -5326,7 +5340,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.8" customHeight="1">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
       <c r="A35" s="15">
         <v>218</v>
       </c>
@@ -5334,17 +5348,17 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.8" customHeight="1">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36" s="2">
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.8" customHeight="1">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1">
       <c r="A37" s="15">
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.8" customHeight="1">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1">
       <c r="A38" s="2">
         <v>226</v>
       </c>
@@ -5352,7 +5366,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.8" customHeight="1">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="2">
         <v>227</v>
       </c>
@@ -5360,7 +5374,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.8" customHeight="1">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>231</v>
       </c>
@@ -5368,7 +5382,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.8" customHeight="1">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>234</v>
       </c>
@@ -5376,7 +5390,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.8" customHeight="1">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1">
       <c r="A42" s="2">
         <v>235</v>
       </c>
@@ -5384,13 +5398,13 @@
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.8" customHeight="1">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1">
       <c r="A43" s="15">
         <v>236</v>
       </c>
       <c r="B43" s="16"/>
     </row>
-    <row r="44" spans="1:2" ht="15.8" customHeight="1">
+    <row r="44" spans="1:2" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>237</v>
       </c>
@@ -5398,7 +5412,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.8" customHeight="1">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>238</v>
       </c>
@@ -5406,19 +5420,19 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.8" customHeight="1">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="15">
         <v>239</v>
       </c>
       <c r="B46" s="22"/>
     </row>
-    <row r="47" spans="1:2" ht="15.8" customHeight="1">
+    <row r="47" spans="1:2" ht="15.75" customHeight="1">
       <c r="A47" s="15">
         <v>240</v>
       </c>
       <c r="B47" s="22"/>
     </row>
-    <row r="48" spans="1:2" ht="15.8" customHeight="1">
+    <row r="48" spans="1:2" ht="15.75" customHeight="1">
       <c r="A48" s="2">
         <v>242</v>
       </c>
@@ -5426,7 +5440,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.8" customHeight="1">
+    <row r="49" spans="1:2" ht="15.75" customHeight="1">
       <c r="A49" s="2">
         <v>253</v>
       </c>
@@ -5434,7 +5448,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.8" customHeight="1">
+    <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>258</v>
       </c>
@@ -5442,13 +5456,13 @@
         <v>329</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.8" customHeight="1">
+    <row r="51" spans="1:2" ht="15.75" customHeight="1">
       <c r="A51" s="15">
         <v>260</v>
       </c>
       <c r="B51" s="24"/>
     </row>
-    <row r="52" spans="1:2" ht="15.8" customHeight="1">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1">
       <c r="A52" s="2">
         <v>263</v>
       </c>
@@ -5456,7 +5470,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.8" customHeight="1">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" s="2">
         <v>268</v>
       </c>
@@ -5464,7 +5478,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.8" customHeight="1">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1">
       <c r="A54" s="25">
         <v>269</v>
       </c>
@@ -5472,12 +5486,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.8" customHeight="1">
+    <row r="55" spans="1:2" ht="15.75" customHeight="1">
       <c r="A55" s="25">
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.8" customHeight="1">
+    <row r="56" spans="1:2" ht="15.75" customHeight="1">
       <c r="A56" s="2">
         <v>273</v>
       </c>
@@ -5485,7 +5499,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.8" customHeight="1">
+    <row r="57" spans="1:2" ht="15.75" customHeight="1">
       <c r="A57" s="2">
         <v>279</v>
       </c>
@@ -5493,7 +5507,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.8" customHeight="1">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1">
       <c r="A58" s="17">
         <v>280</v>
       </c>
@@ -5501,7 +5515,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.8" customHeight="1">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1">
       <c r="A59" s="17">
         <v>283</v>
       </c>
@@ -5509,7 +5523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.8" customHeight="1">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="17">
         <v>287</v>
       </c>
@@ -5517,7 +5531,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.8" customHeight="1">
+    <row r="61" spans="1:2" ht="15.75" customHeight="1">
       <c r="A61" s="17">
         <v>289</v>
       </c>
@@ -5525,7 +5539,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.8" customHeight="1">
+    <row r="62" spans="1:2" ht="15.75" customHeight="1">
       <c r="A62" s="17">
         <v>292</v>
       </c>
@@ -5533,19 +5547,19 @@
         <v>308</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.8" customHeight="1">
+    <row r="63" spans="1:2" ht="15.75" customHeight="1">
       <c r="A63" s="15">
         <v>295</v>
       </c>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" ht="15.8" customHeight="1">
+    <row r="64" spans="1:2" ht="15.75" customHeight="1">
       <c r="A64" s="15">
         <v>297</v>
       </c>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:4" ht="15.8" customHeight="1">
+    <row r="65" spans="1:4" ht="15.75" customHeight="1">
       <c r="A65" s="17">
         <v>300</v>
       </c>
@@ -5553,7 +5567,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.8" customHeight="1">
+    <row r="66" spans="1:4" ht="15.75" customHeight="1">
       <c r="A66" s="15">
         <v>301</v>
       </c>
@@ -5561,7 +5575,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.8" customHeight="1">
+    <row r="67" spans="1:4" ht="15.75" customHeight="1">
       <c r="A67" s="17">
         <v>303</v>
       </c>
@@ -5569,7 +5583,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.8" customHeight="1">
+    <row r="68" spans="1:4" ht="15.75" customHeight="1">
       <c r="A68" s="27">
         <v>307</v>
       </c>
@@ -5580,13 +5594,13 @@
         <v>338</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.8" customHeight="1">
+    <row r="69" spans="1:4" ht="15.75" customHeight="1">
       <c r="A69" s="15">
         <v>312</v>
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:4" ht="15.8" customHeight="1">
+    <row r="70" spans="1:4" ht="15.75" customHeight="1">
       <c r="A70" s="17">
         <v>319</v>
       </c>
@@ -5594,7 +5608,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.8" customHeight="1">
+    <row r="71" spans="1:4" ht="15.75" customHeight="1">
       <c r="A71" s="17">
         <v>322</v>
       </c>
@@ -5602,7 +5616,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.8" customHeight="1">
+    <row r="72" spans="1:4" ht="15.75" customHeight="1">
       <c r="A72" s="17">
         <v>326</v>
       </c>
@@ -5610,7 +5624,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.8" customHeight="1">
+    <row r="73" spans="1:4" ht="15.75" customHeight="1">
       <c r="A73" s="17">
         <v>328</v>
       </c>
@@ -5618,7 +5632,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.8" customHeight="1">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1">
       <c r="A74" s="15">
         <v>336</v>
       </c>
@@ -5626,7 +5640,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.8" customHeight="1">
+    <row r="75" spans="1:4" ht="15.75" customHeight="1">
       <c r="A75" s="17">
         <v>341</v>
       </c>
@@ -5634,7 +5648,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.8" customHeight="1">
+    <row r="76" spans="1:4" ht="15.75" customHeight="1">
       <c r="A76" s="17">
         <v>344</v>
       </c>
@@ -5642,7 +5656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.8" customHeight="1">
+    <row r="77" spans="1:4" ht="15.75" customHeight="1">
       <c r="A77" s="17">
         <v>345</v>
       </c>
@@ -5650,7 +5664,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.8" customHeight="1">
+    <row r="78" spans="1:4" ht="15.75" customHeight="1">
       <c r="A78" s="17">
         <v>347</v>
       </c>
@@ -5658,13 +5672,13 @@
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.8" customHeight="1">
+    <row r="79" spans="1:4" ht="15.75" customHeight="1">
       <c r="A79" s="15">
         <v>348</v>
       </c>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:4" ht="15.8" customHeight="1">
+    <row r="80" spans="1:4" ht="15.75" customHeight="1">
       <c r="A80" s="17">
         <v>349</v>
       </c>
@@ -5672,18 +5686,18 @@
         <v>265</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.8" customHeight="1">
+    <row r="81" spans="1:2" ht="15.75" customHeight="1">
       <c r="A81" s="15">
         <v>364</v>
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" ht="15.8" customHeight="1">
-      <c r="A82" s="15">
+    <row r="82" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A82" s="32">
         <v>371</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.8" customHeight="1">
+    <row r="83" spans="1:2" ht="15.75" customHeight="1">
       <c r="A83" s="17">
         <v>374</v>
       </c>
@@ -5691,12 +5705,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.8" customHeight="1">
+    <row r="84" spans="1:2" ht="15.75" customHeight="1">
       <c r="A84" s="15">
         <v>380</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.8" customHeight="1">
+    <row r="85" spans="1:2" ht="15.75" customHeight="1">
       <c r="A85" s="17">
         <v>383</v>
       </c>
@@ -5704,13 +5718,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.8" customHeight="1">
+    <row r="86" spans="1:2" ht="15.75" customHeight="1">
       <c r="A86" s="15">
         <v>384</v>
       </c>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" ht="15.8" customHeight="1">
+    <row r="87" spans="1:2" ht="15.75" customHeight="1">
       <c r="A87" s="17">
         <v>387</v>
       </c>
@@ -5718,7 +5732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.8" customHeight="1">
+    <row r="88" spans="1:2" ht="15.75" customHeight="1">
       <c r="A88" s="17">
         <v>393</v>
       </c>
@@ -5726,7 +5740,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.8" customHeight="1">
+    <row r="89" spans="1:2" ht="15.75" customHeight="1">
       <c r="A89" s="15">
         <v>399</v>
       </c>
@@ -5734,19 +5748,19 @@
         <v>376</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.8" customHeight="1">
+    <row r="90" spans="1:2" ht="15.75" customHeight="1">
       <c r="A90" s="15">
         <v>402</v>
       </c>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" ht="15.8" customHeight="1">
+    <row r="91" spans="1:2" ht="15.75" customHeight="1">
       <c r="A91" s="15">
         <v>403</v>
       </c>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" ht="15.8" customHeight="1">
+    <row r="92" spans="1:2" ht="15.75" customHeight="1">
       <c r="A92" s="15">
         <v>406</v>
       </c>
@@ -5754,7 +5768,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.8" customHeight="1">
+    <row r="93" spans="1:2" ht="15.75" customHeight="1">
       <c r="A93" s="17">
         <v>412</v>
       </c>
@@ -5762,7 +5776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.8" customHeight="1">
+    <row r="94" spans="1:2" ht="15.75" customHeight="1">
       <c r="A94" s="17">
         <v>438</v>
       </c>
@@ -5770,7 +5784,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.8" customHeight="1">
+    <row r="95" spans="1:2" ht="15.75" customHeight="1">
       <c r="A95" s="17">
         <v>442</v>
       </c>
@@ -5778,7 +5792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.8" customHeight="1">
+    <row r="96" spans="1:2" ht="15.75" customHeight="1">
       <c r="A96" s="17">
         <v>445</v>
       </c>
@@ -5786,7 +5800,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.8" customHeight="1">
+    <row r="97" spans="1:4" ht="15.75" customHeight="1">
       <c r="A97" s="17">
         <v>448</v>
       </c>
@@ -5794,7 +5808,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.8" customHeight="1">
+    <row r="98" spans="1:4" ht="15.75" customHeight="1">
       <c r="A98" s="17">
         <v>453</v>
       </c>
@@ -5802,13 +5816,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.8" customHeight="1">
+    <row r="99" spans="1:4" ht="15.75" customHeight="1">
       <c r="A99" s="15">
         <v>457</v>
       </c>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:4" ht="15.8" customHeight="1">
+    <row r="100" spans="1:4" ht="15.75" customHeight="1">
       <c r="A100" s="17">
         <v>458</v>
       </c>
@@ -5816,7 +5830,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.8" customHeight="1">
+    <row r="101" spans="1:4" ht="15.75" customHeight="1">
       <c r="A101" s="17">
         <v>461</v>
       </c>
@@ -5824,7 +5838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.8" customHeight="1">
+    <row r="102" spans="1:4" ht="15.75" customHeight="1">
       <c r="A102" s="17">
         <v>463</v>
       </c>
@@ -5832,7 +5846,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.8" customHeight="1">
+    <row r="103" spans="1:4" ht="15.75" customHeight="1">
       <c r="A103" s="17">
         <v>470</v>
       </c>
@@ -5843,7 +5857,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.8" customHeight="1">
+    <row r="104" spans="1:4" ht="15.75" customHeight="1">
       <c r="A104" s="17">
         <v>476</v>
       </c>
@@ -5857,7 +5871,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.8" customHeight="1">
+    <row r="105" spans="1:4" ht="15.75" customHeight="1">
       <c r="A105" s="15">
         <v>479</v>
       </c>
@@ -5865,7 +5879,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.8" customHeight="1">
+    <row r="106" spans="1:4" ht="15.75" customHeight="1">
       <c r="A106" s="17">
         <v>482</v>
       </c>
@@ -5873,7 +5887,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.8" customHeight="1">
+    <row r="107" spans="1:4" ht="15.75" customHeight="1">
       <c r="A107" s="17">
         <v>500</v>
       </c>
@@ -5882,7 +5896,7 @@
       </c>
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="1:4" ht="15.8" customHeight="1">
+    <row r="108" spans="1:4" ht="15.75" customHeight="1">
       <c r="A108" s="15">
         <v>518</v>
       </c>
@@ -5890,7 +5904,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.8" customHeight="1">
+    <row r="109" spans="1:4" ht="15.75" customHeight="1">
       <c r="A109" s="17">
         <v>535</v>
       </c>
@@ -5901,7 +5915,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.8" customHeight="1">
+    <row r="110" spans="1:4" ht="15.75" customHeight="1">
       <c r="A110" s="17">
         <v>540</v>
       </c>
@@ -5912,7 +5926,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.8" customHeight="1">
+    <row r="111" spans="1:4" ht="15.75" customHeight="1">
       <c r="A111" s="17">
         <v>543</v>
       </c>
@@ -5920,13 +5934,13 @@
         <v>280</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.8" customHeight="1">
+    <row r="112" spans="1:4" ht="15.75" customHeight="1">
       <c r="A112" s="15">
         <v>547</v>
       </c>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:3" ht="15.8" customHeight="1">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1">
       <c r="A113" s="17">
         <v>556</v>
       </c>
@@ -5934,7 +5948,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.8" customHeight="1">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1">
       <c r="A114" s="17">
         <v>557</v>
       </c>
@@ -5945,14 +5959,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.8" customHeight="1">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1">
       <c r="A115" s="15">
         <v>560</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="1:3" ht="15.8" customHeight="1">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1">
       <c r="A116" s="17">
         <v>561</v>
       </c>
@@ -5963,20 +5977,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.8" customHeight="1">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1">
       <c r="A117" s="15">
         <v>564</v>
       </c>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:3" ht="15.8" customHeight="1">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1">
       <c r="A118" s="15">
         <v>609</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="15"/>
     </row>
-    <row r="119" spans="1:3" ht="15.8" customHeight="1">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1">
       <c r="A119" s="17">
         <v>617</v>
       </c>
@@ -5987,13 +6001,13 @@
         <v>354</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.8" customHeight="1">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1">
       <c r="A120" s="15">
         <v>621</v>
       </c>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:3" ht="15.8" customHeight="1">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1">
       <c r="A121" s="17">
         <v>628</v>
       </c>
@@ -6001,28 +6015,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.8" customHeight="1">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1">
       <c r="A122" s="15">
         <v>636</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="15"/>
     </row>
-    <row r="123" spans="1:3" ht="15.8" customHeight="1">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1">
       <c r="A123" s="15">
         <v>642</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="15"/>
     </row>
-    <row r="124" spans="1:3" ht="15.8" customHeight="1">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1">
       <c r="A124" s="15">
         <v>647</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="15"/>
     </row>
-    <row r="125" spans="1:3" ht="15.8" customHeight="1">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1">
       <c r="A125" s="17">
         <v>654</v>
       </c>
@@ -6033,7 +6047,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.8" customHeight="1">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1">
       <c r="A126" s="17">
         <v>657</v>
       </c>
@@ -6044,7 +6058,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.8" customHeight="1">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1">
       <c r="A127" s="17">
         <v>669</v>
       </c>
@@ -6055,7 +6069,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.8" customHeight="1">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1">
       <c r="A128" s="17">
         <v>681</v>
       </c>
@@ -6066,7 +6080,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.8" customHeight="1">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1">
       <c r="A129" s="15">
         <v>683</v>
       </c>
@@ -6074,7 +6088,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.8" customHeight="1">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1">
       <c r="A130" s="17">
         <v>695</v>
       </c>
@@ -6085,7 +6099,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.8" customHeight="1">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1">
       <c r="A131" s="17">
         <v>697</v>
       </c>
@@ -6096,7 +6110,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.8" customHeight="1">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1">
       <c r="A132" s="17">
         <v>716</v>
       </c>
@@ -6104,7 +6118,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.8" customHeight="1">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1">
       <c r="A133" s="17">
         <v>717</v>
       </c>
@@ -6112,13 +6126,13 @@
         <v>354</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.8" customHeight="1">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1">
       <c r="A134" s="15">
         <v>722</v>
       </c>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:3" ht="15.8" customHeight="1">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1">
       <c r="A135" s="17">
         <v>728</v>
       </c>
@@ -6129,19 +6143,19 @@
         <v>354</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.8" customHeight="1">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1">
       <c r="A136" s="15">
         <v>739</v>
       </c>
       <c r="B136" s="13"/>
     </row>
-    <row r="137" spans="1:3" ht="15.8" customHeight="1">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1">
       <c r="A137" s="15">
         <v>740</v>
       </c>
       <c r="B137" s="13"/>
     </row>
-    <row r="138" spans="1:3" ht="15.8" customHeight="1">
+    <row r="138" spans="1:3" ht="15.75" customHeight="1">
       <c r="A138" s="17">
         <v>760</v>
       </c>
@@ -6149,7 +6163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.8" customHeight="1">
+    <row r="139" spans="1:3" ht="15.75" customHeight="1">
       <c r="A139" s="17">
         <v>771</v>
       </c>
@@ -6160,19 +6174,19 @@
         <v>361</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.8" customHeight="1">
+    <row r="140" spans="1:3" ht="15.75" customHeight="1">
       <c r="A140" s="15">
         <v>772</v>
       </c>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:3" ht="15.8" customHeight="1">
+    <row r="141" spans="1:3" ht="15.75" customHeight="1">
       <c r="A141" s="15">
         <v>798</v>
       </c>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:3" ht="15.8" customHeight="1">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1">
       <c r="A142" s="17">
         <v>804</v>
       </c>
@@ -6183,7 +6197,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.8" customHeight="1">
+    <row r="143" spans="1:3" ht="15.75" customHeight="1">
       <c r="A143" s="17">
         <v>807</v>
       </c>
@@ -6194,7 +6208,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.8" customHeight="1">
+    <row r="144" spans="1:3" ht="15.75" customHeight="1">
       <c r="A144" s="15">
         <v>819</v>
       </c>
@@ -6202,7 +6216,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.8" customHeight="1">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1">
       <c r="A145" s="17">
         <v>844</v>
       </c>
@@ -6213,7 +6227,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.8" customHeight="1">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1">
       <c r="A146" s="17">
         <v>867</v>
       </c>
@@ -6221,7 +6235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.8" customHeight="1">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1">
       <c r="A147" s="17">
         <v>872</v>
       </c>
@@ -6229,7 +6243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.8" customHeight="1">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1">
       <c r="A148" s="17">
         <v>876</v>
       </c>
@@ -6237,7 +6251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.8" customHeight="1">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1">
       <c r="A149" s="15">
         <v>877</v>
       </c>
@@ -6245,13 +6259,13 @@
         <v>294</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.8" customHeight="1">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1">
       <c r="A150" s="15">
         <v>878</v>
       </c>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="1:3" ht="15.8" customHeight="1">
+    <row r="151" spans="1:3" ht="15.75" customHeight="1">
       <c r="A151" s="17">
         <v>904</v>
       </c>
@@ -6259,7 +6273,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.8" customHeight="1">
+    <row r="152" spans="1:3" ht="15.75" customHeight="1">
       <c r="A152" s="17">
         <v>905</v>
       </c>
@@ -6267,7 +6281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.8" customHeight="1">
+    <row r="153" spans="1:3" ht="15.75" customHeight="1">
       <c r="A153" s="17">
         <v>908</v>
       </c>
@@ -6278,7 +6292,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.8" customHeight="1">
+    <row r="154" spans="1:3" ht="15.75" customHeight="1">
       <c r="A154" s="17">
         <v>922</v>
       </c>
@@ -6289,7 +6303,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.8" customHeight="1">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1">
       <c r="A155" s="17">
         <v>925</v>
       </c>
@@ -6297,7 +6311,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.8" customHeight="1">
+    <row r="156" spans="1:3" ht="15.75" customHeight="1">
       <c r="A156" s="15">
         <v>926</v>
       </c>
@@ -6305,7 +6319,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.8" customHeight="1">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1">
       <c r="A157" s="17">
         <v>929</v>
       </c>
@@ -6316,7 +6330,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.8" customHeight="1">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1">
       <c r="A158" s="15">
         <v>930</v>
       </c>
@@ -6324,7 +6338,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.8" customHeight="1">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1">
       <c r="A159" s="17">
         <v>931</v>
       </c>
@@ -6335,7 +6349,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.8" customHeight="1">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1">
       <c r="B160" s="14"/>
     </row>
   </sheetData>
@@ -6345,7 +6359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -6353,9 +6367,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.8" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2">
         <v>136</v>
       </c>
@@ -6369,14 +6383,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
@@ -6394,7 +6408,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="116.15">
+    <row r="3" spans="1:4" ht="118.8">
       <c r="A3" s="16" t="s">
         <v>364</v>
       </c>
@@ -6402,7 +6416,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="154.9">
+    <row r="4" spans="1:4" ht="158.4">
       <c r="A4" s="16" t="s">
         <v>369</v>
       </c>
@@ -6410,7 +6424,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="129.1">
+    <row r="5" spans="1:4" ht="145.19999999999999">
       <c r="A5" s="16" t="s">
         <v>372</v>
       </c>

--- a/lcdaily.xlsx
+++ b/lcdaily.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\sttt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2634179B-4414-4D0F-BF24-2A047708A4AA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0513C9-DB62-4A9B-92B3-027E5FE8E3DC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="150以后高频思考" sheetId="4" r:id="rId4"/>
     <sheet name="bit" sheetId="6" r:id="rId5"/>
     <sheet name="综合性易错点" sheetId="7" r:id="rId6"/>
+    <sheet name="各类例题" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="481">
   <si>
     <t>目前的目标是过整理的笔记，以及所有题目的算法，不求写程序了，写程序的熟练度已经差不多了。要bug free很难，下面就是力争把900题的hard算法全部能搞定</t>
   </si>
@@ -262,6 +263,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">分法对left 和right 对mid是否要加一减一的情况，要仔细考虑各种情况是否会死循环。
 </t>
@@ -1202,14 +1204,402 @@
     <t>算法想清楚了</t>
   </si>
   <si>
-    <t>算法想清楚，但是要看答案，貌似答案的情况比较简单，我多想了？</t>
+    <t>算法很清楚</t>
+  </si>
+  <si>
+    <t>答案的方法比我好，参见word文档</t>
+  </si>
+  <si>
+    <t>算法更好，要参考</t>
+  </si>
+  <si>
+    <t> computing quotients instead of shortest paths</t>
+  </si>
+  <si>
+    <t>算法相对了，debug了三次才过。一是注意set.union(set)是给出一个新set，不会改变原来的set。第二，-1%5=4</t>
+  </si>
+  <si>
+    <t>set.union(set)是给出一个新set，不会改变原来的set。第二，-1%5=4</t>
+  </si>
+  <si>
+    <t>How to srot list of list:
+ people = sorted(people, key=lambda x: x[1])
+ 按照多维排序：
+ pass1 = sorted(people, key=lambda x: (x[0], -x[1]), reverse=True)。 先按第一个参数，如果一样就按第二个。
+ 最后插入按照x[1]一次插入就可以
+ python的list，如果list.insert(pos,val)可以在那个index插入，然后把后面的全部往后移动一位</t>
+  </si>
+  <si>
+    <t>和第五题一样，但是记下个数</t>
+  </si>
+  <si>
+    <t>基本 bug free， for k,v in dict.items():  不是dict.item()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> for k,v in dict.items():  不是dict.item()</t>
+  </si>
+  <si>
+    <t>radix sort的算法要反复练习</t>
+  </si>
+  <si>
+    <t>radix sort要牢记。记住从小到大的话，要从个位往高阶排序。排完就是从小到大的</t>
+  </si>
+  <si>
+    <t>def radix(nums,d):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    buckets = [[] for _ in range(10)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for n in nums:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        buckets[(n//10**d)%10].append(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    res=[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for b in buckets:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        res.extend(b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return res</t>
+  </si>
+  <si>
+    <t>maxd = len(str(2**32))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for d in range(maxd):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sortedNums = radix(sortedNums,d)</t>
+  </si>
+  <si>
+    <t>heap的用法</t>
+  </si>
+  <si>
+    <t>heapify 是O(n） heappop是O（logn）heapsort是O（nlogn）</t>
+  </si>
+  <si>
+    <t>minheap 方法，只存k个最大值。Maxheap方法，要存所有的数字，取k次才得到第k的数字。</t>
+  </si>
+  <si>
+    <t>heap 都是min heap， maxheap需要加入负号*num</t>
+  </si>
+  <si>
+    <r>
+      <t>min_heap = [-float(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF880000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'inf'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)] * k</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        heapq.heapify(min_heap)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> num </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> nums:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                heapq.heappop(min_heap)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                heapq.heappush(min_heap, num)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quick select </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def findKthLargest(self, nums, k):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if len(nums)==0:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        pivot = nums[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        left = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        right = len(nums)-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        p=left+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        while p&lt;=right:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if nums[p]&gt;pivot:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                self.swap(nums,p,left)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                left+=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                p+=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            elif nums[p]==pivot:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            else:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                self.swap(nums,p,right)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                right-=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if left+1==k:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return pivot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if left&lt;k-1:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return self.findKthLargest(nums[left+1:],k-left-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        else:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return self.findKthLargest(nums[:left],k)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def swap(self,nums,a,b):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        tmp = nums[a]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        nums[a]=nums[b]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        nums[b]=tmp</t>
+  </si>
+  <si>
+    <t>quick sort</t>
+  </si>
+  <si>
+    <t>radix sort</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>bisect</t>
+  </si>
+  <si>
+    <t>set union</t>
+  </si>
+  <si>
+    <t>multi-val sort</t>
+  </si>
+  <si>
+    <t>dict, key,val loop</t>
+  </si>
+  <si>
+    <t>bisect.bisect(list,x) 可以查找x 在list中插入的位置。</t>
+  </si>
+  <si>
+    <t>bisect.insort(list,x) 可以插入x并且keep list sorted</t>
+  </si>
+  <si>
+    <t>bisect.insort_left(list,x), 插入x，如果有多个x，那么插在相等x的最左边</t>
+  </si>
+  <si>
+    <t>bisect.insort_right(list,x) 插入x，多个x，插在最右边</t>
+  </si>
+  <si>
+    <t>Bisect 最大特点是sort和插入自动化，都是nlogn</t>
+  </si>
+  <si>
+    <t>preorder</t>
+  </si>
+  <si>
+    <t>inorder</t>
+  </si>
+  <si>
+    <t>postorder</t>
+  </si>
+  <si>
+    <t>index, val loop</t>
+  </si>
+  <si>
+    <t>for index,v in enumerate(abcd)</t>
+  </si>
+  <si>
+    <t>map array to string</t>
+  </si>
+  <si>
+    <t>map(str,array)</t>
+  </si>
+  <si>
+    <t>sort by specific function</t>
+  </si>
+  <si>
+    <t>Python 2 里面用sorted(nums,cmp=func) 可以排序
+Python 3.6里面remove了cmp，所以要写成
+class LargerNumKey(str):
+	def __lt__(x, y):
+    	return x+y &gt; y+x
+sorted(map(str, nums), key=LargerNumKey)</t>
+  </si>
+  <si>
+    <t>sort dictionary by key/val</t>
+  </si>
+  <si>
+    <t>import operator
+d = {1: 2, 3: 4, 4: 3, 2: 1, 0: 0}
+print('Original dictionary : ',d)
+sorted_d = sorted(d.items(), key=operator.itemgetter(0))
+print('Dictionary in ascending order by value : ',sorted_d)
+sorted_d = sorted(d.items(), key=operator.itemgetter(0),reverse=True)
+print('Dictionary in descending order by value : ',sorted_d)</t>
+  </si>
+  <si>
+    <t>minheap</t>
+  </si>
+  <si>
+    <t>maxheap</t>
+  </si>
+  <si>
+    <t>use Trie</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Heap：求集合的最大值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Stack： 1. 单调栈的运用找左边和右边第一个比它大的元素   2. 递归转非递归     </t>
+  </si>
+  <si>
+    <t>• Windows problem • a.加一个数 • b.删一个数的方法</t>
+  </si>
+  <si>
+    <t>TreeMap and TreeSet</t>
+  </si>
+  <si>
+    <t>OrderedDict</t>
+  </si>
+  <si>
+    <t>deque</t>
+  </si>
+  <si>
+    <t>interval dp</t>
+  </si>
+  <si>
+    <t>matching dp</t>
+  </si>
+  <si>
+    <t>knapsack</t>
+  </si>
+  <si>
+    <t>dijkstra</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Hashmap</t>
+  </si>
+  <si>
+    <t>Reject Sampling</t>
+  </si>
+  <si>
+    <t>segment Tree</t>
+  </si>
+  <si>
+    <t>不需要数次数，只要记录最近的index就可以了</t>
+  </si>
+  <si>
+    <t>算法倒也清楚，preorder or level order</t>
+  </si>
+  <si>
+    <t>level order</t>
+  </si>
+  <si>
+    <t>20min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1219,25 +1609,30 @@
       <sz val="10"/>
       <color rgb="FF00FF00"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1248,21 +1643,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1343,8 +1742,39 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF880000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1355,6 +1785,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1370,7 +1806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1418,6 +1854,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1478,7 +1936,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1530,7 +1988,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1737,8 +2195,8 @@
   </sheetPr>
   <dimension ref="A1:AA251"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4608,10 +5066,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4804,6 +5262,9 @@
       <c r="A19" s="30">
         <v>43431</v>
       </c>
+      <c r="B19" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="D19" s="16" t="s">
         <v>8</v>
       </c>
@@ -4812,6 +5273,9 @@
       <c r="A20" s="30">
         <v>43432</v>
       </c>
+      <c r="B20" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="D20" s="16" t="s">
         <v>8</v>
       </c>
@@ -4820,6 +5284,9 @@
       <c r="A21" s="30">
         <v>43433</v>
       </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D21" s="16" t="s">
         <v>8</v>
       </c>
@@ -4828,6 +5295,9 @@
       <c r="A22" s="30">
         <v>43434</v>
       </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D22" s="16" t="s">
         <v>8</v>
       </c>
@@ -4836,6 +5306,9 @@
       <c r="A23" s="30">
         <v>43435</v>
       </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D23" s="16" t="s">
         <v>8</v>
       </c>
@@ -4844,6 +5317,9 @@
       <c r="A24" s="30">
         <v>43436</v>
       </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D24" s="16" t="s">
         <v>8</v>
       </c>
@@ -4852,6 +5328,9 @@
       <c r="A25" s="30">
         <v>43437</v>
       </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D25" s="16" t="s">
         <v>8</v>
       </c>
@@ -4860,8 +5339,16 @@
       <c r="A26" s="30">
         <v>43438</v>
       </c>
+      <c r="B26" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="D26" s="16" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27" s="30">
+        <v>43439</v>
       </c>
     </row>
   </sheetData>
@@ -4874,10 +5361,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5053,7 +5540,17 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="17"/>
+      <c r="A26" s="17">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A27" s="15">
+        <v>930</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5066,15 +5563,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="2">
         <v>151</v>
       </c>
@@ -5082,7 +5579,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>152</v>
       </c>
@@ -5090,7 +5587,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>153</v>
       </c>
@@ -5098,7 +5595,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>155</v>
       </c>
@@ -5106,27 +5603,29 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="15">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="17">
         <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="15">
         <v>158</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A7" s="15">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="2">
         <v>159</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B7" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>160</v>
       </c>
@@ -5134,7 +5633,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>162</v>
       </c>
@@ -5142,15 +5641,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A10" s="15">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" s="2">
         <v>164</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C10" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>165</v>
       </c>
@@ -5158,7 +5660,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>167</v>
       </c>
@@ -5166,7 +5668,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>168</v>
       </c>
@@ -5174,7 +5676,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>169</v>
       </c>
@@ -5182,7 +5684,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>171</v>
       </c>
@@ -5190,7 +5692,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>172</v>
       </c>
@@ -5324,15 +5826,18 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="15">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A33" s="2">
         <v>215</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
+      <c r="E33" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>217</v>
       </c>
@@ -5340,25 +5845,31 @@
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="15">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35" s="2">
         <v>218</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="2">
         <v>219</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A37" s="15">
+      <c r="B36" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="17">
         <v>224</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B37" s="17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="2">
         <v>226</v>
       </c>
@@ -5366,7 +5877,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="2">
         <v>227</v>
       </c>
@@ -5374,7 +5885,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>231</v>
       </c>
@@ -5382,7 +5893,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>234</v>
       </c>
@@ -5390,7 +5901,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="2">
         <v>235</v>
       </c>
@@ -5398,13 +5909,15 @@
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A43" s="15">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="17">
         <v>236</v>
       </c>
-      <c r="B43" s="16"/>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B43" s="17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>237</v>
       </c>
@@ -5412,7 +5925,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>238</v>
       </c>
@@ -5420,19 +5933,19 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="15">
         <v>239</v>
       </c>
       <c r="B46" s="22"/>
     </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="15">
         <v>240</v>
       </c>
       <c r="B47" s="22"/>
     </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="2">
         <v>242</v>
       </c>
@@ -5457,643 +5970,667 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A51" s="15">
-        <v>260</v>
-      </c>
-      <c r="B51" s="24"/>
+      <c r="A51" s="2">
+        <v>263</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1">
       <c r="A52" s="2">
-        <v>263</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>330</v>
+        <v>268</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A53" s="2">
-        <v>268</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>331</v>
+      <c r="A53" s="10">
+        <v>269</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1">
       <c r="A54" s="25">
-        <v>269</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A55" s="25">
-        <v>272</v>
+      <c r="A55" s="2">
+        <v>273</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1">
       <c r="A56" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A57" s="2">
-        <v>279</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>333</v>
+      <c r="A57" s="17">
+        <v>280</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
       <c r="A58" s="17">
-        <v>280</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>334</v>
+        <v>283</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
       <c r="A59" s="17">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>4</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="17">
-        <v>287</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>335</v>
+        <v>289</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1">
       <c r="A61" s="17">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A62" s="17">
-        <v>292</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>308</v>
-      </c>
+      <c r="A62" s="15">
+        <v>295</v>
+      </c>
+      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A63" s="15">
-        <v>295</v>
-      </c>
-      <c r="B63" s="2"/>
+      <c r="A63" s="2">
+        <v>297</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A64" s="15">
-        <v>297</v>
-      </c>
-      <c r="B64" s="2"/>
+      <c r="A64" s="17">
+        <v>300</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A65" s="17">
-        <v>300</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>337</v>
+      <c r="A65" s="15">
+        <v>301</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A66" s="15">
-        <v>301</v>
+      <c r="A66" s="17">
+        <v>303</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A67" s="17">
-        <v>303</v>
+      <c r="A67" s="27">
+        <v>307</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A68" s="27">
-        <v>307</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>338</v>
-      </c>
+      <c r="A68" s="15">
+        <v>312</v>
+      </c>
+      <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A69" s="15">
-        <v>312</v>
-      </c>
-      <c r="B69" s="2"/>
+      <c r="A69" s="17">
+        <v>319</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1">
       <c r="A70" s="17">
-        <v>319</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>367</v>
+        <v>322</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1">
       <c r="A71" s="17">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1">
       <c r="A72" s="17">
-        <v>326</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>262</v>
+        <v>328</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A73" s="17">
-        <v>328</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>339</v>
+      <c r="A73" s="15">
+        <v>336</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A74" s="15">
-        <v>336</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>264</v>
+      <c r="A74" s="17">
+        <v>341</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1">
       <c r="A75" s="17">
-        <v>341</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>368</v>
+        <v>344</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1">
       <c r="A76" s="17">
-        <v>344</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>4</v>
+        <v>345</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1">
       <c r="A77" s="17">
-        <v>345</v>
-      </c>
-      <c r="B77" s="28" t="s">
-        <v>340</v>
+        <v>347</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1">
       <c r="A78" s="17">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A79" s="15">
-        <v>348</v>
-      </c>
-      <c r="B79" s="2"/>
+      <c r="A79" s="17">
+        <v>349</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1">
       <c r="A80" s="17">
-        <v>349</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>265</v>
+        <v>364</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A81" s="15">
-        <v>364</v>
-      </c>
-      <c r="B81" s="2"/>
+      <c r="A81" s="32">
+        <v>371</v>
+      </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A82" s="32">
-        <v>371</v>
+      <c r="A82" s="17">
+        <v>374</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1">
       <c r="A83" s="17">
-        <v>374</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>342</v>
+        <v>380</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A84" s="15">
-        <v>380</v>
+      <c r="A84" s="17">
+        <v>383</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1">
       <c r="A85" s="17">
-        <v>383</v>
-      </c>
-      <c r="B85" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A86" s="17">
+        <v>387</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A86" s="15">
-        <v>384</v>
-      </c>
-      <c r="B86" s="2"/>
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1">
       <c r="A87" s="17">
-        <v>387</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>4</v>
+        <v>393</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1">
       <c r="A88" s="17">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1">
       <c r="A89" s="15">
-        <v>399</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>376</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2" ht="15.75" customHeight="1">
       <c r="A90" s="15">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A91" s="15">
-        <v>403</v>
-      </c>
-      <c r="B91" s="2"/>
+      <c r="A91" s="2">
+        <v>406</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A92" s="15">
-        <v>406</v>
+      <c r="A92" s="17">
+        <v>412</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>267</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1">
       <c r="A93" s="17">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>4</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1">
       <c r="A94" s="17">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>269</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" customHeight="1">
       <c r="A95" s="17">
-        <v>442</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>4</v>
+        <v>445</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.75" customHeight="1">
       <c r="A96" s="17">
-        <v>445</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>343</v>
+        <v>448</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1">
       <c r="A97" s="17">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>270</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1">
       <c r="A98" s="17">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>4</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A99" s="15">
-        <v>457</v>
-      </c>
-      <c r="B99" s="2"/>
+      <c r="A99" s="17">
+        <v>458</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1">
       <c r="A100" s="17">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>271</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" customHeight="1">
       <c r="A101" s="17">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1">
       <c r="A102" s="17">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" customHeight="1">
       <c r="A103" s="17">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>344</v>
+        <v>345</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A104" s="17">
-        <v>476</v>
+      <c r="A104" s="15">
+        <v>479</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>371</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A105" s="15">
-        <v>479</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>276</v>
+      <c r="A105" s="17">
+        <v>482</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" customHeight="1">
       <c r="A106" s="17">
-        <v>482</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>354</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A107" s="17">
-        <v>500</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C107" s="2"/>
+      <c r="A107" s="15">
+        <v>518</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A108" s="15">
-        <v>518</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>346</v>
+      <c r="A108" s="17">
+        <v>535</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1">
       <c r="A109" s="17">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>347</v>
+        <v>113</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.75" customHeight="1">
       <c r="A110" s="17">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A111" s="17">
-        <v>543</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="A111" s="15">
+        <v>547</v>
+      </c>
+      <c r="B111" s="2"/>
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A112" s="15">
-        <v>547</v>
-      </c>
-      <c r="B112" s="2"/>
+      <c r="A112" s="17">
+        <v>556</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1">
       <c r="A113" s="17">
-        <v>556</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>353</v>
+        <v>557</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A114" s="17">
-        <v>557</v>
-      </c>
-      <c r="B114" s="2" t="s">
+      <c r="A114" s="15">
+        <v>560</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A115" s="17">
+        <v>561</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A115" s="15">
-        <v>560</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-    </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A116" s="17">
-        <v>561</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A116" s="15">
+        <v>564</v>
+      </c>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1">
       <c r="A117" s="15">
-        <v>564</v>
+        <v>609</v>
       </c>
       <c r="B117" s="2"/>
+      <c r="C117" s="15"/>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A118" s="15">
-        <v>609</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="15"/>
+      <c r="A118" s="17">
+        <v>617</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A119" s="17">
-        <v>617</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>354</v>
-      </c>
+      <c r="A119" s="15">
+        <v>621</v>
+      </c>
+      <c r="B119" s="2"/>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A120" s="15">
-        <v>621</v>
-      </c>
-      <c r="B120" s="2"/>
+      <c r="A120" s="17">
+        <v>628</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A121" s="17">
-        <v>628</v>
+      <c r="A121" s="2">
+        <v>636</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C121" s="15"/>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1">
       <c r="A122" s="15">
-        <v>636</v>
-      </c>
-      <c r="B122" s="2"/>
+        <v>642</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>461</v>
+      </c>
       <c r="C122" s="15"/>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A123" s="15">
-        <v>642</v>
-      </c>
-      <c r="B123" s="2"/>
+      <c r="A123" s="2">
+        <v>647</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="C123" s="15"/>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A124" s="15">
-        <v>647</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" s="15"/>
+      <c r="A124" s="17">
+        <v>654</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1">
       <c r="A125" s="17">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>282</v>
+        <v>4</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1">
       <c r="A126" s="17">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>4</v>
+        <v>283</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1">
       <c r="A127" s="17">
-        <v>669</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>283</v>
+        <v>681</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="C127" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A128" s="15">
+        <v>683</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A129" s="17">
+        <v>695</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C129" s="16" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A128" s="17">
-        <v>681</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A129" s="15">
-        <v>683</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1">
       <c r="A130" s="17">
-        <v>695</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>287</v>
+        <v>697</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>356</v>
@@ -6101,135 +6638,134 @@
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1">
       <c r="A131" s="17">
-        <v>697</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>356</v>
+        <v>716</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1">
       <c r="A132" s="17">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A133" s="17">
-        <v>717</v>
-      </c>
-      <c r="B133" s="17" t="s">
+      <c r="A133" s="15">
+        <v>722</v>
+      </c>
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A134" s="17">
+        <v>728</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C134" s="17" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A134" s="15">
-        <v>722</v>
-      </c>
-      <c r="B134" s="2"/>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1">
       <c r="A135" s="17">
-        <v>728</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>354</v>
+        <v>739</v>
+      </c>
+      <c r="B135" s="34" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1">
       <c r="A136" s="15">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B136" s="13"/>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A137" s="15">
-        <v>740</v>
-      </c>
-      <c r="B137" s="13"/>
+      <c r="A137" s="17">
+        <v>760</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1">
       <c r="A138" s="17">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C138" s="16" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A139" s="17">
-        <v>771</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>361</v>
-      </c>
+      <c r="A139" s="15">
+        <v>772</v>
+      </c>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" customHeight="1">
       <c r="A140" s="15">
-        <v>772</v>
+        <v>798</v>
       </c>
       <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A141" s="15">
-        <v>798</v>
-      </c>
-      <c r="B141" s="2"/>
+      <c r="A141" s="17">
+        <v>804</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C141" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="142" spans="1:3" ht="15.75" customHeight="1">
       <c r="A142" s="17">
-        <v>804</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C142" t="s">
-        <v>360</v>
+        <v>807</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A143" s="17">
-        <v>807</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>354</v>
+      <c r="A143" s="2">
+        <v>819</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A144" s="15">
-        <v>819</v>
+      <c r="A144" s="17">
+        <v>844</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" customHeight="1">
       <c r="A145" s="17">
-        <v>844</v>
+        <v>867</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>362</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" customHeight="1">
       <c r="A146" s="17">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>4</v>
@@ -6237,120 +6773,104 @@
     </row>
     <row r="147" spans="1:3" ht="15.75" customHeight="1">
       <c r="A147" s="17">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A148" s="17">
-        <v>876</v>
+      <c r="A148" s="2">
+        <v>877</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>4</v>
+        <v>294</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" customHeight="1">
       <c r="A149" s="15">
-        <v>877</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>294</v>
-      </c>
+        <v>878</v>
+      </c>
+      <c r="B149" s="2"/>
     </row>
     <row r="150" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A150" s="15">
-        <v>878</v>
-      </c>
-      <c r="B150" s="2"/>
+      <c r="A150" s="17">
+        <v>904</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="151" spans="1:3" ht="15.75" customHeight="1">
       <c r="A151" s="17">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>373</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15.75" customHeight="1">
       <c r="A152" s="17">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C152" s="16" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="153" spans="1:3" ht="15.75" customHeight="1">
       <c r="A153" s="17">
-        <v>908</v>
+        <v>922</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" customHeight="1">
       <c r="A154" s="17">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A155" s="15">
+        <v>926</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A156" s="17">
+        <v>929</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C154" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A155" s="17">
-        <v>925</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A156" s="15">
-        <v>926</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>297</v>
+      <c r="C156" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15.75" customHeight="1">
       <c r="A157" s="17">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A158" s="15">
-        <v>930</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A159" s="17">
-        <v>931</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B160" s="14"/>
+      <c r="B158" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6384,13 +6904,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="3" max="3" width="108.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
@@ -6408,7 +6931,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="118.8">
+    <row r="3" spans="1:4" ht="66.599999999999994" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>364</v>
       </c>
@@ -6416,7 +6939,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="158.4">
+    <row r="4" spans="1:4" ht="45.6" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>369</v>
       </c>
@@ -6424,12 +6947,667 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="145.19999999999999">
+    <row r="5" spans="1:4" ht="67.2" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>372</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75.599999999999994" customHeight="1">
+      <c r="A8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="79.2">
+      <c r="A9" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="C28" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" s="36" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" s="36" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" s="36" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" s="36" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="C33" s="37" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="C37" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="C38" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="C39" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="C40" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="C41" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="C42" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="C43" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="C44" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="C45" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="C46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="C47" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="C48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15">
+      <c r="A65" t="s">
+        <v>439</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15">
+      <c r="C66" s="38" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15">
+      <c r="C67" s="38" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15">
+      <c r="C68" s="38" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15">
+      <c r="C69" s="38" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="92.4">
+      <c r="A87" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D64D11-248E-40D7-9B3A-E04B80477D50}">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C10">
+        <v>84</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C13">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C15" s="3">
+        <v>312</v>
+      </c>
+      <c r="D15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C16" s="3">
+        <v>115</v>
+      </c>
+      <c r="D16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C17" s="3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C19" s="3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C21">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C22">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C23">
+        <v>307</v>
+      </c>
+      <c r="D23">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C26">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C27">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C28">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.6">
+      <c r="A40" s="40" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.6">
+      <c r="A41" s="40" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.6">
+      <c r="A42" s="40" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.6">
+      <c r="A44" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
